--- a/xls/templates/run-rate-template.xlsx
+++ b/xls/templates/run-rate-template.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddcullen/Projects/remarkably/xls/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C6C520-6FF2-B940-A31F-165EDA3016EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BDA0C5-565E-2B4F-B1C9-E245EA5D0405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21040" activeTab="1" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
+    <workbookView xWindow="25620" yWindow="460" windowWidth="38380" windowHeight="21060" activeTab="1" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="116">
   <si>
     <t>Start Date</t>
   </si>
@@ -365,17 +362,37 @@
   </si>
   <si>
     <t>Model End Row</t>
+  </si>
+  <si>
+    <t>Count of Weeks</t>
+  </si>
+  <si>
+    <t>Notice to Vacate</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Notice to Vacate is 4 weeks before move outs</t>
+  </si>
+  <si>
+    <t>So, you'll need to extend at least 4 weeks past stop point of modeling</t>
+  </si>
+  <si>
+    <t>Average Weekly Move Outs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,8 +443,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +528,16 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -580,7 +621,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -597,8 +638,10 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,31 +650,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
@@ -646,11 +720,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
@@ -659,74 +732,55 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="14" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="15"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="14" borderId="0" xfId="16" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="17"/>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" xfId="17" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="18">
     <cellStyle name="20% - Accent2" xfId="8" builtinId="34"/>
     <cellStyle name="20% - Accent6" xfId="15" builtinId="50"/>
     <cellStyle name="60% - Accent1" xfId="6" builtinId="32"/>
@@ -738,9 +792,11 @@
     <cellStyle name="Accent4" xfId="11" builtinId="41"/>
     <cellStyle name="Accent5" xfId="12" builtinId="45"/>
     <cellStyle name="Accent6" xfId="14" builtinId="49"/>
+    <cellStyle name="Bad" xfId="16" builtinId="27"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
+    <cellStyle name="Neutral" xfId="17" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -755,41 +811,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Unit Data"/>
-      <sheetName val="Unit Occupiability"/>
-      <sheetName val="Lease Data"/>
-      <sheetName val="Baseline Report"/>
-      <sheetName val="Conversion Stats"/>
-      <sheetName val="Starting Stats"/>
-      <sheetName val="USV Advertising"/>
-      <sheetName val="INQ Advertising"/>
-      <sheetName val="Run Rate Model"/>
-      <sheetName val="May Deadline Model"/>
-      <sheetName val="June Deadline Model"/>
-      <sheetName val="Output"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1111,23 +1132,23 @@
       <c r="A1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="35">
+      <c r="B1" s="11">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="4" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1157,28 +1178,28 @@
       <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="9" t="s">
         <v>77</v>
       </c>
       <c r="R3" t="s">
@@ -1284,17 +1305,17 @@
         <f t="shared" ref="U4:U46" ca="1" si="0">T4/S4</f>
         <v>0.312202852614897</v>
       </c>
-      <c r="V4" s="27">
-        <f ca="1">C4/T4</f>
+      <c r="V4" s="8">
+        <f t="shared" ref="V4:V46" ca="1" si="1">C4/T4</f>
         <v>0.34010152284263961</v>
       </c>
-      <c r="W4" s="27">
-        <f ca="1">D4/C4</f>
+      <c r="W4" s="8">
+        <f t="shared" ref="W4:W46" ca="1" si="2">D4/C4</f>
         <v>0.85074626865671643</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
+      <c r="A5" s="6">
         <v>43598</v>
       </c>
       <c r="B5">
@@ -1321,31 +1342,31 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="26">
-        <v>0</v>
-      </c>
-      <c r="K5" s="26">
-        <v>0</v>
-      </c>
-      <c r="L5" s="26">
-        <v>0</v>
-      </c>
-      <c r="M5" s="26">
-        <v>0</v>
-      </c>
-      <c r="N5" s="26">
-        <v>0</v>
-      </c>
-      <c r="O5" s="26">
-        <v>0</v>
-      </c>
-      <c r="P5" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="26">
-        <v>0</v>
-      </c>
-      <c r="R5" s="55">
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="23">
         <v>400</v>
       </c>
       <c r="S5">
@@ -1358,17 +1379,17 @@
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="V5" s="27">
-        <f>C5/T5</f>
+      <c r="V5" s="8">
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="W5" s="27">
-        <f>D5/C5</f>
+      <c r="W5" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
+      <c r="A6" s="6">
         <v>43605</v>
       </c>
       <c r="B6">
@@ -1395,31 +1416,31 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="26">
-        <v>0</v>
-      </c>
-      <c r="K6" s="26">
-        <v>0</v>
-      </c>
-      <c r="L6" s="26">
-        <v>0</v>
-      </c>
-      <c r="M6" s="26">
-        <v>0</v>
-      </c>
-      <c r="N6" s="26">
-        <v>0</v>
-      </c>
-      <c r="O6" s="26">
-        <v>0</v>
-      </c>
-      <c r="P6" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="26">
-        <v>0</v>
-      </c>
-      <c r="R6" s="55">
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="23">
         <v>400</v>
       </c>
       <c r="S6">
@@ -1432,17 +1453,17 @@
         <f t="shared" si="0"/>
         <v>0.14084507042253522</v>
       </c>
-      <c r="V6" s="27">
-        <f>C6/T6</f>
+      <c r="V6" s="8">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="W6" s="27">
-        <f>D6/C6</f>
+      <c r="W6" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
+      <c r="A7" s="6">
         <v>43612</v>
       </c>
       <c r="B7">
@@ -1469,31 +1490,31 @@
       <c r="I7">
         <v>3</v>
       </c>
-      <c r="J7" s="26">
-        <v>0</v>
-      </c>
-      <c r="K7" s="26">
-        <v>0</v>
-      </c>
-      <c r="L7" s="26">
-        <v>0</v>
-      </c>
-      <c r="M7" s="26">
-        <v>0</v>
-      </c>
-      <c r="N7" s="26">
-        <v>0</v>
-      </c>
-      <c r="O7" s="26">
-        <v>0</v>
-      </c>
-      <c r="P7" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="26">
-        <v>0</v>
-      </c>
-      <c r="R7" s="55">
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="23">
         <v>400</v>
       </c>
       <c r="S7">
@@ -1506,17 +1527,17 @@
         <f t="shared" si="0"/>
         <v>0.17777777777777778</v>
       </c>
-      <c r="V7" s="27">
-        <f>C7/T7</f>
+      <c r="V7" s="8">
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="W7" s="27">
-        <f>D7/C7</f>
+      <c r="W7" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
+      <c r="A8" s="6">
         <v>43619</v>
       </c>
       <c r="B8">
@@ -1543,31 +1564,31 @@
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="J8" s="26">
-        <v>0</v>
-      </c>
-      <c r="K8" s="26">
-        <v>0</v>
-      </c>
-      <c r="L8" s="26">
-        <v>0</v>
-      </c>
-      <c r="M8" s="26">
-        <v>0</v>
-      </c>
-      <c r="N8" s="26">
-        <v>0</v>
-      </c>
-      <c r="O8" s="26">
-        <v>0</v>
-      </c>
-      <c r="P8" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>0</v>
-      </c>
-      <c r="R8" s="55">
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="23">
         <v>400</v>
       </c>
       <c r="S8">
@@ -1580,17 +1601,17 @@
         <f t="shared" si="0"/>
         <v>0.25531914893617019</v>
       </c>
-      <c r="V8" s="27">
-        <f>C8/T8</f>
+      <c r="V8" s="8">
+        <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="W8" s="27">
-        <f>D8/C8</f>
+      <c r="W8" s="8">
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
+      <c r="A9" s="6">
         <v>43626</v>
       </c>
       <c r="B9">
@@ -1617,31 +1638,31 @@
       <c r="I9">
         <v>3</v>
       </c>
-      <c r="J9" s="26">
-        <v>0</v>
-      </c>
-      <c r="K9" s="26">
-        <v>0</v>
-      </c>
-      <c r="L9" s="26">
-        <v>0</v>
-      </c>
-      <c r="M9" s="26">
-        <v>0</v>
-      </c>
-      <c r="N9" s="26">
-        <v>0</v>
-      </c>
-      <c r="O9" s="26">
-        <v>0</v>
-      </c>
-      <c r="P9" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="26">
-        <v>0</v>
-      </c>
-      <c r="R9" s="55">
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="23">
         <v>400</v>
       </c>
       <c r="S9">
@@ -1654,17 +1675,17 @@
         <f t="shared" si="0"/>
         <v>0.25531914893617019</v>
       </c>
-      <c r="V9" s="27">
-        <f>C9/T9</f>
+      <c r="V9" s="8">
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="W9" s="27">
-        <f>D9/C9</f>
+      <c r="W9" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="6">
         <v>43634</v>
       </c>
       <c r="B10">
@@ -1691,31 +1712,31 @@
       <c r="I10">
         <v>3</v>
       </c>
-      <c r="J10" s="26">
-        <v>0</v>
-      </c>
-      <c r="K10" s="26">
-        <v>0</v>
-      </c>
-      <c r="L10" s="26">
-        <v>0</v>
-      </c>
-      <c r="M10" s="26">
-        <v>0</v>
-      </c>
-      <c r="N10" s="26">
-        <v>0</v>
-      </c>
-      <c r="O10" s="26">
-        <v>0</v>
-      </c>
-      <c r="P10" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>0</v>
-      </c>
-      <c r="R10" s="55">
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="23">
         <v>400</v>
       </c>
       <c r="S10">
@@ -1728,17 +1749,17 @@
         <f t="shared" si="0"/>
         <v>0.34042553191489361</v>
       </c>
-      <c r="V10" s="27">
-        <f>C10/T10</f>
+      <c r="V10" s="8">
+        <f t="shared" si="1"/>
         <v>0.3125</v>
       </c>
-      <c r="W10" s="27">
-        <f>D10/C10</f>
+      <c r="W10" s="8">
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+      <c r="A11" s="6">
         <v>43641</v>
       </c>
       <c r="B11">
@@ -1765,31 +1786,31 @@
       <c r="I11">
         <v>2</v>
       </c>
-      <c r="J11" s="26">
-        <v>0</v>
-      </c>
-      <c r="K11" s="26">
-        <v>0</v>
-      </c>
-      <c r="L11" s="26">
-        <v>0</v>
-      </c>
-      <c r="M11" s="26">
-        <v>0</v>
-      </c>
-      <c r="N11" s="26">
-        <v>0</v>
-      </c>
-      <c r="O11" s="26">
-        <v>0</v>
-      </c>
-      <c r="P11" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>0</v>
-      </c>
-      <c r="R11" s="55">
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="23">
         <v>400</v>
       </c>
       <c r="S11">
@@ -1802,17 +1823,17 @@
         <f t="shared" si="0"/>
         <v>0.35483870967741937</v>
       </c>
-      <c r="V11" s="27">
-        <f>C11/T11</f>
+      <c r="V11" s="8">
+        <f t="shared" si="1"/>
         <v>0.40909090909090912</v>
       </c>
-      <c r="W11" s="27">
-        <f>D11/C11</f>
+      <c r="W11" s="8">
+        <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+      <c r="A12" s="6">
         <v>43648</v>
       </c>
       <c r="B12">
@@ -1839,31 +1860,31 @@
       <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12" s="26">
-        <v>0</v>
-      </c>
-      <c r="K12" s="26">
-        <v>0</v>
-      </c>
-      <c r="L12" s="26">
-        <v>0</v>
-      </c>
-      <c r="M12" s="26">
-        <v>0</v>
-      </c>
-      <c r="N12" s="26">
-        <v>0</v>
-      </c>
-      <c r="O12" s="26">
-        <v>0</v>
-      </c>
-      <c r="P12" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="26">
-        <v>0</v>
-      </c>
-      <c r="R12" s="55">
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="23">
         <v>400</v>
       </c>
       <c r="S12">
@@ -1876,17 +1897,17 @@
         <f t="shared" si="0"/>
         <v>0.22916666666666666</v>
       </c>
-      <c r="V12" s="27">
-        <f>C12/T12</f>
+      <c r="V12" s="8">
+        <f t="shared" si="1"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="W12" s="27">
-        <f>D12/C12</f>
+      <c r="W12" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+      <c r="A13" s="6">
         <v>43655</v>
       </c>
       <c r="B13">
@@ -1913,31 +1934,31 @@
       <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" s="26">
-        <v>0</v>
-      </c>
-      <c r="K13" s="26">
-        <v>0</v>
-      </c>
-      <c r="L13" s="26">
-        <v>0</v>
-      </c>
-      <c r="M13" s="26">
-        <v>0</v>
-      </c>
-      <c r="N13" s="26">
-        <v>0</v>
-      </c>
-      <c r="O13" s="26">
-        <v>0</v>
-      </c>
-      <c r="P13" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="26">
-        <v>0</v>
-      </c>
-      <c r="R13" s="55">
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="23">
         <v>400</v>
       </c>
       <c r="S13">
@@ -1950,17 +1971,17 @@
         <f t="shared" si="0"/>
         <v>0.31707317073170732</v>
       </c>
-      <c r="V13" s="27">
-        <f>C13/T13</f>
+      <c r="V13" s="8">
+        <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="W13" s="27">
-        <f>D13/C13</f>
+      <c r="W13" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+      <c r="A14" s="6">
         <v>43662</v>
       </c>
       <c r="B14">
@@ -1987,31 +2008,31 @@
       <c r="I14">
         <v>2</v>
       </c>
-      <c r="J14" s="26">
-        <v>0</v>
-      </c>
-      <c r="K14" s="26">
-        <v>0</v>
-      </c>
-      <c r="L14" s="26">
-        <v>0</v>
-      </c>
-      <c r="M14" s="26">
-        <v>0</v>
-      </c>
-      <c r="N14" s="26">
-        <v>0</v>
-      </c>
-      <c r="O14" s="26">
-        <v>0</v>
-      </c>
-      <c r="P14" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="26">
-        <v>0</v>
-      </c>
-      <c r="R14" s="55">
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="23">
         <v>400</v>
       </c>
       <c r="S14">
@@ -2024,17 +2045,17 @@
         <f t="shared" si="0"/>
         <v>0.37777777777777777</v>
       </c>
-      <c r="V14" s="27">
-        <f>C14/T14</f>
+      <c r="V14" s="8">
+        <f t="shared" si="1"/>
         <v>0.47058823529411764</v>
       </c>
-      <c r="W14" s="27">
-        <f>D14/C14</f>
+      <c r="W14" s="8">
+        <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="A15" s="6">
         <v>43669</v>
       </c>
       <c r="B15">
@@ -2061,31 +2082,31 @@
       <c r="I15">
         <v>3</v>
       </c>
-      <c r="J15" s="26">
-        <v>0</v>
-      </c>
-      <c r="K15" s="26">
-        <v>0</v>
-      </c>
-      <c r="L15" s="26">
-        <v>0</v>
-      </c>
-      <c r="M15" s="26">
-        <v>0</v>
-      </c>
-      <c r="N15" s="26">
-        <v>0</v>
-      </c>
-      <c r="O15" s="26">
-        <v>0</v>
-      </c>
-      <c r="P15" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>0</v>
-      </c>
-      <c r="R15" s="55">
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="23">
         <v>400</v>
       </c>
       <c r="S15">
@@ -2098,17 +2119,17 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="V15" s="27">
-        <f>C15/T15</f>
+      <c r="V15" s="8">
+        <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
-      <c r="W15" s="27">
-        <f>D15/C15</f>
+      <c r="W15" s="8">
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
+      <c r="A16" s="6">
         <v>43676</v>
       </c>
       <c r="B16">
@@ -2135,31 +2156,31 @@
       <c r="I16">
         <v>6</v>
       </c>
-      <c r="J16" s="26">
-        <v>0</v>
-      </c>
-      <c r="K16" s="26">
-        <v>0</v>
-      </c>
-      <c r="L16" s="26">
-        <v>0</v>
-      </c>
-      <c r="M16" s="26">
-        <v>0</v>
-      </c>
-      <c r="N16" s="26">
-        <v>0</v>
-      </c>
-      <c r="O16" s="26">
-        <v>0</v>
-      </c>
-      <c r="P16" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="26">
-        <v>0</v>
-      </c>
-      <c r="R16" s="55">
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="23">
         <v>400</v>
       </c>
       <c r="S16">
@@ -2172,17 +2193,17 @@
         <f t="shared" si="0"/>
         <v>0.43283582089552236</v>
       </c>
-      <c r="V16" s="27">
-        <f>C16/T16</f>
+      <c r="V16" s="8">
+        <f t="shared" si="1"/>
         <v>0.2413793103448276</v>
       </c>
-      <c r="W16" s="27">
-        <f>D16/C16</f>
+      <c r="W16" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
+      <c r="A17" s="6">
         <v>43682</v>
       </c>
       <c r="B17">
@@ -2209,31 +2230,31 @@
       <c r="I17">
         <v>5</v>
       </c>
-      <c r="J17" s="26">
-        <v>0</v>
-      </c>
-      <c r="K17" s="26">
-        <v>0</v>
-      </c>
-      <c r="L17" s="26">
-        <v>0</v>
-      </c>
-      <c r="M17" s="26">
-        <v>0</v>
-      </c>
-      <c r="N17" s="26">
-        <v>0</v>
-      </c>
-      <c r="O17" s="26">
-        <v>0</v>
-      </c>
-      <c r="P17" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="26">
-        <v>0</v>
-      </c>
-      <c r="R17" s="55">
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="23">
         <v>400</v>
       </c>
       <c r="S17">
@@ -2246,17 +2267,17 @@
         <f t="shared" si="0"/>
         <v>0.45614035087719296</v>
       </c>
-      <c r="V17" s="27">
-        <f>C17/T17</f>
+      <c r="V17" s="8">
+        <f t="shared" si="1"/>
         <v>0.23076923076923078</v>
       </c>
-      <c r="W17" s="27">
-        <f>D17/C17</f>
+      <c r="W17" s="8">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
+      <c r="A18" s="6">
         <v>43689</v>
       </c>
       <c r="B18">
@@ -2283,31 +2304,31 @@
       <c r="I18">
         <v>8</v>
       </c>
-      <c r="J18" s="26">
-        <v>0</v>
-      </c>
-      <c r="K18" s="26">
-        <v>0</v>
-      </c>
-      <c r="L18" s="26">
-        <v>0</v>
-      </c>
-      <c r="M18" s="26">
-        <v>0</v>
-      </c>
-      <c r="N18" s="26">
-        <v>0</v>
-      </c>
-      <c r="O18" s="26">
-        <v>0</v>
-      </c>
-      <c r="P18" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>0</v>
-      </c>
-      <c r="R18" s="55">
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="23">
         <v>400</v>
       </c>
       <c r="S18">
@@ -2320,17 +2341,17 @@
         <f t="shared" si="0"/>
         <v>0.4107142857142857</v>
       </c>
-      <c r="V18" s="27">
-        <f>C18/T18</f>
+      <c r="V18" s="8">
+        <f t="shared" si="1"/>
         <v>0.13043478260869565</v>
       </c>
-      <c r="W18" s="27">
-        <f>D18/C18</f>
+      <c r="W18" s="8">
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
+      <c r="A19" s="6">
         <v>43696</v>
       </c>
       <c r="B19">
@@ -2357,31 +2378,31 @@
       <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19" s="26">
-        <v>0</v>
-      </c>
-      <c r="K19" s="26">
-        <v>0</v>
-      </c>
-      <c r="L19" s="26">
-        <v>0</v>
-      </c>
-      <c r="M19" s="26">
-        <v>0</v>
-      </c>
-      <c r="N19" s="26">
-        <v>0</v>
-      </c>
-      <c r="O19" s="26">
-        <v>0</v>
-      </c>
-      <c r="P19" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="26">
-        <v>0</v>
-      </c>
-      <c r="R19" s="55">
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="23">
         <v>400</v>
       </c>
       <c r="S19">
@@ -2394,17 +2415,17 @@
         <f t="shared" si="0"/>
         <v>0.25862068965517243</v>
       </c>
-      <c r="V19" s="27">
-        <f>C19/T19</f>
+      <c r="V19" s="8">
+        <f t="shared" si="1"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="W19" s="27">
-        <f>D19/C19</f>
+      <c r="W19" s="8">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
+      <c r="A20" s="6">
         <v>43703</v>
       </c>
       <c r="B20">
@@ -2431,31 +2452,31 @@
       <c r="I20">
         <v>5</v>
       </c>
-      <c r="J20" s="26">
-        <v>0</v>
-      </c>
-      <c r="K20" s="26">
-        <v>0</v>
-      </c>
-      <c r="L20" s="26">
-        <v>0</v>
-      </c>
-      <c r="M20" s="26">
-        <v>0</v>
-      </c>
-      <c r="N20" s="26">
-        <v>0</v>
-      </c>
-      <c r="O20" s="26">
-        <v>0</v>
-      </c>
-      <c r="P20" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="26">
-        <v>0</v>
-      </c>
-      <c r="R20" s="55">
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="23">
         <v>400</v>
       </c>
       <c r="S20">
@@ -2468,17 +2489,17 @@
         <f t="shared" si="0"/>
         <v>0.2391304347826087</v>
       </c>
-      <c r="V20" s="27">
-        <f>C20/T20</f>
+      <c r="V20" s="8">
+        <f t="shared" si="1"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="W20" s="27">
-        <f>D20/C20</f>
+      <c r="W20" s="8">
+        <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
+      <c r="A21" s="6">
         <v>43710</v>
       </c>
       <c r="B21">
@@ -2505,31 +2526,31 @@
       <c r="I21">
         <v>5</v>
       </c>
-      <c r="J21" s="26">
-        <v>0</v>
-      </c>
-      <c r="K21" s="26">
-        <v>0</v>
-      </c>
-      <c r="L21" s="26">
-        <v>0</v>
-      </c>
-      <c r="M21" s="26">
-        <v>0</v>
-      </c>
-      <c r="N21" s="26">
-        <v>0</v>
-      </c>
-      <c r="O21" s="26">
-        <v>0</v>
-      </c>
-      <c r="P21" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="26">
-        <v>0</v>
-      </c>
-      <c r="R21" s="55">
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0</v>
+      </c>
+      <c r="R21" s="23">
         <v>400</v>
       </c>
       <c r="S21">
@@ -2542,17 +2563,17 @@
         <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
-      <c r="V21" s="27">
-        <f>C21/T21</f>
+      <c r="V21" s="8">
+        <f t="shared" si="1"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="W21" s="27">
-        <f>D21/C21</f>
+      <c r="W21" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+      <c r="A22" s="6">
         <v>43718</v>
       </c>
       <c r="B22">
@@ -2579,31 +2600,31 @@
       <c r="I22">
         <v>5</v>
       </c>
-      <c r="J22" s="26">
-        <v>0</v>
-      </c>
-      <c r="K22" s="26">
-        <v>0</v>
-      </c>
-      <c r="L22" s="26">
-        <v>0</v>
-      </c>
-      <c r="M22" s="26">
-        <v>0</v>
-      </c>
-      <c r="N22" s="26">
-        <v>0</v>
-      </c>
-      <c r="O22" s="26">
-        <v>0</v>
-      </c>
-      <c r="P22" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="26">
-        <v>0</v>
-      </c>
-      <c r="R22" s="55">
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0</v>
+      </c>
+      <c r="R22" s="23">
         <v>400</v>
       </c>
       <c r="S22">
@@ -2616,17 +2637,17 @@
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="V22" s="27">
-        <f>C22/T22</f>
+      <c r="V22" s="8">
+        <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="W22" s="27">
-        <f>D22/C22</f>
+      <c r="W22" s="8">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+      <c r="A23" s="6">
         <v>43725</v>
       </c>
       <c r="B23">
@@ -2653,31 +2674,31 @@
       <c r="I23">
         <v>5</v>
       </c>
-      <c r="J23" s="26">
-        <v>0</v>
-      </c>
-      <c r="K23" s="26">
-        <v>0</v>
-      </c>
-      <c r="L23" s="26">
-        <v>0</v>
-      </c>
-      <c r="M23" s="26">
-        <v>0</v>
-      </c>
-      <c r="N23" s="26">
-        <v>0</v>
-      </c>
-      <c r="O23" s="26">
-        <v>0</v>
-      </c>
-      <c r="P23" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="26">
-        <v>0</v>
-      </c>
-      <c r="R23" s="55">
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>0</v>
+      </c>
+      <c r="R23" s="23">
         <v>400</v>
       </c>
       <c r="S23">
@@ -2690,17 +2711,17 @@
         <f t="shared" si="0"/>
         <v>0.39285714285714285</v>
       </c>
-      <c r="V23" s="27">
-        <f>C23/T23</f>
+      <c r="V23" s="8">
+        <f t="shared" si="1"/>
         <v>0.22727272727272727</v>
       </c>
-      <c r="W23" s="27">
-        <f>D23/C23</f>
+      <c r="W23" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+      <c r="A24" s="6">
         <v>43732</v>
       </c>
       <c r="B24">
@@ -2727,31 +2748,31 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24" s="26">
-        <v>0</v>
-      </c>
-      <c r="K24" s="26">
-        <v>0</v>
-      </c>
-      <c r="L24" s="26">
-        <v>0</v>
-      </c>
-      <c r="M24" s="26">
-        <v>0</v>
-      </c>
-      <c r="N24" s="26">
-        <v>0</v>
-      </c>
-      <c r="O24" s="26">
-        <v>0</v>
-      </c>
-      <c r="P24" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="26">
-        <v>0</v>
-      </c>
-      <c r="R24" s="55">
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0</v>
+      </c>
+      <c r="R24" s="23">
         <v>400</v>
       </c>
       <c r="S24">
@@ -2764,17 +2785,17 @@
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="V24" s="27">
-        <f>C24/T24</f>
+      <c r="V24" s="8">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="W24" s="27">
-        <f>D24/C24</f>
+      <c r="W24" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
+      <c r="A25" s="6">
         <v>43738</v>
       </c>
       <c r="B25">
@@ -2801,31 +2822,31 @@
       <c r="I25">
         <v>10</v>
       </c>
-      <c r="J25" s="26">
-        <v>0</v>
-      </c>
-      <c r="K25" s="26">
-        <v>0</v>
-      </c>
-      <c r="L25" s="26">
-        <v>0</v>
-      </c>
-      <c r="M25" s="26">
-        <v>0</v>
-      </c>
-      <c r="N25" s="26">
-        <v>0</v>
-      </c>
-      <c r="O25" s="26">
-        <v>0</v>
-      </c>
-      <c r="P25" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="26">
-        <v>0</v>
-      </c>
-      <c r="R25" s="55">
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0</v>
+      </c>
+      <c r="R25" s="23">
         <v>400</v>
       </c>
       <c r="S25">
@@ -2838,17 +2859,17 @@
         <f t="shared" si="0"/>
         <v>0.37735849056603776</v>
       </c>
-      <c r="V25" s="27">
-        <f>C25/T25</f>
+      <c r="V25" s="8">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="W25" s="27">
-        <f>D25/C25</f>
+      <c r="W25" s="8">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
+      <c r="A26" s="6">
         <v>43745</v>
       </c>
       <c r="B26">
@@ -2875,31 +2896,31 @@
       <c r="I26">
         <v>3</v>
       </c>
-      <c r="J26" s="26">
-        <v>0</v>
-      </c>
-      <c r="K26" s="26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="26">
-        <v>0</v>
-      </c>
-      <c r="M26" s="26">
-        <v>0</v>
-      </c>
-      <c r="N26" s="26">
-        <v>0</v>
-      </c>
-      <c r="O26" s="26">
-        <v>0</v>
-      </c>
-      <c r="P26" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="26">
-        <v>0</v>
-      </c>
-      <c r="R26" s="55">
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0</v>
+      </c>
+      <c r="R26" s="23">
         <v>400</v>
       </c>
       <c r="S26">
@@ -2912,17 +2933,17 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="V26" s="27">
-        <f>C26/T26</f>
+      <c r="V26" s="8">
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W26" s="27">
-        <f>D26/C26</f>
+      <c r="W26" s="8">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+      <c r="A27" s="6">
         <v>43752</v>
       </c>
       <c r="B27">
@@ -2949,31 +2970,31 @@
       <c r="I27">
         <v>3</v>
       </c>
-      <c r="J27" s="26">
-        <v>0</v>
-      </c>
-      <c r="K27" s="26">
-        <v>0</v>
-      </c>
-      <c r="L27" s="26">
-        <v>0</v>
-      </c>
-      <c r="M27" s="26">
-        <v>0</v>
-      </c>
-      <c r="N27" s="26">
-        <v>0</v>
-      </c>
-      <c r="O27" s="26">
-        <v>0</v>
-      </c>
-      <c r="P27" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="26">
-        <v>0</v>
-      </c>
-      <c r="R27" s="55">
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0</v>
+      </c>
+      <c r="R27" s="23">
         <v>400</v>
       </c>
       <c r="S27">
@@ -2986,17 +3007,17 @@
         <f t="shared" si="0"/>
         <v>0.54761904761904767</v>
       </c>
-      <c r="V27" s="27">
-        <f>C27/T27</f>
+      <c r="V27" s="8">
+        <f t="shared" si="1"/>
         <v>0.34782608695652173</v>
       </c>
-      <c r="W27" s="27">
-        <f>D27/C27</f>
+      <c r="W27" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
+      <c r="A28" s="6">
         <v>43759</v>
       </c>
       <c r="B28">
@@ -3023,31 +3044,31 @@
       <c r="I28">
         <v>6</v>
       </c>
-      <c r="J28" s="26">
-        <v>0</v>
-      </c>
-      <c r="K28" s="26">
-        <v>0</v>
-      </c>
-      <c r="L28" s="26">
-        <v>0</v>
-      </c>
-      <c r="M28" s="26">
-        <v>0</v>
-      </c>
-      <c r="N28" s="26">
-        <v>0</v>
-      </c>
-      <c r="O28" s="26">
-        <v>0</v>
-      </c>
-      <c r="P28" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="26">
-        <v>0</v>
-      </c>
-      <c r="R28" s="55">
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0</v>
+      </c>
+      <c r="R28" s="23">
         <v>400</v>
       </c>
       <c r="S28">
@@ -3060,17 +3081,17 @@
         <f t="shared" si="0"/>
         <v>0.42424242424242425</v>
       </c>
-      <c r="V28" s="27">
-        <f>C28/T28</f>
+      <c r="V28" s="8">
+        <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="W28" s="27">
-        <f>D28/C28</f>
+      <c r="W28" s="8">
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
+      <c r="A29" s="6">
         <v>43766</v>
       </c>
       <c r="B29">
@@ -3097,31 +3118,31 @@
       <c r="I29">
         <v>3</v>
       </c>
-      <c r="J29" s="26">
-        <v>0</v>
-      </c>
-      <c r="K29" s="26">
-        <v>0</v>
-      </c>
-      <c r="L29" s="26">
-        <v>0</v>
-      </c>
-      <c r="M29" s="26">
-        <v>0</v>
-      </c>
-      <c r="N29" s="26">
-        <v>0</v>
-      </c>
-      <c r="O29" s="26">
-        <v>0</v>
-      </c>
-      <c r="P29" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="26">
-        <v>0</v>
-      </c>
-      <c r="R29" s="55">
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>0</v>
+      </c>
+      <c r="R29" s="23">
         <v>400</v>
       </c>
       <c r="S29">
@@ -3134,17 +3155,17 @@
         <f t="shared" si="0"/>
         <v>0.21052631578947367</v>
       </c>
-      <c r="V29" s="27">
-        <f>C29/T29</f>
+      <c r="V29" s="8">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="W29" s="27">
-        <f>D29/C29</f>
+      <c r="W29" s="8">
+        <f t="shared" si="2"/>
         <v>-0.66666666666666663</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
+      <c r="A30" s="6">
         <v>43773</v>
       </c>
       <c r="B30">
@@ -3171,31 +3192,31 @@
       <c r="I30">
         <v>5</v>
       </c>
-      <c r="J30" s="26">
-        <v>0</v>
-      </c>
-      <c r="K30" s="26">
-        <v>0</v>
-      </c>
-      <c r="L30" s="26">
-        <v>0</v>
-      </c>
-      <c r="M30" s="26">
-        <v>0</v>
-      </c>
-      <c r="N30" s="26">
-        <v>0</v>
-      </c>
-      <c r="O30" s="26">
-        <v>0</v>
-      </c>
-      <c r="P30" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="26">
-        <v>0</v>
-      </c>
-      <c r="R30" s="55">
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0</v>
+      </c>
+      <c r="R30" s="23">
         <v>400</v>
       </c>
       <c r="S30">
@@ -3208,17 +3229,17 @@
         <f t="shared" si="0"/>
         <v>0.22857142857142856</v>
       </c>
-      <c r="V30" s="27">
-        <f>C30/T30</f>
+      <c r="V30" s="8">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="W30" s="27">
-        <f>D30/C30</f>
+      <c r="W30" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
+      <c r="A31" s="6">
         <v>43780</v>
       </c>
       <c r="B31">
@@ -3245,31 +3266,31 @@
       <c r="I31">
         <v>2</v>
       </c>
-      <c r="J31" s="26">
-        <v>0</v>
-      </c>
-      <c r="K31" s="26">
-        <v>0</v>
-      </c>
-      <c r="L31" s="26">
-        <v>0</v>
-      </c>
-      <c r="M31" s="26">
-        <v>0</v>
-      </c>
-      <c r="N31" s="26">
-        <v>0</v>
-      </c>
-      <c r="O31" s="26">
-        <v>0</v>
-      </c>
-      <c r="P31" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="26">
-        <v>0</v>
-      </c>
-      <c r="R31" s="55">
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0</v>
+      </c>
+      <c r="R31" s="23">
         <v>400</v>
       </c>
       <c r="S31">
@@ -3282,17 +3303,17 @@
         <f t="shared" si="0"/>
         <v>0.24390243902439024</v>
       </c>
-      <c r="V31" s="27">
-        <f>C31/T31</f>
+      <c r="V31" s="8">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="W31" s="27">
-        <f>D31/C31</f>
+      <c r="W31" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
+      <c r="A32" s="6">
         <v>43787</v>
       </c>
       <c r="B32">
@@ -3319,31 +3340,31 @@
       <c r="I32">
         <v>4</v>
       </c>
-      <c r="J32" s="26">
-        <v>0</v>
-      </c>
-      <c r="K32" s="26">
-        <v>0</v>
-      </c>
-      <c r="L32" s="26">
-        <v>0</v>
-      </c>
-      <c r="M32" s="26">
-        <v>0</v>
-      </c>
-      <c r="N32" s="26">
-        <v>0</v>
-      </c>
-      <c r="O32" s="26">
-        <v>0</v>
-      </c>
-      <c r="P32" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="26">
-        <v>0</v>
-      </c>
-      <c r="R32" s="55">
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0</v>
+      </c>
+      <c r="R32" s="23">
         <v>400</v>
       </c>
       <c r="S32">
@@ -3356,17 +3377,17 @@
         <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="V32" s="27">
-        <f>C32/T32</f>
+      <c r="V32" s="8">
+        <f t="shared" si="1"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="W32" s="27">
-        <f>D32/C32</f>
+      <c r="W32" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
+      <c r="A33" s="6">
         <v>43794</v>
       </c>
       <c r="B33">
@@ -3393,31 +3414,31 @@
       <c r="I33">
         <v>5</v>
       </c>
-      <c r="J33" s="26">
-        <v>0</v>
-      </c>
-      <c r="K33" s="26">
-        <v>0</v>
-      </c>
-      <c r="L33" s="26">
-        <v>0</v>
-      </c>
-      <c r="M33" s="26">
-        <v>0</v>
-      </c>
-      <c r="N33" s="26">
-        <v>0</v>
-      </c>
-      <c r="O33" s="26">
-        <v>0</v>
-      </c>
-      <c r="P33" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="26">
-        <v>0</v>
-      </c>
-      <c r="R33" s="55">
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" s="23">
         <v>400</v>
       </c>
       <c r="S33">
@@ -3430,17 +3451,17 @@
         <f t="shared" si="0"/>
         <v>0.42307692307692307</v>
       </c>
-      <c r="V33" s="27">
-        <f>C33/T33</f>
+      <c r="V33" s="8">
+        <f t="shared" si="1"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="W33" s="27">
-        <f>D33/C33</f>
+      <c r="W33" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
+      <c r="A34" s="6">
         <v>43801</v>
       </c>
       <c r="B34">
@@ -3467,31 +3488,31 @@
       <c r="I34">
         <v>8</v>
       </c>
-      <c r="J34" s="26">
-        <v>0</v>
-      </c>
-      <c r="K34" s="26">
-        <v>0</v>
-      </c>
-      <c r="L34" s="26">
-        <v>0</v>
-      </c>
-      <c r="M34" s="26">
-        <v>0</v>
-      </c>
-      <c r="N34" s="26">
-        <v>0</v>
-      </c>
-      <c r="O34" s="26">
-        <v>0</v>
-      </c>
-      <c r="P34" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="26">
-        <v>0</v>
-      </c>
-      <c r="R34" s="55">
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0</v>
+      </c>
+      <c r="R34" s="23">
         <v>400</v>
       </c>
       <c r="S34">
@@ -3504,17 +3525,17 @@
         <f t="shared" si="0"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="V34" s="27">
-        <f>C34/T34</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="27" t="e">
-        <f>D34/C34</f>
+      <c r="V34" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
+      <c r="A35" s="6">
         <v>43808</v>
       </c>
       <c r="B35">
@@ -3541,31 +3562,31 @@
       <c r="I35">
         <v>3</v>
       </c>
-      <c r="J35" s="26">
-        <v>0</v>
-      </c>
-      <c r="K35" s="26">
-        <v>0</v>
-      </c>
-      <c r="L35" s="26">
-        <v>0</v>
-      </c>
-      <c r="M35" s="26">
-        <v>0</v>
-      </c>
-      <c r="N35" s="26">
-        <v>0</v>
-      </c>
-      <c r="O35" s="26">
-        <v>0</v>
-      </c>
-      <c r="P35" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="26">
-        <v>0</v>
-      </c>
-      <c r="R35" s="55">
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0</v>
+      </c>
+      <c r="R35" s="23">
         <v>400</v>
       </c>
       <c r="S35">
@@ -3578,17 +3599,17 @@
         <f t="shared" si="0"/>
         <v>0.32258064516129031</v>
       </c>
-      <c r="V35" s="27">
-        <f>C35/T35</f>
+      <c r="V35" s="8">
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="W35" s="27">
-        <f>D35/C35</f>
+      <c r="W35" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
+      <c r="A36" s="6">
         <v>43815</v>
       </c>
       <c r="B36">
@@ -3615,31 +3636,31 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" s="26">
-        <v>0</v>
-      </c>
-      <c r="K36" s="26">
-        <v>0</v>
-      </c>
-      <c r="L36" s="26">
-        <v>0</v>
-      </c>
-      <c r="M36" s="26">
-        <v>0</v>
-      </c>
-      <c r="N36" s="26">
-        <v>0</v>
-      </c>
-      <c r="O36" s="26">
-        <v>0</v>
-      </c>
-      <c r="P36" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="26">
-        <v>0</v>
-      </c>
-      <c r="R36" s="55">
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0</v>
+      </c>
+      <c r="R36" s="23">
         <v>400</v>
       </c>
       <c r="S36">
@@ -3652,17 +3673,17 @@
         <f t="shared" si="0"/>
         <v>0.3611111111111111</v>
       </c>
-      <c r="V36" s="27">
-        <f>C36/T36</f>
+      <c r="V36" s="8">
+        <f t="shared" si="1"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="W36" s="27">
-        <f>D36/C36</f>
+      <c r="W36" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="25">
+      <c r="A37" s="6">
         <v>43822</v>
       </c>
       <c r="B37">
@@ -3689,31 +3710,31 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37" s="26">
-        <v>0</v>
-      </c>
-      <c r="K37" s="26">
-        <v>0</v>
-      </c>
-      <c r="L37" s="26">
-        <v>0</v>
-      </c>
-      <c r="M37" s="26">
-        <v>0</v>
-      </c>
-      <c r="N37" s="26">
-        <v>0</v>
-      </c>
-      <c r="O37" s="26">
-        <v>0</v>
-      </c>
-      <c r="P37" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="26">
-        <v>0</v>
-      </c>
-      <c r="R37" s="55">
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0</v>
+      </c>
+      <c r="R37" s="23">
         <v>400</v>
       </c>
       <c r="S37">
@@ -3726,17 +3747,17 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="V37" s="27">
-        <f>C37/T37</f>
+      <c r="V37" s="8">
+        <f t="shared" si="1"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="W37" s="27">
-        <f>D37/C37</f>
+      <c r="W37" s="8">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="25">
+      <c r="A38" s="6">
         <v>43829</v>
       </c>
       <c r="B38">
@@ -3763,31 +3784,31 @@
       <c r="I38">
         <v>3</v>
       </c>
-      <c r="J38" s="26">
-        <v>0</v>
-      </c>
-      <c r="K38" s="26">
-        <v>0</v>
-      </c>
-      <c r="L38" s="26">
-        <v>0</v>
-      </c>
-      <c r="M38" s="26">
-        <v>0</v>
-      </c>
-      <c r="N38" s="26">
-        <v>0</v>
-      </c>
-      <c r="O38" s="26">
-        <v>0</v>
-      </c>
-      <c r="P38" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="26">
-        <v>0</v>
-      </c>
-      <c r="R38" s="55">
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0</v>
+      </c>
+      <c r="R38" s="23">
         <v>400</v>
       </c>
       <c r="S38">
@@ -3800,17 +3821,17 @@
         <f t="shared" si="0"/>
         <v>0.23809523809523808</v>
       </c>
-      <c r="V38" s="27">
-        <f>C38/T38</f>
+      <c r="V38" s="8">
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="W38" s="27">
-        <f>D38/C38</f>
+      <c r="W38" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="25">
+      <c r="A39" s="6">
         <v>43471</v>
       </c>
       <c r="B39">
@@ -3837,31 +3858,31 @@
       <c r="I39">
         <v>5</v>
       </c>
-      <c r="J39" s="26">
-        <v>0</v>
-      </c>
-      <c r="K39" s="26">
-        <v>0</v>
-      </c>
-      <c r="L39" s="26">
-        <v>0</v>
-      </c>
-      <c r="M39" s="26">
-        <v>0</v>
-      </c>
-      <c r="N39" s="26">
-        <v>0</v>
-      </c>
-      <c r="O39" s="26">
-        <v>0</v>
-      </c>
-      <c r="P39" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="26">
-        <v>0</v>
-      </c>
-      <c r="R39" s="55">
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0</v>
+      </c>
+      <c r="R39" s="23">
         <v>400</v>
       </c>
       <c r="S39">
@@ -3874,17 +3895,17 @@
         <f t="shared" si="0"/>
         <v>0.29411764705882354</v>
       </c>
-      <c r="V39" s="27">
-        <f>C39/T39</f>
+      <c r="V39" s="8">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="W39" s="27">
-        <f>D39/C39</f>
+      <c r="W39" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
+      <c r="A40" s="6">
         <v>43478</v>
       </c>
       <c r="B40">
@@ -3911,31 +3932,31 @@
       <c r="I40">
         <v>3</v>
       </c>
-      <c r="J40" s="26">
-        <v>0</v>
-      </c>
-      <c r="K40" s="26">
-        <v>0</v>
-      </c>
-      <c r="L40" s="26">
-        <v>0</v>
-      </c>
-      <c r="M40" s="26">
-        <v>0</v>
-      </c>
-      <c r="N40" s="26">
-        <v>0</v>
-      </c>
-      <c r="O40" s="26">
-        <v>0</v>
-      </c>
-      <c r="P40" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="26">
-        <v>0</v>
-      </c>
-      <c r="R40" s="55">
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0</v>
+      </c>
+      <c r="R40" s="23">
         <v>400</v>
       </c>
       <c r="S40">
@@ -3948,17 +3969,17 @@
         <f t="shared" si="0"/>
         <v>0.36538461538461536</v>
       </c>
-      <c r="V40" s="27">
-        <f>C40/T40</f>
+      <c r="V40" s="8">
+        <f t="shared" si="1"/>
         <v>0.26315789473684209</v>
       </c>
-      <c r="W40" s="27">
-        <f>D40/C40</f>
+      <c r="W40" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="25">
+      <c r="A41" s="6">
         <v>43485</v>
       </c>
       <c r="B41">
@@ -3985,31 +4006,31 @@
       <c r="I41">
         <v>4</v>
       </c>
-      <c r="J41" s="26">
-        <v>0</v>
-      </c>
-      <c r="K41" s="26">
-        <v>0</v>
-      </c>
-      <c r="L41" s="26">
-        <v>0</v>
-      </c>
-      <c r="M41" s="26">
-        <v>0</v>
-      </c>
-      <c r="N41" s="26">
-        <v>0</v>
-      </c>
-      <c r="O41" s="26">
-        <v>0</v>
-      </c>
-      <c r="P41" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="26">
-        <v>0</v>
-      </c>
-      <c r="R41" s="55">
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0</v>
+      </c>
+      <c r="R41" s="23">
         <v>400</v>
       </c>
       <c r="S41">
@@ -4022,17 +4043,17 @@
         <f t="shared" si="0"/>
         <v>0.30232558139534882</v>
       </c>
-      <c r="V41" s="27">
-        <f>C41/T41</f>
+      <c r="V41" s="8">
+        <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
-      <c r="W41" s="27">
-        <f>D41/C41</f>
+      <c r="W41" s="8">
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="25">
+      <c r="A42" s="6">
         <v>43492</v>
       </c>
       <c r="B42">
@@ -4059,31 +4080,31 @@
       <c r="I42">
         <v>3</v>
       </c>
-      <c r="J42" s="26">
-        <v>0</v>
-      </c>
-      <c r="K42" s="26">
-        <v>0</v>
-      </c>
-      <c r="L42" s="26">
-        <v>0</v>
-      </c>
-      <c r="M42" s="26">
-        <v>0</v>
-      </c>
-      <c r="N42" s="26">
-        <v>0</v>
-      </c>
-      <c r="O42" s="26">
-        <v>0</v>
-      </c>
-      <c r="P42" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="26">
-        <v>0</v>
-      </c>
-      <c r="R42" s="55">
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="23">
         <v>400</v>
       </c>
       <c r="S42">
@@ -4096,17 +4117,17 @@
         <f t="shared" si="0"/>
         <v>0.23684210526315788</v>
       </c>
-      <c r="V42" s="27">
-        <f>C42/T42</f>
+      <c r="V42" s="8">
+        <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="W42" s="27">
-        <f>D42/C42</f>
+      <c r="W42" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="25">
+      <c r="A43" s="6">
         <v>43499</v>
       </c>
       <c r="B43">
@@ -4133,31 +4154,31 @@
       <c r="I43">
         <v>6</v>
       </c>
-      <c r="J43" s="26">
-        <v>0</v>
-      </c>
-      <c r="K43" s="26">
-        <v>0</v>
-      </c>
-      <c r="L43" s="26">
-        <v>0</v>
-      </c>
-      <c r="M43" s="26">
-        <v>0</v>
-      </c>
-      <c r="N43" s="26">
-        <v>0</v>
-      </c>
-      <c r="O43" s="26">
-        <v>0</v>
-      </c>
-      <c r="P43" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="26">
-        <v>0</v>
-      </c>
-      <c r="R43" s="55">
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0</v>
+      </c>
+      <c r="R43" s="23">
         <v>400</v>
       </c>
       <c r="S43">
@@ -4170,17 +4191,17 @@
         <f t="shared" si="0"/>
         <v>0.25490196078431371</v>
       </c>
-      <c r="V43" s="27">
-        <f>C43/T43</f>
+      <c r="V43" s="8">
+        <f t="shared" si="1"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="W43" s="27">
-        <f>D43/C43</f>
+      <c r="W43" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="25">
+      <c r="A44" s="6">
         <v>43506</v>
       </c>
       <c r="B44">
@@ -4207,31 +4228,31 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44" s="26">
-        <v>0</v>
-      </c>
-      <c r="K44" s="26">
-        <v>0</v>
-      </c>
-      <c r="L44" s="26">
-        <v>0</v>
-      </c>
-      <c r="M44" s="26">
-        <v>0</v>
-      </c>
-      <c r="N44" s="26">
-        <v>0</v>
-      </c>
-      <c r="O44" s="26">
-        <v>0</v>
-      </c>
-      <c r="P44" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="26">
-        <v>0</v>
-      </c>
-      <c r="R44" s="55">
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0</v>
+      </c>
+      <c r="R44" s="23">
         <v>400</v>
       </c>
       <c r="S44">
@@ -4244,17 +4265,17 @@
         <f t="shared" si="0"/>
         <v>0.24390243902439024</v>
       </c>
-      <c r="V44" s="27">
-        <f>C44/T44</f>
-        <v>0</v>
-      </c>
-      <c r="W44" s="27" t="e">
-        <f>D44/C44</f>
+      <c r="V44" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
+      <c r="A45" s="6">
         <v>43513</v>
       </c>
       <c r="B45">
@@ -4281,31 +4302,31 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45" s="26">
-        <v>0</v>
-      </c>
-      <c r="K45" s="26">
-        <v>0</v>
-      </c>
-      <c r="L45" s="26">
-        <v>0</v>
-      </c>
-      <c r="M45" s="26">
-        <v>0</v>
-      </c>
-      <c r="N45" s="26">
-        <v>0</v>
-      </c>
-      <c r="O45" s="26">
-        <v>0</v>
-      </c>
-      <c r="P45" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="26">
-        <v>0</v>
-      </c>
-      <c r="R45" s="55">
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0</v>
+      </c>
+      <c r="R45" s="23">
         <v>400</v>
       </c>
       <c r="S45">
@@ -4318,17 +4339,17 @@
         <f t="shared" si="0"/>
         <v>0.23684210526315788</v>
       </c>
-      <c r="V45" s="27">
-        <f>C45/T45</f>
+      <c r="V45" s="8">
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W45" s="27">
-        <f>D45/C45</f>
+      <c r="W45" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="25">
+      <c r="A46" s="6">
         <v>43520</v>
       </c>
       <c r="B46">
@@ -4355,31 +4376,31 @@
       <c r="I46">
         <v>4</v>
       </c>
-      <c r="J46" s="26">
-        <v>0</v>
-      </c>
-      <c r="K46" s="26">
-        <v>0</v>
-      </c>
-      <c r="L46" s="26">
-        <v>0</v>
-      </c>
-      <c r="M46" s="26">
-        <v>0</v>
-      </c>
-      <c r="N46" s="26">
-        <v>0</v>
-      </c>
-      <c r="O46" s="26">
-        <v>0</v>
-      </c>
-      <c r="P46" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="26">
-        <v>0</v>
-      </c>
-      <c r="R46" s="55">
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0</v>
+      </c>
+      <c r="R46" s="23">
         <v>400</v>
       </c>
       <c r="S46">
@@ -4392,12 +4413,12 @@
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="V46" s="27">
-        <f>C46/T46</f>
+      <c r="V46" s="8">
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W46" s="27">
-        <f>D46/C46</f>
+      <c r="W46" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4413,186 +4434,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4156A3-96B9-DE41-91DB-F4C9577E214C}">
-  <dimension ref="A1:X72"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E27" sqref="E26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
     <col min="13" max="13" width="6.83203125" customWidth="1"/>
     <col min="16" max="16" width="7.5" customWidth="1"/>
     <col min="17" max="17" width="6.6640625" customWidth="1"/>
-    <col min="18" max="18" width="9.83203125" customWidth="1"/>
-    <col min="19" max="19" width="9.5" customWidth="1"/>
-    <col min="20" max="20" width="22" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" customWidth="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1"/>
-    <col min="24" max="24" width="16" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" customWidth="1"/>
+    <col min="19" max="19" width="9.83203125" customWidth="1"/>
+    <col min="20" max="20" width="9.5" customWidth="1"/>
+    <col min="21" max="21" width="22" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="24" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="E1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="K1" s="42" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="K1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-    </row>
-    <row r="2" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+    </row>
+    <row r="2" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="49"/>
       <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="19">
         <v>43549</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="T2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="U2" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="V2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="W2" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="W2" s="48" t="s">
+      <c r="X2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="48" t="s">
+      <c r="Y2" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="39"/>
       <c r="D3" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="20">
         <v>263</v>
       </c>
       <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="13">
         <v>0.14299999999999999</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="47">
         <f>H3</f>
         <v>0.14299999999999999</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <f>$E$4</f>
         <v>163</v>
       </c>
-      <c r="V3" s="27">
-        <f>U3/$E$3</f>
+      <c r="W3" s="8">
+        <f>V3/$E$3</f>
         <v>0.61977186311787069</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <f>$E$8</f>
         <v>147</v>
       </c>
-      <c r="X3" s="27">
-        <f>W3/$E$3</f>
+      <c r="Y3" s="8">
+        <f>X3/$E$3</f>
         <v>0.55893536121673004</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="49" t="s">
         <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="20">
         <v>163</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="8">
         <v>0.31</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="47">
         <f t="shared" ref="I4:I7" si="0">H4</f>
         <v>0.31</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="46">
+      <c r="K4" s="15">
         <f>$E$2</f>
         <v>43549</v>
       </c>
@@ -4621,57 +4647,61 @@
         <v>5</v>
       </c>
       <c r="R4" s="3">
+        <f>S7</f>
         <v>0</v>
       </c>
       <c r="S4" s="3">
         <v>0</v>
       </c>
       <c r="T4" s="3">
-        <f ca="1">Q4-R4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <f ca="1">Q4-S4</f>
         <v>5</v>
       </c>
-      <c r="U4" s="47">
-        <f ca="1">U3+T4</f>
+      <c r="V4" s="16">
+        <f ca="1">V3+U4</f>
         <v>168</v>
       </c>
-      <c r="V4" s="27">
-        <f t="shared" ref="V4:V38" ca="1" si="1">U4/$E$3</f>
+      <c r="W4" s="8">
+        <f t="shared" ref="W4:W37" ca="1" si="1">V4/$E$3</f>
         <v>0.63878326996197721</v>
       </c>
-      <c r="W4" s="3">
-        <f ca="1">W3+Q4-R4</f>
+      <c r="X4" s="3">
+        <f ca="1">X3+Q4-S4</f>
         <v>152</v>
       </c>
-      <c r="X4" s="27">
-        <f t="shared" ref="X4:X37" ca="1" si="2">W4/$E$3</f>
+      <c r="Y4" s="8">
+        <f t="shared" ref="Y4:Y37" ca="1" si="2">X4/$E$3</f>
         <v>0.57794676806083645</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="50">
         <v>43542</v>
       </c>
       <c r="D5" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="21">
         <v>0.9</v>
       </c>
       <c r="G5" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="8">
         <v>0.35</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="47">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="46">
+      <c r="K5" s="15">
         <f>K4+7</f>
         <v>43556</v>
       </c>
@@ -4700,60 +4730,64 @@
         <v>5</v>
       </c>
       <c r="R5" s="3">
+        <f t="shared" ref="R5:R37" si="9">S8</f>
         <v>0</v>
       </c>
       <c r="S5" s="3">
         <v>0</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" ref="T5:T37" ca="1" si="9">Q5-R5</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" ref="U5:U13" ca="1" si="10">Q5-S5</f>
         <v>5</v>
       </c>
-      <c r="U5" s="47">
-        <f t="shared" ref="U5:U37" ca="1" si="10">U4+T5</f>
+      <c r="V5" s="16">
+        <f t="shared" ref="V5:V37" ca="1" si="11">V4+U5</f>
         <v>173</v>
       </c>
-      <c r="V5" s="27">
+      <c r="W5" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.65779467680608361</v>
       </c>
-      <c r="W5" s="3">
-        <f t="shared" ref="W5:W37" ca="1" si="11">W4+Q5-R5</f>
+      <c r="X5" s="3">
+        <f t="shared" ref="X5:X37" ca="1" si="12">X4+Q5-S5</f>
         <v>157</v>
       </c>
-      <c r="X5" s="27">
+      <c r="Y5" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.59695817490494296</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="50">
         <f ca="1">INDIRECT("K"&amp;E9)</f>
         <v>43689</v>
       </c>
       <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="46">
         <f>ROUND(E3*E5,0)</f>
         <v>237</v>
       </c>
       <c r="G6" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="8">
         <v>0.85</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="47">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="46">
-        <f t="shared" ref="K6:K11" si="12">K5+7</f>
+      <c r="K6" s="15">
+        <f t="shared" ref="K6:K11" si="13">K5+7</f>
         <v>43563</v>
       </c>
       <c r="L6" s="3">
@@ -4781,60 +4815,64 @@
         <v>5</v>
       </c>
       <c r="R6" s="3">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S6" s="3">
         <v>0</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" ca="1" si="10"/>
         <v>5</v>
       </c>
-      <c r="U6" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V6" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>178</v>
       </c>
-      <c r="V6" s="27">
+      <c r="W6" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.67680608365019013</v>
       </c>
-      <c r="W6" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X6" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>162</v>
       </c>
-      <c r="X6" s="27">
+      <c r="Y6" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.61596958174904948</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="e">
-        <f>B47/B8</f>
-        <v>#REF!</v>
+      <c r="B7" s="60">
+        <f ca="1">B47/B8</f>
+        <v>3.8095238095238092E-2</v>
       </c>
       <c r="D7" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="46">
         <f ca="1">Baseline!R4/COUNT(Baseline!R5:INDIRECT("Baseline!R"&amp;Baseline!B1))</f>
         <v>400</v>
       </c>
       <c r="G7" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="12">
         <v>0.46</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="47">
         <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="46">
-        <f t="shared" si="12"/>
+      <c r="K7" s="15">
+        <f t="shared" si="13"/>
         <v>43570</v>
       </c>
       <c r="L7" s="3">
@@ -4862,52 +4900,56 @@
         <v>5</v>
       </c>
       <c r="R7" s="3">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" ca="1" si="10"/>
         <v>5</v>
       </c>
-      <c r="U7" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V7" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>183</v>
       </c>
-      <c r="V7" s="27">
+      <c r="W7" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.69581749049429653</v>
       </c>
-      <c r="W7" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X7" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>167</v>
       </c>
-      <c r="X7" s="27">
+      <c r="Y7" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.63498098859315588</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="e">
-        <f>[1]Output!#REF!</f>
-        <v>#REF!</v>
+      <c r="B8" s="52">
+        <f>$E$11</f>
+        <v>1000</v>
       </c>
       <c r="D8" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="20">
         <v>147</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="46">
-        <f t="shared" si="12"/>
+      <c r="K8" s="15">
+        <f t="shared" si="13"/>
         <v>43577</v>
       </c>
       <c r="L8" s="3">
@@ -4935,47 +4977,51 @@
         <v>5</v>
       </c>
       <c r="R8" s="3">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" ca="1" si="10"/>
         <v>5</v>
       </c>
-      <c r="U8" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V8" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>188</v>
       </c>
-      <c r="V8" s="27">
+      <c r="W8" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.71482889733840305</v>
       </c>
-      <c r="W8" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X8" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>172</v>
       </c>
-      <c r="X8" s="27">
+      <c r="Y8" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.6539923954372624</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="53"/>
       <c r="D9" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="22">
         <v>24</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="46">
-        <f t="shared" si="12"/>
+      <c r="K9" s="15">
+        <f t="shared" si="13"/>
         <v>43584</v>
       </c>
       <c r="L9" s="3">
@@ -5003,44 +5049,54 @@
         <v>5</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" ca="1" si="10"/>
         <v>5</v>
       </c>
-      <c r="U9" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V9" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>193</v>
       </c>
-      <c r="V9" s="27">
+      <c r="W9" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.73384030418250945</v>
       </c>
-      <c r="W9" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X9" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>177</v>
       </c>
-      <c r="X9" s="27">
+      <c r="Y9" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.6730038022813688</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="E10" s="27"/>
-      <c r="G10" s="46"/>
+      <c r="B10" s="33"/>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="45">
+        <f ca="1">COUNT(K4:INDIRECT("K"&amp;E9))</f>
+        <v>21</v>
+      </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="46">
-        <f t="shared" si="12"/>
+      <c r="K10" s="15">
+        <f t="shared" si="13"/>
         <v>43591</v>
       </c>
       <c r="L10" s="3">
@@ -5068,47 +5124,56 @@
         <v>5</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" ca="1" si="10"/>
         <v>5</v>
       </c>
-      <c r="U10" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V10" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>198</v>
       </c>
-      <c r="V10" s="27">
+      <c r="W10" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.75285171102661597</v>
       </c>
-      <c r="W10" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X10" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>182</v>
       </c>
-      <c r="X10" s="27">
+      <c r="Y10" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.69201520912547532</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6">
-        <f ca="1">INDIRECT("U"&amp;E9)-U3</f>
+      <c r="B11" s="49">
+        <f ca="1">INDIRECT("V"&amp;E9)-V3</f>
         <v>74</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="G11" s="46"/>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="48">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="15"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="46">
-        <f t="shared" si="12"/>
+      <c r="K11" s="15">
+        <f t="shared" si="13"/>
         <v>43598</v>
       </c>
       <c r="L11" s="3">
@@ -5136,45 +5201,55 @@
         <v>5</v>
       </c>
       <c r="R11" s="3">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="S11" s="3">
         <v>0</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" ca="1" si="10"/>
         <v>5</v>
       </c>
-      <c r="U11" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V11" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>203</v>
       </c>
-      <c r="V11" s="27">
+      <c r="W11" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.77186311787072248</v>
       </c>
-      <c r="W11" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X11" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>187</v>
       </c>
-      <c r="X11" s="27">
+      <c r="Y11" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.71102661596958172</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="49">
         <v>11</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="G12" s="46"/>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="44">
+        <f ca="1">Baseline!B4/COUNT(Baseline!A5:INDIRECT("Baseline!A"&amp;Baseline!B1))</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G12" s="15"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="46">
+      <c r="K12" s="15">
         <f>K11+7</f>
         <v>43605</v>
       </c>
@@ -5203,46 +5278,50 @@
         <v>5</v>
       </c>
       <c r="R12" s="3">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S12" s="3">
         <v>2</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
-      <c r="U12" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V12" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>206</v>
       </c>
-      <c r="V12" s="27">
+      <c r="W12" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.78326996197718635</v>
       </c>
-      <c r="W12" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X12" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>190</v>
       </c>
-      <c r="X12" s="27">
+      <c r="Y12" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.72243346007604559</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11">
-        <f>B12/B42</f>
-        <v>0.10916016589348272</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="G13" s="46"/>
+      <c r="B13" s="51">
+        <f ca="1">B12/B42</f>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="46">
+      <c r="K13" s="15">
         <f>K12+7</f>
         <v>43612</v>
       </c>
@@ -5271,46 +5350,50 @@
         <v>5</v>
       </c>
       <c r="R13" s="3">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S13" s="3">
         <v>2</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
-      <c r="U13" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V13" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>209</v>
       </c>
-      <c r="V13" s="27">
+      <c r="W13" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.79467680608365021</v>
       </c>
-      <c r="W13" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X13" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>193</v>
       </c>
-      <c r="X13" s="27">
+      <c r="Y13" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.73384030418250945</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="6">
-        <f ca="1">SUM(S4:INDIRECT("S"&amp;E9))</f>
-        <v>27</v>
-      </c>
-      <c r="G14" s="46"/>
+      <c r="B14" s="49">
+        <f ca="1">SUM(T4:INDIRECT("S"&amp;E9))</f>
+        <v>58</v>
+      </c>
+      <c r="G14" s="15"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="46">
-        <f t="shared" ref="K14:K18" si="13">K13+7</f>
+      <c r="K14" s="15">
+        <f t="shared" ref="K14:K18" si="14">K13+7</f>
         <v>43619</v>
       </c>
       <c r="L14" s="3">
@@ -5338,46 +5421,53 @@
         <v>5</v>
       </c>
       <c r="R14" s="3">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S14" s="3">
         <v>2</v>
       </c>
       <c r="T14" s="3">
-        <f ca="1">Q14-R14</f>
+        <v>2</v>
+      </c>
+      <c r="U14" s="3">
+        <f ca="1">Q14-S14</f>
         <v>3</v>
       </c>
-      <c r="U14" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V14" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>212</v>
       </c>
-      <c r="V14" s="27">
+      <c r="W14" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.80608365019011408</v>
       </c>
-      <c r="W14" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X14" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>196</v>
       </c>
-      <c r="X14" s="27">
+      <c r="Y14" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.74524714828897343</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="49">
         <f ca="1">B14</f>
-        <v>27</v>
-      </c>
-      <c r="G15" s="46"/>
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="15"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="46">
-        <f t="shared" si="13"/>
+      <c r="K15" s="15">
+        <f t="shared" si="14"/>
         <v>43626</v>
       </c>
       <c r="L15" s="3">
@@ -5405,46 +5495,53 @@
         <v>5</v>
       </c>
       <c r="R15" s="3">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S15" s="3">
         <v>2</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" ref="T15:T37" ca="1" si="14">Q15-R15</f>
+        <v>2</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" ref="U15:U18" ca="1" si="15">Q15-S15</f>
         <v>3</v>
       </c>
-      <c r="U15" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V15" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>215</v>
       </c>
-      <c r="V15" s="27">
+      <c r="W15" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.81749049429657794</v>
       </c>
-      <c r="W15" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X15" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>199</v>
       </c>
-      <c r="X15" s="27">
+      <c r="Y15" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.75665399239543729</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="51">
         <f ca="1">B15/B17</f>
-        <v>0.65853658536585369</v>
-      </c>
-      <c r="G16" s="46"/>
+        <v>0.61052631578947369</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="46">
-        <f t="shared" si="13"/>
+      <c r="K16" s="15">
+        <f t="shared" si="14"/>
         <v>43633</v>
       </c>
       <c r="L16" s="3">
@@ -5472,46 +5569,53 @@
         <v>5</v>
       </c>
       <c r="R16" s="3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="3">
         <v>2</v>
       </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
       <c r="T16" s="3">
-        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
-      <c r="U16" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V16" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>218</v>
       </c>
-      <c r="V16" s="27">
+      <c r="W16" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.82889733840304181</v>
       </c>
-      <c r="W16" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X16" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>202</v>
       </c>
-      <c r="X16" s="27">
+      <c r="Y16" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.76806083650190116</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="49">
         <f ca="1">B18+B15</f>
-        <v>41</v>
-      </c>
-      <c r="G17" s="46"/>
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="15"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="46">
-        <f t="shared" si="13"/>
+      <c r="K17" s="15">
+        <f t="shared" si="14"/>
         <v>43640</v>
       </c>
       <c r="L17" s="3">
@@ -5539,45 +5643,50 @@
         <v>5</v>
       </c>
       <c r="R17" s="3">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S17" s="3">
         <v>2</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
-      <c r="U17" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V17" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>221</v>
       </c>
-      <c r="V17" s="27">
+      <c r="W17" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.84030418250950567</v>
       </c>
-      <c r="W17" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X17" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>205</v>
       </c>
-      <c r="X17" s="27">
+      <c r="Y17" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.77946768060836502</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
-        <v>14</v>
-      </c>
-      <c r="G18" s="46"/>
+      <c r="B18" s="49">
+        <f ca="1">SUM(R4:INDIRECT("R"&amp;E9))</f>
+        <v>37</v>
+      </c>
+      <c r="G18" s="15"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="46">
-        <f t="shared" si="13"/>
+      <c r="K18" s="15">
+        <f t="shared" si="14"/>
         <v>43647</v>
       </c>
       <c r="L18" s="3">
@@ -5605,44 +5714,48 @@
         <v>5</v>
       </c>
       <c r="R18" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="S18" s="3">
         <v>2</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="U18" s="3">
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
-      <c r="U18" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V18" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>224</v>
       </c>
-      <c r="V18" s="27">
+      <c r="W18" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.85171102661596954</v>
       </c>
-      <c r="W18" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X18" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>208</v>
       </c>
-      <c r="X18" s="27">
+      <c r="Y18" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.79087452471482889</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="54">
         <v>0.9</v>
       </c>
-      <c r="G19" s="46"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="46">
+      <c r="K19" s="15">
         <f>K18+7</f>
         <v>43654</v>
       </c>
@@ -5671,46 +5784,50 @@
         <v>5</v>
       </c>
       <c r="R19" s="3">
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="S19" s="3">
         <v>1</v>
       </c>
       <c r="T19" s="3">
-        <f ca="1">Q19-R19</f>
+        <v>1</v>
+      </c>
+      <c r="U19" s="3">
+        <f ca="1">Q19-S19</f>
         <v>4</v>
       </c>
-      <c r="U19" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V19" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>228</v>
       </c>
-      <c r="V19" s="27">
+      <c r="W19" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.86692015209125473</v>
       </c>
-      <c r="W19" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X19" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>212</v>
       </c>
-      <c r="X19" s="27">
+      <c r="Y19" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.80608365019011408</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="49">
         <v>238</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="G20" s="46"/>
+      <c r="E20" s="13"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="46">
-        <f t="shared" ref="K20:K37" si="15">K19+7</f>
+      <c r="K20" s="15">
+        <f t="shared" ref="K20:K37" si="16">K19+7</f>
         <v>43661</v>
       </c>
       <c r="L20" s="3">
@@ -5738,42 +5855,46 @@
         <v>5</v>
       </c>
       <c r="R20" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="S20" s="3">
         <v>2</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" ref="T20:T37" ca="1" si="16">Q20-R20</f>
+        <v>2</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" ref="U20:U28" ca="1" si="17">Q20-S20</f>
         <v>3</v>
       </c>
-      <c r="U20" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V20" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>231</v>
       </c>
-      <c r="V20" s="27">
+      <c r="W20" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.87832699619771859</v>
       </c>
-      <c r="W20" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X20" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>215</v>
       </c>
-      <c r="X20" s="27">
+      <c r="Y20" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.81749049429657794</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="E21" s="27"/>
-      <c r="G21" s="46"/>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="49"/>
+      <c r="E21" s="8"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="46">
-        <f t="shared" si="15"/>
+      <c r="K21" s="15">
+        <f t="shared" si="16"/>
         <v>43668</v>
       </c>
       <c r="L21" s="3">
@@ -5801,44 +5922,48 @@
         <v>5</v>
       </c>
       <c r="R21" s="3">
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="S21" s="3">
         <v>3</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
-      <c r="U21" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V21" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>233</v>
       </c>
-      <c r="V21" s="27">
+      <c r="W21" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.88593155893536124</v>
       </c>
-      <c r="W21" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X21" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>217</v>
       </c>
-      <c r="X21" s="27">
+      <c r="Y21" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.82509505703422048</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="E22" s="27"/>
-      <c r="G22" s="46"/>
+      <c r="B22" s="35"/>
+      <c r="E22" s="8"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="46">
-        <f t="shared" si="15"/>
+      <c r="K22" s="15">
+        <f t="shared" si="16"/>
         <v>43675</v>
       </c>
       <c r="L22" s="3">
@@ -5866,46 +5991,51 @@
         <v>5</v>
       </c>
       <c r="R22" s="3">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S22" s="3">
         <v>2</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="U22" s="3">
+        <f t="shared" ca="1" si="17"/>
         <v>3</v>
       </c>
-      <c r="U22" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V22" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>236</v>
       </c>
-      <c r="V22" s="27">
+      <c r="W22" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.89733840304182511</v>
       </c>
-      <c r="W22" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X22" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>220</v>
       </c>
-      <c r="X22" s="27">
+      <c r="Y22" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.83650190114068446</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="6">
-        <v>90</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="G23" s="46"/>
+      <c r="B23" s="49">
+        <f ca="1">SUM(Q4:INDIRECT("Q"&amp;E9))</f>
+        <v>105</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="46">
-        <f t="shared" si="15"/>
+      <c r="K23" s="15">
+        <f t="shared" si="16"/>
         <v>43682</v>
       </c>
       <c r="L23" s="3">
@@ -5933,46 +6063,51 @@
         <v>5</v>
       </c>
       <c r="R23" s="3">
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="S23" s="3">
         <v>4</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="U23" s="47">
-        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="V23" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>237</v>
       </c>
-      <c r="V23" s="27">
+      <c r="W23" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.90114068441064643</v>
       </c>
-      <c r="W23" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X23" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>221</v>
       </c>
-      <c r="X23" s="27">
+      <c r="Y23" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.84030418250950567</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="6">
-        <v>14</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="G24" s="46"/>
+      <c r="B24" s="49">
+        <f ca="1">SUM(S4:INDIRECT("S"&amp;E9))</f>
+        <v>31</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="46">
-        <f t="shared" si="15"/>
+      <c r="K24" s="15">
+        <f t="shared" si="16"/>
         <v>43689</v>
       </c>
       <c r="L24" s="3">
@@ -6000,45 +6135,50 @@
         <v>5</v>
       </c>
       <c r="R24" s="3">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="S24" s="3">
         <v>5</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3</v>
       </c>
-      <c r="T24" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="U24" s="3">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>237</v>
       </c>
-      <c r="V24" s="27">
+      <c r="W24" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.90114068441064643</v>
       </c>
-      <c r="W24" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X24" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>221</v>
       </c>
-      <c r="X24" s="27">
+      <c r="Y24" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.84030418250950567</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="12">
-        <v>0.85</v>
-      </c>
-      <c r="G25" s="46"/>
+      <c r="B25" s="54">
+        <f ca="1">INDIRECT("Y"&amp;E9)</f>
+        <v>0.84030418250950567</v>
+      </c>
+      <c r="G25" s="15"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="46">
-        <f t="shared" si="15"/>
+      <c r="K25" s="15">
+        <f t="shared" si="16"/>
         <v>43696</v>
       </c>
       <c r="L25" s="3">
@@ -6066,45 +6206,50 @@
         <v>5</v>
       </c>
       <c r="R25" s="3">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S25" s="3">
         <v>2</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" ca="1" si="17"/>
         <v>3</v>
       </c>
-      <c r="U25" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V25" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>240</v>
       </c>
-      <c r="V25" s="27">
+      <c r="W25" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.9125475285171103</v>
       </c>
-      <c r="W25" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X25" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>224</v>
       </c>
-      <c r="X25" s="27">
+      <c r="Y25" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.85171102661596954</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="6">
-        <v>223</v>
-      </c>
-      <c r="G26" s="46"/>
+      <c r="B26" s="55">
+        <f ca="1">INDIRECT("X"&amp;E9)</f>
+        <v>221</v>
+      </c>
+      <c r="G26" s="15"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="46">
-        <f t="shared" si="15"/>
+      <c r="K26" s="15">
+        <f t="shared" si="16"/>
         <v>43703</v>
       </c>
       <c r="L26" s="3">
@@ -6132,45 +6277,50 @@
         <v>5</v>
       </c>
       <c r="R26" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="S26" s="3">
         <v>2</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="U26" s="3">
+        <f t="shared" ca="1" si="17"/>
         <v>3</v>
       </c>
-      <c r="U26" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V26" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>243</v>
       </c>
-      <c r="V26" s="27">
+      <c r="W26" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.92395437262357416</v>
       </c>
-      <c r="W26" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X26" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>227</v>
       </c>
-      <c r="X26" s="27">
+      <c r="Y26" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.86311787072243351</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="49">
+        <f>$E$3</f>
         <v>263</v>
       </c>
-      <c r="G27" s="46"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="46">
-        <f t="shared" si="15"/>
+      <c r="K27" s="15">
+        <f t="shared" si="16"/>
         <v>43710</v>
       </c>
       <c r="L27" s="3">
@@ -6198,41 +6348,45 @@
         <v>5</v>
       </c>
       <c r="R27" s="3">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="S27" s="3">
         <v>2</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="U27" s="3">
+        <f t="shared" ca="1" si="17"/>
         <v>3</v>
       </c>
-      <c r="U27" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V27" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>246</v>
       </c>
-      <c r="V27" s="27">
+      <c r="W27" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.93536121673003803</v>
       </c>
-      <c r="W27" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X27" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>230</v>
       </c>
-      <c r="X27" s="27">
+      <c r="Y27" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.87452471482889738</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="G28" s="46"/>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="49"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="46">
-        <f t="shared" si="15"/>
+      <c r="K28" s="15">
+        <f t="shared" si="16"/>
         <v>43717</v>
       </c>
       <c r="L28" s="3">
@@ -6260,43 +6414,47 @@
         <v>5</v>
       </c>
       <c r="R28" s="3">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S28" s="3">
         <v>2</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" ca="1" si="17"/>
         <v>3</v>
       </c>
-      <c r="U28" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V28" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>249</v>
       </c>
-      <c r="V28" s="27">
+      <c r="W28" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.94676806083650189</v>
       </c>
-      <c r="W28" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X28" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>233</v>
       </c>
-      <c r="X28" s="27">
+      <c r="Y28" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.88593155893536124</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="G29" s="46"/>
+      <c r="B29" s="37"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="46">
-        <f t="shared" si="15"/>
+      <c r="K29" s="15">
+        <f t="shared" si="16"/>
         <v>43724</v>
       </c>
       <c r="L29" s="3">
@@ -6324,45 +6482,50 @@
         <v>5</v>
       </c>
       <c r="R29" s="3">
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="S29" s="3">
         <v>1</v>
       </c>
       <c r="T29" s="3">
-        <f ca="1">Q29-R29</f>
+        <v>1</v>
+      </c>
+      <c r="U29" s="3">
+        <f ca="1">Q29-S29</f>
         <v>4</v>
       </c>
-      <c r="U29" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V29" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>253</v>
       </c>
-      <c r="V29" s="27">
+      <c r="W29" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.96197718631178708</v>
       </c>
-      <c r="W29" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X29" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>237</v>
       </c>
-      <c r="X29" s="27">
+      <c r="Y29" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.90114068441064643</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="17">
-        <v>10807.524613899615</v>
-      </c>
-      <c r="G30" s="46"/>
+      <c r="B30" s="55">
+        <f ca="1">SUM(L4:INDIRECT("L"&amp;E9))</f>
+        <v>8400</v>
+      </c>
+      <c r="G30" s="15"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="46">
-        <f t="shared" si="15"/>
+      <c r="K30" s="15">
+        <f t="shared" si="16"/>
         <v>43731</v>
       </c>
       <c r="L30" s="3">
@@ -6390,46 +6553,50 @@
         <v>5</v>
       </c>
       <c r="R30" s="3">
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="S30" s="3">
         <v>5</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" ref="T30:T37" ca="1" si="17">Q30-R30</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="47">
-        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="U30" s="3">
+        <f t="shared" ref="U30:U37" ca="1" si="18">Q30-S30</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>253</v>
       </c>
-      <c r="V30" s="27">
+      <c r="W30" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.96197718631178708</v>
       </c>
-      <c r="W30" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X30" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>237</v>
       </c>
-      <c r="X30" s="27">
+      <c r="Y30" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.90114068441064643</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="18">
-        <f>B56/B30</f>
-        <v>6.4419931933773968</v>
-      </c>
-      <c r="G31" s="46"/>
+      <c r="B31" s="56">
+        <f ca="1">B56/B30</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="G31" s="15"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="46">
-        <f t="shared" si="15"/>
+      <c r="K31" s="15">
+        <f t="shared" si="16"/>
         <v>43738</v>
       </c>
       <c r="L31" s="3">
@@ -6457,46 +6624,50 @@
         <v>5</v>
       </c>
       <c r="R31" s="3">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U31" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>3</v>
       </c>
-      <c r="U31" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V31" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>256</v>
       </c>
-      <c r="V31" s="27">
+      <c r="W31" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.97338403041825095</v>
       </c>
-      <c r="W31" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X31" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>240</v>
       </c>
-      <c r="X31" s="27">
+      <c r="Y31" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.9125475285171103</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="11">
-        <f>B34/B30</f>
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="G32" s="46"/>
+      <c r="B32" s="51">
+        <f ca="1">B34/B30</f>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="G32" s="15"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="46">
-        <f t="shared" si="15"/>
+      <c r="K32" s="15">
+        <f t="shared" si="16"/>
         <v>43745</v>
       </c>
       <c r="L32" s="3">
@@ -6524,46 +6695,50 @@
         <v>5</v>
       </c>
       <c r="R32" s="3">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>2</v>
       </c>
-      <c r="S32" s="3">
-        <v>1</v>
-      </c>
       <c r="T32" s="3">
-        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U32" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>3</v>
       </c>
-      <c r="U32" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V32" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>259</v>
       </c>
-      <c r="V32" s="27">
+      <c r="W32" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.98479087452471481</v>
       </c>
-      <c r="W32" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X32" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>243</v>
       </c>
-      <c r="X32" s="27">
+      <c r="Y32" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.92395437262357416</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="6" t="e">
-        <f>B30/C30*4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="46"/>
+      <c r="B33" s="49">
+        <f ca="1">(B30/$E$10)*4</f>
+        <v>1600</v>
+      </c>
+      <c r="G33" s="15"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="46">
-        <f t="shared" si="15"/>
+      <c r="K33" s="15">
+        <f t="shared" si="16"/>
         <v>43752</v>
       </c>
       <c r="L33" s="3">
@@ -6591,45 +6766,50 @@
         <v>5</v>
       </c>
       <c r="R33" s="3">
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="S33" s="3">
         <v>3</v>
       </c>
       <c r="T33" s="3">
-        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="U33" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
-      <c r="U33" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V33" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>261</v>
       </c>
-      <c r="V33" s="27">
+      <c r="W33" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.99239543726235746</v>
       </c>
-      <c r="W33" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X33" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>245</v>
       </c>
-      <c r="X33" s="27">
+      <c r="Y33" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.9315589353612167</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="17">
-        <v>778.14177220077238</v>
-      </c>
-      <c r="G34" s="46"/>
+      <c r="B34" s="55">
+        <f ca="1">SUM(M4:INDIRECT("M"&amp;E9))</f>
+        <v>1197</v>
+      </c>
+      <c r="G34" s="15"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="46">
-        <f t="shared" si="15"/>
+      <c r="K34" s="15">
+        <f t="shared" si="16"/>
         <v>43759</v>
       </c>
       <c r="L34" s="3">
@@ -6657,46 +6837,50 @@
         <v>5</v>
       </c>
       <c r="R34" s="3">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T34" s="3">
-        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U34" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>3</v>
       </c>
-      <c r="U34" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V34" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>264</v>
       </c>
-      <c r="V34" s="27">
+      <c r="W34" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1.0038022813688212</v>
       </c>
-      <c r="W34" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X34" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>248</v>
       </c>
-      <c r="X34" s="27">
+      <c r="Y34" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.94296577946768056</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="18">
-        <f>B56/B34</f>
-        <v>89.472127685797162</v>
-      </c>
-      <c r="G35" s="46"/>
+      <c r="B35" s="56">
+        <f ca="1">B56/B34</f>
+        <v>3.3416875522138678</v>
+      </c>
+      <c r="G35" s="15"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="46">
-        <f t="shared" si="15"/>
+      <c r="K35" s="15">
+        <f t="shared" si="16"/>
         <v>43766</v>
       </c>
       <c r="L35" s="3">
@@ -6724,46 +6908,50 @@
         <v>5</v>
       </c>
       <c r="R35" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>3</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2</v>
       </c>
-      <c r="T35" s="3">
-        <f t="shared" ca="1" si="17"/>
+      <c r="U35" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
-      <c r="U35" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V35" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>266</v>
       </c>
-      <c r="V35" s="27">
+      <c r="W35" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1.0114068441064639</v>
       </c>
-      <c r="W35" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X35" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>250</v>
       </c>
-      <c r="X35" s="27">
+      <c r="Y35" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.95057034220532322</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="11">
-        <f>B38/B34</f>
-        <v>0.34999999999999992</v>
-      </c>
-      <c r="G36" s="46"/>
+      <c r="B36" s="51">
+        <f ca="1">B38/B34</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="G36" s="15"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="46">
-        <f t="shared" si="15"/>
+      <c r="K36" s="15">
+        <f t="shared" si="16"/>
         <v>43773</v>
       </c>
       <c r="L36" s="3">
@@ -6791,46 +6979,50 @@
         <v>5</v>
       </c>
       <c r="R36" s="3">
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="S36" s="3">
         <v>4</v>
       </c>
       <c r="T36" s="3">
-        <f t="shared" ca="1" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="U36" s="47">
-        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="U36" s="3">
+        <f t="shared" ca="1" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V36" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>267</v>
       </c>
-      <c r="V36" s="27">
+      <c r="W36" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1.0152091254752851</v>
       </c>
-      <c r="W36" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X36" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>251</v>
       </c>
-      <c r="X36" s="27">
+      <c r="Y36" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.95437262357414454</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="6" t="e">
-        <f>B34/C30*4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="46"/>
+      <c r="B37" s="49">
+        <f ca="1">(B34/$E$10)*4</f>
+        <v>228</v>
+      </c>
+      <c r="G37" s="15"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="46">
-        <f t="shared" si="15"/>
+      <c r="K37" s="15">
+        <f t="shared" si="16"/>
         <v>43780</v>
       </c>
       <c r="L37" s="3">
@@ -6858,48 +7050,53 @@
         <v>5</v>
       </c>
       <c r="R37" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
         <v>2</v>
       </c>
-      <c r="S37" s="3">
-        <v>1</v>
-      </c>
       <c r="T37" s="3">
-        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U37" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>3</v>
       </c>
-      <c r="U37" s="47">
-        <f t="shared" ca="1" si="10"/>
+      <c r="V37" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>270</v>
       </c>
-      <c r="V37" s="27">
+      <c r="W37" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1.0266159695817489</v>
       </c>
-      <c r="W37" s="3">
-        <f t="shared" ca="1" si="11"/>
+      <c r="X37" s="3">
+        <f t="shared" ca="1" si="12"/>
         <v>254</v>
       </c>
-      <c r="X37" s="27">
+      <c r="Y37" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.96577946768060841</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="17">
-        <v>272.34962027027029</v>
-      </c>
-      <c r="V38" s="27"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="B38" s="55">
+        <f ca="1">SUM(N4:INDIRECT("N"&amp;E9))</f>
+        <v>378</v>
+      </c>
+      <c r="W38" s="8"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="18">
-        <f>B56/B38</f>
-        <v>255.63465053084909</v>
+      <c r="B39" s="56">
+        <f ca="1">B56/B38</f>
+        <v>10.582010582010582</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -6911,268 +7108,271 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="11">
-        <f>B42/B38</f>
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="B40" s="51">
+        <f ca="1">B42/B38</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="6" t="e">
-        <f>B38/C30*4</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="B41" s="49">
+        <f ca="1">(B38/E10)*4</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="17">
-        <v>100.76935950000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="B42" s="55">
+        <f ca="1">SUM(O4:INDIRECT("O"&amp;E9))</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="18">
-        <f>B56/B42</f>
-        <v>690.90446089418674</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="B43" s="56">
+        <f ca="1">B56/B42</f>
+        <v>31.746031746031747</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="11">
-        <f>B46/B42</f>
-        <v>0.89000000000000012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="B44" s="51">
+        <f ca="1">B46/B42</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="6" t="e">
-        <f>B42/C30*4</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="B45" s="49">
+        <f ca="1">(B42/E10)*4</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="17">
-        <v>89.684729955000023</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="B46" s="55">
+        <f ca="1">SUM(Q4:INDIRECT("Q"&amp;E9))</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="18">
-        <f>B56/B46</f>
-        <v>776.29714707211974</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="B47" s="56">
+        <f ca="1">B56/B46</f>
+        <v>38.095238095238095</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="19">
-        <f>1*B32*B36*B40*B44</f>
-        <v>8.2983599999999994E-3</v>
+      <c r="B48" s="57">
+        <f ca="1">1*B32*B36*B40*B44</f>
+        <v>1.2499999999999997E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="6" t="e">
-        <f>B46/C30*4</f>
-        <v>#DIV/0!</v>
+      <c r="B49" s="49">
+        <f ca="1">(B46/E10)*4</f>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="49"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="21"/>
+      <c r="B51" s="41"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="18">
-        <v>61732</v>
+      <c r="B52" s="56">
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="18">
-        <v>0</v>
+      <c r="B53" s="56">
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="18">
-        <v>7890</v>
+      <c r="B54" s="56">
+        <v>1000</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="18">
-        <v>0</v>
+      <c r="B55" s="56">
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="56">
         <f>SUM(B52:B55)</f>
-        <v>69622</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="6" t="e">
-        <f>ROUND(B58/B56,0)</f>
-        <v>#REF!</v>
+      <c r="B57" s="49">
+        <f ca="1">ROUND(B58/B56,0)</f>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="18" t="e">
-        <f>B23*(B8*12)</f>
-        <v>#REF!</v>
+      <c r="B58" s="56">
+        <f ca="1">B23*(B8*12)</f>
+        <v>1260000</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="56"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="32"/>
+      <c r="B60" s="43"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="18">
-        <v>10200</v>
+      <c r="B61" s="56">
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="8">
-        <v>0</v>
+      <c r="B62" s="56">
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="22">
-        <v>7890</v>
+      <c r="B63" s="56">
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="6">
-        <v>0</v>
+      <c r="B64" s="56">
+        <v>1000</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="56">
         <f>SUM(B61:B64)</f>
-        <v>18090</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="6" t="e">
+      <c r="B66" s="49">
         <f ca="1">ROUND(B67/B65,0)</f>
-        <v>#REF!</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="18" t="e">
+      <c r="B67" s="56">
         <f ca="1">B15*(B8*12)</f>
-        <v>#REF!</v>
+        <v>696000</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="18"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="56"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="34"/>
+      <c r="B69" s="27"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="56">
         <f>B65+B56</f>
-        <v>87712</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="6" t="e">
+      <c r="B71" s="49">
         <f ca="1">ROUND(B72/B70,0)</f>
-        <v>#REF!</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="24" t="e">
+      <c r="B72" s="58">
         <f ca="1">B67+B58</f>
-        <v>#REF!</v>
+        <v>1956000</v>
       </c>
     </row>
   </sheetData>
@@ -7180,7 +7380,7 @@
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="K1:X1"/>
+    <mergeCell ref="K1:Y1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A22:B22"/>

--- a/xls/templates/run-rate-template.xlsx
+++ b/xls/templates/run-rate-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddcullen/Projects/remarkably/xls/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BDA0C5-565E-2B4F-B1C9-E245EA5D0405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DE20C7-AF93-FA4F-92B1-F912DE251932}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25620" yWindow="460" windowWidth="38380" windowHeight="21060" activeTab="1" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" activeTab="1" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="117">
   <si>
     <t>Start Date</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>Average Weekly Move Outs</t>
+  </si>
+  <si>
+    <t>Notice to Renew</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -678,6 +681,47 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="14" borderId="0" xfId="16" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="17"/>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" xfId="17" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="14" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,47 +781,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="14" borderId="0" xfId="16" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="17"/>
-    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" xfId="17" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1137,18 +1140,18 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4434,16 +4437,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4156A3-96B9-DE41-91DB-F4C9577E214C}">
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E27" sqref="E26:E27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="39" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
@@ -4452,48 +4455,50 @@
     <col min="17" max="17" width="6.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.1640625" customWidth="1"/>
     <col min="19" max="19" width="9.83203125" customWidth="1"/>
-    <col min="20" max="20" width="9.5" customWidth="1"/>
-    <col min="21" max="21" width="22" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="24" max="24" width="14.5" customWidth="1"/>
-    <col min="25" max="25" width="16" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="21" width="9.5" customWidth="1"/>
+    <col min="22" max="22" width="22" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" customWidth="1"/>
+    <col min="25" max="25" width="14.5" customWidth="1"/>
+    <col min="26" max="26" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="K1" s="31" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="K1" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-    </row>
-    <row r="2" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+    </row>
+    <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="49"/>
+      <c r="B2" s="29"/>
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -4535,29 +4540,32 @@
         <v>96</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="V2" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="X2" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="56"/>
       <c r="D3" t="s">
         <v>85</v>
       </c>
@@ -4570,35 +4578,35 @@
       <c r="H3" s="13">
         <v>0.14299999999999999</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="27">
         <f>H3</f>
         <v>0.14299999999999999</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <f>$E$4</f>
         <v>163</v>
       </c>
-      <c r="W3" s="8">
-        <f>V3/$E$3</f>
+      <c r="X3" s="8">
+        <f>W3/$E$3</f>
         <v>0.61977186311787069</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <f>$E$8</f>
         <v>147</v>
       </c>
-      <c r="Y3" s="8">
-        <f>X3/$E$3</f>
+      <c r="Z3" s="8">
+        <f>Y3/$E$3</f>
         <v>0.55893536121673004</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D4" t="s">
@@ -4613,7 +4621,7 @@
       <c r="H4" s="8">
         <v>0.31</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="27">
         <f t="shared" ref="I4:I7" si="0">H4</f>
         <v>0.31</v>
       </c>
@@ -4654,34 +4662,38 @@
         <v>0</v>
       </c>
       <c r="T4" s="3">
+        <f>U7</f>
         <v>0</v>
       </c>
       <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
         <f ca="1">Q4-S4</f>
         <v>5</v>
       </c>
-      <c r="V4" s="16">
-        <f ca="1">V3+U4</f>
+      <c r="W4" s="16">
+        <f ca="1">W3+V4</f>
         <v>168</v>
       </c>
-      <c r="W4" s="8">
-        <f t="shared" ref="W4:W37" ca="1" si="1">V4/$E$3</f>
+      <c r="X4" s="8">
+        <f t="shared" ref="X4:X37" ca="1" si="1">W4/$E$3</f>
         <v>0.63878326996197721</v>
       </c>
-      <c r="X4" s="3">
-        <f ca="1">X3+Q4-S4</f>
+      <c r="Y4" s="3">
+        <f ca="1">Y3+Q4-S4</f>
         <v>152</v>
       </c>
-      <c r="Y4" s="8">
-        <f t="shared" ref="Y4:Y37" ca="1" si="2">X4/$E$3</f>
+      <c r="Z4" s="8">
+        <f t="shared" ref="Z4:Z37" ca="1" si="2">Y4/$E$3</f>
         <v>0.57794676806083645</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="30">
         <v>43542</v>
       </c>
       <c r="D5" t="s">
@@ -4696,7 +4708,7 @@
       <c r="H5" s="8">
         <v>0.35</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="27">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
@@ -4737,41 +4749,45 @@
         <v>0</v>
       </c>
       <c r="T5" s="3">
+        <f t="shared" ref="T5:T36" si="10">U8</f>
         <v>0</v>
       </c>
       <c r="U5" s="3">
-        <f t="shared" ref="U5:U13" ca="1" si="10">Q5-S5</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" ref="V5:V13" ca="1" si="11">Q5-S5</f>
         <v>5</v>
       </c>
-      <c r="V5" s="16">
-        <f t="shared" ref="V5:V37" ca="1" si="11">V4+U5</f>
+      <c r="W5" s="16">
+        <f t="shared" ref="W5:W37" ca="1" si="12">W4+V5</f>
         <v>173</v>
       </c>
-      <c r="W5" s="8">
+      <c r="X5" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.65779467680608361</v>
       </c>
-      <c r="X5" s="3">
-        <f t="shared" ref="X5:X37" ca="1" si="12">X4+Q5-S5</f>
+      <c r="Y5" s="3">
+        <f t="shared" ref="Y5:Y37" ca="1" si="13">Y4+Q5-S5</f>
         <v>157</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Z5" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.59695817490494296</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="30">
         <f ca="1">INDIRECT("K"&amp;E9)</f>
         <v>43689</v>
       </c>
       <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="26">
         <f>ROUND(E3*E5,0)</f>
         <v>237</v>
       </c>
@@ -4781,13 +4797,13 @@
       <c r="H6" s="8">
         <v>0.85</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="27">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="15">
-        <f t="shared" ref="K6:K11" si="13">K5+7</f>
+        <f t="shared" ref="K6:K11" si="14">K5+7</f>
         <v>43563</v>
       </c>
       <c r="L6" s="3">
@@ -4822,41 +4838,45 @@
         <v>0</v>
       </c>
       <c r="T6" s="3">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
-      <c r="V6" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W6" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>178</v>
       </c>
-      <c r="W6" s="8">
+      <c r="X6" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.67680608365019013</v>
       </c>
-      <c r="X6" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y6" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>162</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Z6" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.61596958174904948</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="40">
         <f ca="1">B47/B8</f>
         <v>3.8095238095238092E-2</v>
       </c>
       <c r="D7" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="26">
         <f ca="1">Baseline!R4/COUNT(Baseline!R5:INDIRECT("Baseline!R"&amp;Baseline!B1))</f>
         <v>400</v>
       </c>
@@ -4866,13 +4886,13 @@
       <c r="H7" s="12">
         <v>0.46</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="27">
         <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43570</v>
       </c>
       <c r="L7" s="3">
@@ -4907,34 +4927,38 @@
         <v>0</v>
       </c>
       <c r="T7" s="3">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
-      <c r="V7" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W7" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>183</v>
       </c>
-      <c r="W7" s="8">
+      <c r="X7" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.69581749049429653</v>
       </c>
-      <c r="X7" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y7" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>167</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Z7" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.63498098859315588</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="32">
         <f>$E$11</f>
         <v>1000</v>
       </c>
@@ -4949,7 +4973,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43577</v>
       </c>
       <c r="L8" s="3">
@@ -4984,32 +5008,36 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
-      <c r="V8" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W8" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>188</v>
       </c>
-      <c r="W8" s="8">
+      <c r="X8" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.71482889733840305</v>
       </c>
-      <c r="X8" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y8" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>172</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Z8" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.6539923954372624</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="53"/>
+      <c r="B9" s="33"/>
       <c r="D9" t="s">
         <v>109</v>
       </c>
@@ -5021,7 +5049,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43584</v>
       </c>
       <c r="L9" s="3">
@@ -5056,38 +5084,42 @@
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
-      <c r="V9" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W9" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>193</v>
       </c>
-      <c r="W9" s="8">
+      <c r="X9" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.73384030418250945</v>
       </c>
-      <c r="X9" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y9" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>177</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Z9" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.6730038022813688</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="50"/>
       <c r="D10" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="25">
         <f ca="1">COUNT(K4:INDIRECT("K"&amp;E9))</f>
         <v>21</v>
       </c>
@@ -5096,7 +5128,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43591</v>
       </c>
       <c r="L10" s="3">
@@ -5131,41 +5163,45 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
-      <c r="V10" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W10" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>198</v>
       </c>
-      <c r="W10" s="8">
+      <c r="X10" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.75285171102661597</v>
       </c>
-      <c r="X10" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y10" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>182</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Z10" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.69201520912547532</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="49">
-        <f ca="1">INDIRECT("V"&amp;E9)-V3</f>
-        <v>74</v>
+      <c r="B11" s="29">
+        <f ca="1">INDIRECT("V"&amp;E9)-W3</f>
+        <v>-163</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="28">
         <v>1000</v>
       </c>
       <c r="G11" s="15"/>
@@ -5173,7 +5209,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43598</v>
       </c>
       <c r="L11" s="3">
@@ -5208,40 +5244,44 @@
         <v>0</v>
       </c>
       <c r="T11" s="3">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
-      <c r="V11" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W11" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>203</v>
       </c>
-      <c r="W11" s="8">
+      <c r="X11" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.77186311787072248</v>
       </c>
-      <c r="X11" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y11" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>187</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Z11" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.71102661596958172</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="29">
         <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="24">
         <f ca="1">Baseline!B4/COUNT(Baseline!A5:INDIRECT("Baseline!A"&amp;Baseline!B1))</f>
         <v>0.2857142857142857</v>
       </c>
@@ -5285,34 +5325,38 @@
         <v>2</v>
       </c>
       <c r="T12" s="3">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
-      <c r="V12" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W12" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>206</v>
       </c>
-      <c r="W12" s="8">
+      <c r="X12" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.78326996197718635</v>
       </c>
-      <c r="X12" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y12" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>190</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Z12" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.72243346007604559</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="31">
         <f ca="1">B12/B42</f>
         <v>8.7301587301587297E-2</v>
       </c>
@@ -5357,43 +5401,47 @@
         <v>2</v>
       </c>
       <c r="T13" s="3">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
-      <c r="V13" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W13" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>209</v>
       </c>
-      <c r="W13" s="8">
+      <c r="X13" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.79467680608365021</v>
       </c>
-      <c r="X13" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y13" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>193</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="Z13" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.73384030418250945</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="49">
-        <f ca="1">SUM(T4:INDIRECT("S"&amp;E9))</f>
-        <v>58</v>
+      <c r="B14" s="29">
+        <f ca="1">SUM(U4:INDIRECT("S"&amp;E9))</f>
+        <v>91</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="15">
-        <f t="shared" ref="K14:K18" si="14">K13+7</f>
+        <f t="shared" ref="K14:K18" si="15">K13+7</f>
         <v>43619</v>
       </c>
       <c r="L14" s="3">
@@ -5428,36 +5476,40 @@
         <v>2</v>
       </c>
       <c r="T14" s="3">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U14" s="3">
+        <v>2</v>
+      </c>
+      <c r="V14" s="3">
         <f ca="1">Q14-S14</f>
         <v>3</v>
       </c>
-      <c r="V14" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W14" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>212</v>
       </c>
-      <c r="W14" s="8">
+      <c r="X14" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.80608365019011408</v>
       </c>
-      <c r="X14" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y14" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>196</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="Z14" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.74524714828897343</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="29">
         <f ca="1">B14</f>
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
         <v>112</v>
@@ -5467,7 +5519,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43626</v>
       </c>
       <c r="L15" s="3">
@@ -5502,36 +5554,40 @@
         <v>2</v>
       </c>
       <c r="T15" s="3">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" ref="U15:U18" ca="1" si="15">Q15-S15</f>
+        <v>2</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" ref="V15:V18" ca="1" si="16">Q15-S15</f>
         <v>3</v>
       </c>
-      <c r="V15" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W15" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>215</v>
       </c>
-      <c r="W15" s="8">
+      <c r="X15" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.81749049429657794</v>
       </c>
-      <c r="X15" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y15" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>199</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Z15" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.75665399239543729</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="31">
         <f ca="1">B15/B17</f>
-        <v>0.61052631578947369</v>
+        <v>0.7109375</v>
       </c>
       <c r="D16" t="s">
         <v>113</v>
@@ -5541,7 +5597,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43633</v>
       </c>
       <c r="L16" s="3">
@@ -5576,36 +5632,40 @@
         <v>2</v>
       </c>
       <c r="T16" s="3">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>3</v>
       </c>
-      <c r="V16" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W16" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>218</v>
       </c>
-      <c r="W16" s="8">
+      <c r="X16" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.82889733840304181</v>
       </c>
-      <c r="X16" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y16" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>202</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Z16" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.76806083650190116</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="29">
         <f ca="1">B18+B15</f>
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
         <v>114</v>
@@ -5615,7 +5675,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43640</v>
       </c>
       <c r="L17" s="3">
@@ -5650,34 +5710,38 @@
         <v>2</v>
       </c>
       <c r="T17" s="3">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>3</v>
       </c>
-      <c r="V17" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W17" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>221</v>
       </c>
-      <c r="W17" s="8">
+      <c r="X17" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.84030418250950567</v>
       </c>
-      <c r="X17" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y17" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>205</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="Z17" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.77946768060836502</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="29">
         <f ca="1">SUM(R4:INDIRECT("R"&amp;E9))</f>
         <v>37</v>
       </c>
@@ -5686,7 +5750,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43647</v>
       </c>
       <c r="L18" s="3">
@@ -5721,34 +5785,38 @@
         <v>2</v>
       </c>
       <c r="T18" s="3">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="V18" s="3">
+        <f t="shared" ca="1" si="16"/>
         <v>3</v>
       </c>
-      <c r="V18" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W18" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>224</v>
       </c>
-      <c r="W18" s="8">
+      <c r="X18" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.85171102661596954</v>
       </c>
-      <c r="X18" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y18" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>208</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="Z18" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.79087452471482889</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="34">
         <v>0.9</v>
       </c>
       <c r="G19" s="15"/>
@@ -5791,34 +5859,38 @@
         <v>1</v>
       </c>
       <c r="T19" s="3">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="U19" s="3">
+        <v>1</v>
+      </c>
+      <c r="V19" s="3">
         <f ca="1">Q19-S19</f>
         <v>4</v>
       </c>
-      <c r="V19" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W19" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>228</v>
       </c>
-      <c r="W19" s="8">
+      <c r="X19" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.86692015209125473</v>
       </c>
-      <c r="X19" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y19" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>212</v>
       </c>
-      <c r="Y19" s="8">
+      <c r="Z19" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.80608365019011408</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="29">
         <v>238</v>
       </c>
       <c r="E20" s="13"/>
@@ -5827,7 +5899,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="15">
-        <f t="shared" ref="K20:K37" si="16">K19+7</f>
+        <f t="shared" ref="K20:K37" si="17">K19+7</f>
         <v>43661</v>
       </c>
       <c r="L20" s="3">
@@ -5862,39 +5934,43 @@
         <v>2</v>
       </c>
       <c r="T20" s="3">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" ref="U20:U28" ca="1" si="17">Q20-S20</f>
+        <v>2</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" ref="V20:V28" ca="1" si="18">Q20-S20</f>
         <v>3</v>
       </c>
-      <c r="V20" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W20" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>231</v>
       </c>
-      <c r="W20" s="8">
+      <c r="X20" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.87832699619771859</v>
       </c>
-      <c r="X20" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y20" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>215</v>
       </c>
-      <c r="Y20" s="8">
+      <c r="Z20" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.81749049429657794</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="49"/>
+      <c r="B21" s="29"/>
       <c r="E21" s="8"/>
       <c r="G21" s="15"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43668</v>
       </c>
       <c r="L21" s="3">
@@ -5929,41 +6005,45 @@
         <v>3</v>
       </c>
       <c r="T21" s="3">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="V21" s="16">
-        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="W21" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>233</v>
       </c>
-      <c r="W21" s="8">
+      <c r="X21" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.88593155893536124</v>
       </c>
-      <c r="X21" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y21" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>217</v>
       </c>
-      <c r="Y21" s="8">
+      <c r="Z21" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.82509505703422048</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="52"/>
       <c r="E22" s="8"/>
       <c r="G22" s="15"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43675</v>
       </c>
       <c r="L22" s="3">
@@ -5998,34 +6078,38 @@
         <v>2</v>
       </c>
       <c r="T22" s="3">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" ca="1" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="V22" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>3</v>
       </c>
-      <c r="V22" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W22" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>236</v>
       </c>
-      <c r="W22" s="8">
+      <c r="X22" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.89733840304182511</v>
       </c>
-      <c r="X22" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y22" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>220</v>
       </c>
-      <c r="Y22" s="8">
+      <c r="Z22" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.83650190114068446</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="29">
         <f ca="1">SUM(Q4:INDIRECT("Q"&amp;E9))</f>
         <v>105</v>
       </c>
@@ -6035,7 +6119,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43682</v>
       </c>
       <c r="L23" s="3">
@@ -6070,34 +6154,38 @@
         <v>4</v>
       </c>
       <c r="T23" s="3">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="U23" s="3">
         <v>4</v>
       </c>
-      <c r="U23" s="3">
-        <f t="shared" ca="1" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="V23" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="V23" s="3">
+        <f t="shared" ca="1" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>237</v>
       </c>
-      <c r="W23" s="8">
+      <c r="X23" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.90114068441064643</v>
       </c>
-      <c r="X23" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y23" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>221</v>
       </c>
-      <c r="Y23" s="8">
+      <c r="Z23" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.84030418250950567</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="29">
         <f ca="1">SUM(S4:INDIRECT("S"&amp;E9))</f>
         <v>31</v>
       </c>
@@ -6107,7 +6195,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43689</v>
       </c>
       <c r="L24" s="3">
@@ -6142,43 +6230,47 @@
         <v>5</v>
       </c>
       <c r="T24" s="3">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="U24" s="3">
         <v>3</v>
       </c>
-      <c r="U24" s="3">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="V24" s="3">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>237</v>
       </c>
-      <c r="W24" s="8">
+      <c r="X24" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.90114068441064643</v>
       </c>
-      <c r="X24" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y24" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>221</v>
       </c>
-      <c r="Y24" s="8">
+      <c r="Z24" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.84030418250950567</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="34">
         <f ca="1">INDIRECT("Y"&amp;E9)</f>
-        <v>0.84030418250950567</v>
+        <v>221</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43696</v>
       </c>
       <c r="L25" s="3">
@@ -6213,43 +6305,47 @@
         <v>2</v>
       </c>
       <c r="T25" s="3">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" ca="1" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="V25" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>3</v>
       </c>
-      <c r="V25" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W25" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>240</v>
       </c>
-      <c r="W25" s="8">
+      <c r="X25" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.9125475285171103</v>
       </c>
-      <c r="X25" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y25" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>224</v>
       </c>
-      <c r="Y25" s="8">
+      <c r="Z25" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.85171102661596954</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="55">
+      <c r="B26" s="35">
         <f ca="1">INDIRECT("X"&amp;E9)</f>
-        <v>221</v>
+        <v>0.90114068441064643</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43703</v>
       </c>
       <c r="L26" s="3">
@@ -6284,34 +6380,38 @@
         <v>2</v>
       </c>
       <c r="T26" s="3">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" ca="1" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="V26" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>3</v>
       </c>
-      <c r="V26" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W26" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>243</v>
       </c>
-      <c r="W26" s="8">
+      <c r="X26" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.92395437262357416</v>
       </c>
-      <c r="X26" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y26" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>227</v>
       </c>
-      <c r="Y26" s="8">
+      <c r="Z26" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.86311787072243351</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="29">
         <f>$E$3</f>
         <v>263</v>
       </c>
@@ -6320,7 +6420,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43710</v>
       </c>
       <c r="L27" s="3">
@@ -6355,38 +6455,42 @@
         <v>2</v>
       </c>
       <c r="T27" s="3">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" ca="1" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="V27" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>3</v>
       </c>
-      <c r="V27" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W27" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>246</v>
       </c>
-      <c r="W27" s="8">
+      <c r="X27" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.93536121673003803</v>
       </c>
-      <c r="X27" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y27" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>230</v>
       </c>
-      <c r="Y27" s="8">
+      <c r="Z27" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.87452471482889738</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="49"/>
+      <c r="B28" s="29"/>
       <c r="G28" s="15"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43717</v>
       </c>
       <c r="L28" s="3">
@@ -6421,40 +6525,44 @@
         <v>2</v>
       </c>
       <c r="T28" s="3">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" ca="1" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="V28" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>3</v>
       </c>
-      <c r="V28" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W28" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>249</v>
       </c>
-      <c r="W28" s="8">
+      <c r="X28" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.94676806083650189</v>
       </c>
-      <c r="X28" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y28" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>233</v>
       </c>
-      <c r="Y28" s="8">
+      <c r="Z28" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.88593155893536124</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="54"/>
       <c r="G29" s="15"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43724</v>
       </c>
       <c r="L29" s="3">
@@ -6489,34 +6597,38 @@
         <v>1</v>
       </c>
       <c r="T29" s="3">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U29" s="3">
+        <v>1</v>
+      </c>
+      <c r="V29" s="3">
         <f ca="1">Q29-S29</f>
         <v>4</v>
       </c>
-      <c r="V29" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W29" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>253</v>
       </c>
-      <c r="W29" s="8">
+      <c r="X29" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.96197718631178708</v>
       </c>
-      <c r="X29" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y29" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>237</v>
       </c>
-      <c r="Y29" s="8">
+      <c r="Z29" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.90114068441064643</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="55">
+      <c r="B30" s="35">
         <f ca="1">SUM(L4:INDIRECT("L"&amp;E9))</f>
         <v>8400</v>
       </c>
@@ -6525,7 +6637,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43731</v>
       </c>
       <c r="L30" s="3">
@@ -6560,34 +6672,38 @@
         <v>5</v>
       </c>
       <c r="T30" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="U30" s="3">
         <v>5</v>
       </c>
-      <c r="U30" s="3">
-        <f t="shared" ref="U30:U37" ca="1" si="18">Q30-S30</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="V30" s="3">
+        <f t="shared" ref="V30:V37" ca="1" si="19">Q30-S30</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>253</v>
       </c>
-      <c r="W30" s="8">
+      <c r="X30" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.96197718631178708</v>
       </c>
-      <c r="X30" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y30" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>237</v>
       </c>
-      <c r="Y30" s="8">
+      <c r="Z30" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.90114068441064643</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="36">
         <f ca="1">B56/B30</f>
         <v>0.47619047619047616</v>
       </c>
@@ -6596,7 +6712,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43738</v>
       </c>
       <c r="L31" s="3">
@@ -6631,34 +6747,38 @@
         <v>2</v>
       </c>
       <c r="T31" s="3">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U31" s="3">
-        <f t="shared" ca="1" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V31" s="3">
+        <f t="shared" ca="1" si="19"/>
         <v>3</v>
       </c>
-      <c r="V31" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W31" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>256</v>
       </c>
-      <c r="W31" s="8">
+      <c r="X31" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.97338403041825095</v>
       </c>
-      <c r="X31" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y31" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>240</v>
       </c>
-      <c r="Y31" s="8">
+      <c r="Z31" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.9125475285171103</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="51">
+      <c r="B32" s="31">
         <f ca="1">B34/B30</f>
         <v>0.14249999999999999</v>
       </c>
@@ -6667,7 +6787,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43745</v>
       </c>
       <c r="L32" s="3">
@@ -6702,34 +6822,38 @@
         <v>2</v>
       </c>
       <c r="T32" s="3">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="U32" s="3">
-        <f t="shared" ca="1" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V32" s="3">
+        <f t="shared" ca="1" si="19"/>
         <v>3</v>
       </c>
-      <c r="V32" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W32" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>259</v>
       </c>
-      <c r="W32" s="8">
+      <c r="X32" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.98479087452471481</v>
       </c>
-      <c r="X32" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y32" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>243</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="Z32" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.92395437262357416</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="29">
         <f ca="1">(B30/$E$10)*4</f>
         <v>1600</v>
       </c>
@@ -6738,7 +6862,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43752</v>
       </c>
       <c r="L33" s="3">
@@ -6773,34 +6897,38 @@
         <v>3</v>
       </c>
       <c r="T33" s="3">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="U33" s="3">
         <v>3</v>
       </c>
-      <c r="U33" s="3">
-        <f t="shared" ca="1" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="V33" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="V33" s="3">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="W33" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>261</v>
       </c>
-      <c r="W33" s="8">
+      <c r="X33" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.99239543726235746</v>
       </c>
-      <c r="X33" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y33" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>245</v>
       </c>
-      <c r="Y33" s="8">
+      <c r="Z33" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.9315589353612167</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="55">
+      <c r="B34" s="35">
         <f ca="1">SUM(M4:INDIRECT("M"&amp;E9))</f>
         <v>1197</v>
       </c>
@@ -6809,7 +6937,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43759</v>
       </c>
       <c r="L34" s="3">
@@ -6844,34 +6972,38 @@
         <v>2</v>
       </c>
       <c r="T34" s="3">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U34" s="3">
-        <f t="shared" ca="1" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V34" s="3">
+        <f t="shared" ca="1" si="19"/>
         <v>3</v>
       </c>
-      <c r="V34" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W34" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>264</v>
       </c>
-      <c r="W34" s="8">
+      <c r="X34" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1.0038022813688212</v>
       </c>
-      <c r="X34" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y34" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>248</v>
       </c>
-      <c r="Y34" s="8">
+      <c r="Z34" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.94296577946768056</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="36">
         <f ca="1">B56/B34</f>
         <v>3.3416875522138678</v>
       </c>
@@ -6880,7 +7012,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43766</v>
       </c>
       <c r="L35" s="3">
@@ -6915,34 +7047,38 @@
         <v>3</v>
       </c>
       <c r="T35" s="3">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
-        <f t="shared" ca="1" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="V35" s="16">
-        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V35" s="3">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="W35" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>266</v>
       </c>
-      <c r="W35" s="8">
+      <c r="X35" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1.0114068441064639</v>
       </c>
-      <c r="X35" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y35" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>250</v>
       </c>
-      <c r="Y35" s="8">
+      <c r="Z35" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.95057034220532322</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="51">
+      <c r="B36" s="31">
         <f ca="1">B38/B34</f>
         <v>0.31578947368421051</v>
       </c>
@@ -6951,7 +7087,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43773</v>
       </c>
       <c r="L36" s="3">
@@ -6986,34 +7122,38 @@
         <v>4</v>
       </c>
       <c r="T36" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
         <v>4</v>
       </c>
-      <c r="U36" s="3">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="V36" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="V36" s="3">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="W36" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>267</v>
       </c>
-      <c r="W36" s="8">
+      <c r="X36" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1.0152091254752851</v>
       </c>
-      <c r="X36" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y36" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>251</v>
       </c>
-      <c r="Y36" s="8">
+      <c r="Z36" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.95437262357414454</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="29">
         <f ca="1">(B34/$E$10)*4</f>
         <v>228</v>
       </c>
@@ -7022,7 +7162,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43780</v>
       </c>
       <c r="L37" s="3">
@@ -7057,44 +7197,48 @@
         <v>2</v>
       </c>
       <c r="T37" s="3">
-        <v>1</v>
+        <f>U40</f>
+        <v>0</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" ca="1" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V37" s="3">
+        <f t="shared" ca="1" si="19"/>
         <v>3</v>
       </c>
-      <c r="V37" s="16">
-        <f t="shared" ca="1" si="11"/>
+      <c r="W37" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>270</v>
       </c>
-      <c r="W37" s="8">
+      <c r="X37" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1.0266159695817489</v>
       </c>
-      <c r="X37" s="3">
-        <f t="shared" ca="1" si="12"/>
+      <c r="Y37" s="3">
+        <f t="shared" ca="1" si="13"/>
         <v>254</v>
       </c>
-      <c r="Y37" s="8">
+      <c r="Z37" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.96577946768060841</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="55">
+      <c r="B38" s="35">
         <f ca="1">SUM(N4:INDIRECT("N"&amp;E9))</f>
         <v>378</v>
       </c>
-      <c r="W38" s="8"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X38" s="8"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="56">
+      <c r="B39" s="36">
         <f ca="1">B56/B38</f>
         <v>10.582010582010582</v>
       </c>
@@ -7110,83 +7254,83 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="51">
+      <c r="B40" s="31">
         <f ca="1">B42/B38</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="29">
         <f ca="1">(B38/E10)*4</f>
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="55">
+      <c r="B42" s="35">
         <f ca="1">SUM(O4:INDIRECT("O"&amp;E9))</f>
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="36">
         <f ca="1">B56/B42</f>
         <v>31.746031746031747</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="51">
+      <c r="B44" s="31">
         <f ca="1">B46/B42</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="29">
         <f ca="1">(B42/E10)*4</f>
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="55">
+      <c r="B46" s="35">
         <f ca="1">SUM(Q4:INDIRECT("Q"&amp;E9))</f>
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="56">
+      <c r="B47" s="36">
         <f ca="1">B56/B46</f>
         <v>38.095238095238095</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="57">
+      <c r="B48" s="37">
         <f ca="1">1*B32*B36*B40*B44</f>
         <v>1.2499999999999997E-2</v>
       </c>
@@ -7195,26 +7339,26 @@
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="29">
         <f ca="1">(B46/E10)*4</f>
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="49"/>
+      <c r="B50" s="29"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="41"/>
+      <c r="B51" s="58"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="56">
+      <c r="B52" s="36">
         <v>1000</v>
       </c>
     </row>
@@ -7222,7 +7366,7 @@
       <c r="A53" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="56">
+      <c r="B53" s="36">
         <v>1000</v>
       </c>
     </row>
@@ -7230,7 +7374,7 @@
       <c r="A54" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="56">
+      <c r="B54" s="36">
         <v>1000</v>
       </c>
     </row>
@@ -7238,7 +7382,7 @@
       <c r="A55" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="56">
+      <c r="B55" s="36">
         <v>1000</v>
       </c>
     </row>
@@ -7246,7 +7390,7 @@
       <c r="A56" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="56">
+      <c r="B56" s="36">
         <f>SUM(B52:B55)</f>
         <v>4000</v>
       </c>
@@ -7255,7 +7399,7 @@
       <c r="A57" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="49">
+      <c r="B57" s="29">
         <f ca="1">ROUND(B58/B56,0)</f>
         <v>315</v>
       </c>
@@ -7264,26 +7408,26 @@
       <c r="A58" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="56">
+      <c r="B58" s="36">
         <f ca="1">B23*(B8*12)</f>
         <v>1260000</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="56"/>
+      <c r="B59" s="36"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="43"/>
+      <c r="B60" s="60"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="56">
+      <c r="B61" s="36">
         <v>1000</v>
       </c>
     </row>
@@ -7291,7 +7435,7 @@
       <c r="A62" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="56">
+      <c r="B62" s="36">
         <v>1000</v>
       </c>
     </row>
@@ -7299,7 +7443,7 @@
       <c r="A63" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="56">
+      <c r="B63" s="36">
         <v>1000</v>
       </c>
     </row>
@@ -7307,7 +7451,7 @@
       <c r="A64" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="56">
+      <c r="B64" s="36">
         <v>1000</v>
       </c>
     </row>
@@ -7315,7 +7459,7 @@
       <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="56">
+      <c r="B65" s="36">
         <f>SUM(B61:B64)</f>
         <v>4000</v>
       </c>
@@ -7324,35 +7468,35 @@
       <c r="A66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="49">
+      <c r="B66" s="29">
         <f ca="1">ROUND(B67/B65,0)</f>
-        <v>174</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="56">
+      <c r="B67" s="36">
         <f ca="1">B15*(B8*12)</f>
-        <v>696000</v>
+        <v>1092000</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="56"/>
+      <c r="B68" s="36"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="27"/>
+      <c r="B69" s="44"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="56">
+      <c r="B70" s="36">
         <f>B65+B56</f>
         <v>8000</v>
       </c>
@@ -7361,18 +7505,18 @@
       <c r="A71" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="49">
+      <c r="B71" s="29">
         <f ca="1">ROUND(B72/B70,0)</f>
-        <v>245</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="58">
+      <c r="B72" s="38">
         <f ca="1">B67+B58</f>
-        <v>1956000</v>
+        <v>2352000</v>
       </c>
     </row>
   </sheetData>
@@ -7380,7 +7524,7 @@
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="K1:Y1"/>
+    <mergeCell ref="K1:Z1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A22:B22"/>

--- a/xls/templates/run-rate-template.xlsx
+++ b/xls/templates/run-rate-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddcullen/Projects/remarkably/xls/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DE20C7-AF93-FA4F-92B1-F912DE251932}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9875FA-F8C6-C942-A955-70D199D4807A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" activeTab="1" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>Start Date</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>Notice to Renew</t>
+  </si>
+  <si>
+    <t>Note - Place Acquisitioin by period up above</t>
   </si>
 </sst>
 </file>
@@ -1115,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85182B8-1FF3-A545-8EEF-BDB4651EA58C}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4437,10 +4440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4156A3-96B9-DE41-91DB-F4C9577E214C}">
-  <dimension ref="A1:Z72"/>
+  <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4453,17 +4456,18 @@
     <col min="13" max="13" width="6.83203125" customWidth="1"/>
     <col min="16" max="16" width="7.5" customWidth="1"/>
     <col min="17" max="17" width="6.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="9.5" customWidth="1"/>
-    <col min="22" max="22" width="22" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" customWidth="1"/>
-    <col min="25" max="25" width="14.5" customWidth="1"/>
-    <col min="26" max="26" width="16" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="9.5" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
+    <col min="27" max="27" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>82</v>
       </c>
@@ -4495,8 +4499,9 @@
       <c r="X1" s="48"/>
       <c r="Y1" s="48"/>
       <c r="Z1" s="48"/>
-    </row>
-    <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="48"/>
+    </row>
+    <row r="2" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="29"/>
       <c r="D2" t="s">
@@ -4534,34 +4539,37 @@
         <v>64</v>
       </c>
       <c r="R2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="U2" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="V2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="X2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>61</v>
       </c>
@@ -4585,24 +4593,24 @@
       <c r="K3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <f>$E$4</f>
         <v>163</v>
       </c>
-      <c r="X3" s="8">
-        <f>W3/$E$3</f>
+      <c r="Y3" s="8">
+        <f>X3/$E$3</f>
         <v>0.61977186311787069</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <f>$E$8</f>
         <v>147</v>
       </c>
-      <c r="Z3" s="8">
-        <f>Y3/$E$3</f>
+      <c r="AA3" s="8">
+        <f>Z3/$E$3</f>
         <v>0.55893536121673004</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
@@ -4655,41 +4663,44 @@
         <v>5</v>
       </c>
       <c r="R4" s="3">
-        <f>S7</f>
         <v>0</v>
       </c>
       <c r="S4" s="3">
+        <f>T7</f>
         <v>0</v>
       </c>
       <c r="T4" s="3">
-        <f>U7</f>
         <v>0</v>
       </c>
       <c r="U4" s="3">
+        <f>V7</f>
         <v>0</v>
       </c>
       <c r="V4" s="3">
-        <f ca="1">Q4-S4</f>
-        <v>5</v>
-      </c>
-      <c r="W4" s="16">
-        <f ca="1">W3+V4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <f ca="1">Q4-T4</f>
+        <v>5</v>
+      </c>
+      <c r="X4" s="16">
+        <f ca="1">X3+W4</f>
         <v>168</v>
       </c>
-      <c r="X4" s="8">
-        <f t="shared" ref="X4:X37" ca="1" si="1">W4/$E$3</f>
+      <c r="Y4" s="8">
+        <f t="shared" ref="Y4:Y37" ca="1" si="1">X4/$E$3</f>
         <v>0.63878326996197721</v>
       </c>
-      <c r="Y4" s="3">
-        <f ca="1">Y3+Q4-S4</f>
+      <c r="Z4" s="3">
+        <f ca="1">Z3+Q4-T4</f>
         <v>152</v>
       </c>
-      <c r="Z4" s="8">
-        <f t="shared" ref="Z4:Z37" ca="1" si="2">Y4/$E$3</f>
+      <c r="AA4" s="8">
+        <f t="shared" ref="AA4:AA37" ca="1" si="2">Z4/$E$3</f>
         <v>0.57794676806083645</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -4742,41 +4753,44 @@
         <v>5</v>
       </c>
       <c r="R5" s="3">
-        <f t="shared" ref="R5:R37" si="9">S8</f>
         <v>0</v>
       </c>
       <c r="S5" s="3">
+        <f t="shared" ref="S5:S37" si="9">T8</f>
         <v>0</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" ref="T5:T36" si="10">U8</f>
         <v>0</v>
       </c>
       <c r="U5" s="3">
+        <f t="shared" ref="U5:U36" si="10">V8</f>
         <v>0</v>
       </c>
       <c r="V5" s="3">
-        <f t="shared" ref="V5:V13" ca="1" si="11">Q5-S5</f>
-        <v>5</v>
-      </c>
-      <c r="W5" s="16">
-        <f t="shared" ref="W5:W37" ca="1" si="12">W4+V5</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <f ca="1">Q5-T5</f>
+        <v>5</v>
+      </c>
+      <c r="X5" s="16">
+        <f t="shared" ref="X5:X37" ca="1" si="11">X4+W5</f>
         <v>173</v>
       </c>
-      <c r="X5" s="8">
+      <c r="Y5" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.65779467680608361</v>
       </c>
-      <c r="Y5" s="3">
-        <f t="shared" ref="Y5:Y37" ca="1" si="13">Y4+Q5-S5</f>
+      <c r="Z5" s="3">
+        <f ca="1">Z4+Q5-T5</f>
         <v>157</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="AA5" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.59695817490494296</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -4803,7 +4817,7 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="15">
-        <f t="shared" ref="K6:K11" si="14">K5+7</f>
+        <f t="shared" ref="K6:K11" si="12">K5+7</f>
         <v>43563</v>
       </c>
       <c r="L6" s="3">
@@ -4831,41 +4845,44 @@
         <v>5</v>
       </c>
       <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
       <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
       <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <f ca="1">Q6-T6</f>
+        <v>5</v>
+      </c>
+      <c r="X6" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="W6" s="16">
-        <f t="shared" ca="1" si="12"/>
         <v>178</v>
       </c>
-      <c r="X6" s="8">
+      <c r="Y6" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.67680608365019013</v>
       </c>
-      <c r="Y6" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z6" s="3">
+        <f ca="1">Z5+Q6-T6</f>
         <v>162</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="AA6" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.61596958174904948</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -4892,7 +4909,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>43570</v>
       </c>
       <c r="L7" s="3">
@@ -4920,41 +4937,45 @@
         <v>5</v>
       </c>
       <c r="R7" s="3">
+        <f ca="1">Q4</f>
+        <v>5</v>
+      </c>
+      <c r="S7" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
       <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
       <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <f ca="1">Q7-T7</f>
+        <v>5</v>
+      </c>
+      <c r="X7" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="W7" s="16">
-        <f t="shared" ca="1" si="12"/>
         <v>183</v>
       </c>
-      <c r="X7" s="8">
+      <c r="Y7" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.69581749049429653</v>
       </c>
-      <c r="Y7" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z7" s="3">
+        <f ca="1">Z6+Q7-T7</f>
         <v>167</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="AA7" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.63498098859315588</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -4973,7 +4994,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>43577</v>
       </c>
       <c r="L8" s="3">
@@ -5001,41 +5022,45 @@
         <v>5</v>
       </c>
       <c r="R8" s="3">
+        <f t="shared" ref="R8:R37" ca="1" si="13">Q5</f>
+        <v>5</v>
+      </c>
+      <c r="S8" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <f ca="1">Q8-T8</f>
+        <v>5</v>
+      </c>
+      <c r="X8" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="W8" s="16">
-        <f t="shared" ca="1" si="12"/>
         <v>188</v>
       </c>
-      <c r="X8" s="8">
+      <c r="Y8" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.71482889733840305</v>
       </c>
-      <c r="Y8" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z8" s="3">
+        <f ca="1">Z7+Q8-T8</f>
         <v>172</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="AA8" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.6539923954372624</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="33"/>
       <c r="D9" t="s">
@@ -5049,7 +5074,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>43584</v>
       </c>
       <c r="L9" s="3">
@@ -5077,41 +5102,45 @@
         <v>5</v>
       </c>
       <c r="R9" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <f ca="1">Q9-T9</f>
+        <v>5</v>
+      </c>
+      <c r="X9" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="W9" s="16">
-        <f t="shared" ca="1" si="12"/>
         <v>193</v>
       </c>
-      <c r="X9" s="8">
+      <c r="Y9" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.73384030418250945</v>
       </c>
-      <c r="Y9" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z9" s="3">
+        <f ca="1">Z8+Q9-T9</f>
         <v>177</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="AA9" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.6730038022813688</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
         <v>4</v>
       </c>
@@ -5128,7 +5157,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>43591</v>
       </c>
       <c r="L10" s="3">
@@ -5156,47 +5185,51 @@
         <v>5</v>
       </c>
       <c r="R10" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <f ca="1">Q10-T10</f>
+        <v>5</v>
+      </c>
+      <c r="X10" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="W10" s="16">
-        <f t="shared" ca="1" si="12"/>
         <v>198</v>
       </c>
-      <c r="X10" s="8">
+      <c r="Y10" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.75285171102661597</v>
       </c>
-      <c r="Y10" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z10" s="3">
+        <f ca="1">Z9+Q10-T10</f>
         <v>182</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="AA10" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.69201520912547532</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="29">
-        <f ca="1">INDIRECT("V"&amp;E9)-W3</f>
-        <v>-163</v>
+        <f ca="1">INDIRECT("V"&amp;E9)-X3</f>
+        <v>-160</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -5209,7 +5242,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>43598</v>
       </c>
       <c r="L11" s="3">
@@ -5237,41 +5270,45 @@
         <v>5</v>
       </c>
       <c r="R11" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S11" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
       <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
       <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <f ca="1">Q11-T11</f>
+        <v>5</v>
+      </c>
+      <c r="X11" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="W11" s="16">
-        <f t="shared" ca="1" si="12"/>
         <v>203</v>
       </c>
-      <c r="X11" s="8">
+      <c r="Y11" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.77186311787072248</v>
       </c>
-      <c r="Y11" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z11" s="3">
+        <f ca="1">Z10+Q11-T11</f>
         <v>187</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="AA11" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.71102661596958172</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -5318,41 +5355,45 @@
         <v>5</v>
       </c>
       <c r="R12" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S12" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S12" s="3">
-        <v>2</v>
-      </c>
       <c r="T12" s="3">
+        <v>2</v>
+      </c>
+      <c r="U12" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U12" s="3">
-        <v>2</v>
-      </c>
       <c r="V12" s="3">
+        <v>2</v>
+      </c>
+      <c r="W12" s="3">
+        <f ca="1">Q12-T12</f>
+        <v>3</v>
+      </c>
+      <c r="X12" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="W12" s="16">
-        <f t="shared" ca="1" si="12"/>
         <v>206</v>
       </c>
-      <c r="X12" s="8">
+      <c r="Y12" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.78326996197718635</v>
       </c>
-      <c r="Y12" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z12" s="3">
+        <f ca="1">Z11+Q12-T12</f>
         <v>190</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="AA12" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.72243346007604559</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -5394,54 +5435,58 @@
         <v>5</v>
       </c>
       <c r="R13" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S13" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S13" s="3">
-        <v>2</v>
-      </c>
       <c r="T13" s="3">
+        <v>2</v>
+      </c>
+      <c r="U13" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U13" s="3">
-        <v>2</v>
-      </c>
       <c r="V13" s="3">
+        <v>2</v>
+      </c>
+      <c r="W13" s="3">
+        <f ca="1">Q13-T13</f>
+        <v>3</v>
+      </c>
+      <c r="X13" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="W13" s="16">
-        <f t="shared" ca="1" si="12"/>
         <v>209</v>
       </c>
-      <c r="X13" s="8">
+      <c r="Y13" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.79467680608365021</v>
       </c>
-      <c r="Y13" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z13" s="3">
+        <f ca="1">Z12+Q13-T13</f>
         <v>193</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="AA13" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.73384030418250945</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="29">
-        <f ca="1">SUM(U4:INDIRECT("S"&amp;E9))</f>
-        <v>91</v>
+        <f ca="1">SUM(V4:INDIRECT("S"&amp;E9))</f>
+        <v>128</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="15">
-        <f t="shared" ref="K14:K18" si="15">K13+7</f>
+        <f t="shared" ref="K14:K18" si="14">K13+7</f>
         <v>43619</v>
       </c>
       <c r="L14" s="3">
@@ -5469,47 +5514,51 @@
         <v>5</v>
       </c>
       <c r="R14" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S14" s="3">
-        <v>2</v>
-      </c>
       <c r="T14" s="3">
+        <v>2</v>
+      </c>
+      <c r="U14" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U14" s="3">
-        <v>2</v>
-      </c>
       <c r="V14" s="3">
-        <f ca="1">Q14-S14</f>
+        <v>2</v>
+      </c>
+      <c r="W14" s="3">
+        <f ca="1">Q14-T14</f>
         <v>3</v>
       </c>
-      <c r="W14" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X14" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>212</v>
       </c>
-      <c r="X14" s="8">
+      <c r="Y14" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.80608365019011408</v>
       </c>
-      <c r="Y14" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z14" s="3">
+        <f ca="1">Z13+Q14-T14</f>
         <v>196</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="AA14" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.74524714828897343</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="29">
         <f ca="1">B14</f>
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
         <v>112</v>
@@ -5519,7 +5568,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43626</v>
       </c>
       <c r="L15" s="3">
@@ -5547,47 +5596,51 @@
         <v>5</v>
       </c>
       <c r="R15" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S15" s="3">
-        <v>2</v>
-      </c>
       <c r="T15" s="3">
+        <v>2</v>
+      </c>
+      <c r="U15" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U15" s="3">
-        <v>2</v>
-      </c>
       <c r="V15" s="3">
-        <f t="shared" ref="V15:V18" ca="1" si="16">Q15-S15</f>
+        <v>2</v>
+      </c>
+      <c r="W15" s="3">
+        <f ca="1">Q15-T15</f>
         <v>3</v>
       </c>
-      <c r="W15" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X15" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>215</v>
       </c>
-      <c r="X15" s="8">
+      <c r="Y15" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.81749049429657794</v>
       </c>
-      <c r="Y15" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z15" s="3">
+        <f ca="1">Z14+Q15-T15</f>
         <v>199</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="AA15" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.75665399239543729</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="31">
         <f ca="1">B15/B17</f>
-        <v>0.7109375</v>
+        <v>0.50196078431372548</v>
       </c>
       <c r="D16" t="s">
         <v>113</v>
@@ -5597,7 +5650,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43633</v>
       </c>
       <c r="L16" s="3">
@@ -5625,47 +5678,51 @@
         <v>5</v>
       </c>
       <c r="R16" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S16" s="3">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S16" s="3">
-        <v>2</v>
-      </c>
       <c r="T16" s="3">
+        <v>2</v>
+      </c>
+      <c r="U16" s="3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
       <c r="V16" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <f ca="1">Q16-T16</f>
         <v>3</v>
       </c>
-      <c r="W16" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X16" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>218</v>
       </c>
-      <c r="X16" s="8">
+      <c r="Y16" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.82889733840304181</v>
       </c>
-      <c r="Y16" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z16" s="3">
+        <f ca="1">Z15+Q16-T16</f>
         <v>202</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="AA16" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.76806083650190116</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="29">
         <f ca="1">B18+B15</f>
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
         <v>114</v>
@@ -5675,7 +5732,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43640</v>
       </c>
       <c r="L17" s="3">
@@ -5703,54 +5760,58 @@
         <v>5</v>
       </c>
       <c r="R17" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S17" s="3">
-        <v>2</v>
-      </c>
       <c r="T17" s="3">
+        <v>2</v>
+      </c>
+      <c r="U17" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U17" s="3">
-        <v>2</v>
-      </c>
       <c r="V17" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W17" s="3">
+        <f ca="1">Q17-T17</f>
         <v>3</v>
       </c>
-      <c r="W17" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X17" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>221</v>
       </c>
-      <c r="X17" s="8">
+      <c r="Y17" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.84030418250950567</v>
       </c>
-      <c r="Y17" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z17" s="3">
+        <f ca="1">Z16+Q17-T17</f>
         <v>205</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="AA17" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.77946768060836502</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="29">
-        <f ca="1">SUM(R4:INDIRECT("R"&amp;E9))</f>
-        <v>37</v>
+        <f ca="1">SUM(S4:INDIRECT("R"&amp;E9))</f>
+        <v>127</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43647</v>
       </c>
       <c r="L18" s="3">
@@ -5778,41 +5839,45 @@
         <v>5</v>
       </c>
       <c r="R18" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="S18" s="3">
-        <v>2</v>
-      </c>
       <c r="T18" s="3">
+        <v>2</v>
+      </c>
+      <c r="U18" s="3">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="U18" s="3">
-        <v>2</v>
-      </c>
       <c r="V18" s="3">
-        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W18" s="3">
+        <f ca="1">Q18-T18</f>
         <v>3</v>
       </c>
-      <c r="W18" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X18" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>224</v>
       </c>
-      <c r="X18" s="8">
+      <c r="Y18" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.85171102661596954</v>
       </c>
-      <c r="Y18" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z18" s="3">
+        <f ca="1">Z17+Q18-T18</f>
         <v>208</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="AA18" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.79087452471482889</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -5852,41 +5917,45 @@
         <v>5</v>
       </c>
       <c r="R19" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S19" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S19" s="3">
-        <v>1</v>
-      </c>
       <c r="T19" s="3">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U19" s="3">
-        <v>1</v>
-      </c>
       <c r="V19" s="3">
-        <f ca="1">Q19-S19</f>
+        <v>1</v>
+      </c>
+      <c r="W19" s="3">
+        <f ca="1">Q19-T19</f>
         <v>4</v>
       </c>
-      <c r="W19" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X19" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>228</v>
       </c>
-      <c r="X19" s="8">
+      <c r="Y19" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.86692015209125473</v>
       </c>
-      <c r="Y19" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z19" s="3">
+        <f ca="1">Z18+Q19-T19</f>
         <v>212</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="AA19" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.80608365019011408</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -5899,7 +5968,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="15">
-        <f t="shared" ref="K20:K37" si="17">K19+7</f>
+        <f t="shared" ref="K20:K37" si="15">K19+7</f>
         <v>43661</v>
       </c>
       <c r="L20" s="3">
@@ -5927,41 +5996,45 @@
         <v>5</v>
       </c>
       <c r="R20" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="S20" s="3">
-        <v>2</v>
-      </c>
       <c r="T20" s="3">
+        <v>2</v>
+      </c>
+      <c r="U20" s="3">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="U20" s="3">
-        <v>2</v>
-      </c>
       <c r="V20" s="3">
-        <f t="shared" ref="V20:V28" ca="1" si="18">Q20-S20</f>
+        <v>2</v>
+      </c>
+      <c r="W20" s="3">
+        <f ca="1">Q20-T20</f>
         <v>3</v>
       </c>
-      <c r="W20" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X20" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>231</v>
       </c>
-      <c r="X20" s="8">
+      <c r="Y20" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.87832699619771859</v>
       </c>
-      <c r="Y20" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z20" s="3">
+        <f ca="1">Z19+Q20-T20</f>
         <v>215</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="AA20" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.81749049429657794</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="29"/>
       <c r="E21" s="8"/>
@@ -5970,7 +6043,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43668</v>
       </c>
       <c r="L21" s="3">
@@ -5998,41 +6071,45 @@
         <v>5</v>
       </c>
       <c r="R21" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3</v>
       </c>
-      <c r="V21" s="3">
-        <f t="shared" ca="1" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="W21" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="W21" s="3">
+        <f ca="1">Q21-T21</f>
+        <v>2</v>
+      </c>
+      <c r="X21" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>233</v>
       </c>
-      <c r="X21" s="8">
+      <c r="Y21" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.88593155893536124</v>
       </c>
-      <c r="Y21" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z21" s="3">
+        <f ca="1">Z20+Q21-T21</f>
         <v>217</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="AA21" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.82509505703422048</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="51" t="s">
         <v>15</v>
       </c>
@@ -6043,7 +6120,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43675</v>
       </c>
       <c r="L22" s="3">
@@ -6071,41 +6148,45 @@
         <v>5</v>
       </c>
       <c r="R22" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S22" s="3">
-        <v>2</v>
-      </c>
       <c r="T22" s="3">
+        <v>2</v>
+      </c>
+      <c r="U22" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U22" s="3">
-        <v>2</v>
-      </c>
       <c r="V22" s="3">
-        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="W22" s="3">
+        <f ca="1">Q22-T22</f>
         <v>3</v>
       </c>
-      <c r="W22" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X22" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>236</v>
       </c>
-      <c r="X22" s="8">
+      <c r="Y22" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.89733840304182511</v>
       </c>
-      <c r="Y22" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z22" s="3">
+        <f ca="1">Z21+Q22-T22</f>
         <v>220</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="AA22" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.83650190114068446</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
@@ -6119,7 +6200,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43682</v>
       </c>
       <c r="L23" s="3">
@@ -6147,47 +6228,51 @@
         <v>5</v>
       </c>
       <c r="R23" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4</v>
       </c>
-      <c r="V23" s="3">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="W23" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="W23" s="3">
+        <f ca="1">Q23-T23</f>
+        <v>1</v>
+      </c>
+      <c r="X23" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>237</v>
       </c>
-      <c r="X23" s="8">
+      <c r="Y23" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.90114068441064643</v>
       </c>
-      <c r="Y23" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z23" s="3">
+        <f ca="1">Z22+Q23-T23</f>
         <v>221</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="AA23" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.84030418250950567</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="29">
-        <f ca="1">SUM(S4:INDIRECT("S"&amp;E9))</f>
-        <v>31</v>
+        <f ca="1">SUM(T4:INDIRECT("S"&amp;E9))</f>
+        <v>68</v>
       </c>
       <c r="E24" s="12"/>
       <c r="G24" s="15"/>
@@ -6195,7 +6280,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43689</v>
       </c>
       <c r="L24" s="3">
@@ -6223,54 +6308,58 @@
         <v>5</v>
       </c>
       <c r="R24" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S24" s="3">
-        <v>5</v>
-      </c>
       <c r="T24" s="3">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3</v>
       </c>
-      <c r="V24" s="3">
-        <f t="shared" ca="1" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="W24" s="3">
+        <f ca="1">Q24-T24</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>237</v>
       </c>
-      <c r="X24" s="8">
+      <c r="Y24" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.90114068441064643</v>
       </c>
-      <c r="Y24" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z24" s="3">
+        <f ca="1">Z23+Q24-T24</f>
         <v>221</v>
       </c>
-      <c r="Z24" s="8">
+      <c r="AA24" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.84030418250950567</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="34">
         <f ca="1">INDIRECT("Y"&amp;E9)</f>
-        <v>221</v>
+        <v>0.90114068441064643</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43696</v>
       </c>
       <c r="L25" s="3">
@@ -6298,54 +6387,58 @@
         <v>5</v>
       </c>
       <c r="R25" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S25" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S25" s="3">
-        <v>2</v>
-      </c>
       <c r="T25" s="3">
+        <v>2</v>
+      </c>
+      <c r="U25" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U25" s="3">
-        <v>2</v>
-      </c>
       <c r="V25" s="3">
-        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="W25" s="3">
+        <f ca="1">Q25-T25</f>
         <v>3</v>
       </c>
-      <c r="W25" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X25" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>240</v>
       </c>
-      <c r="X25" s="8">
+      <c r="Y25" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.9125475285171103</v>
       </c>
-      <c r="Y25" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z25" s="3">
+        <f ca="1">Z24+Q25-T25</f>
         <v>224</v>
       </c>
-      <c r="Z25" s="8">
+      <c r="AA25" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.85171102661596954</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="35">
         <f ca="1">INDIRECT("X"&amp;E9)</f>
-        <v>0.90114068441064643</v>
+        <v>237</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43703</v>
       </c>
       <c r="L26" s="3">
@@ -6373,41 +6466,45 @@
         <v>5</v>
       </c>
       <c r="R26" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S26" s="3">
-        <v>2</v>
-      </c>
       <c r="T26" s="3">
+        <v>2</v>
+      </c>
+      <c r="U26" s="3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="U26" s="3">
-        <v>2</v>
-      </c>
       <c r="V26" s="3">
-        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="W26" s="3">
+        <f ca="1">Q26-T26</f>
         <v>3</v>
       </c>
-      <c r="W26" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X26" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>243</v>
       </c>
-      <c r="X26" s="8">
+      <c r="Y26" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.92395437262357416</v>
       </c>
-      <c r="Y26" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z26" s="3">
+        <f ca="1">Z25+Q26-T26</f>
         <v>227</v>
       </c>
-      <c r="Z26" s="8">
+      <c r="AA26" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.86311787072243351</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
@@ -6420,7 +6517,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43710</v>
       </c>
       <c r="L27" s="3">
@@ -6448,41 +6545,45 @@
         <v>5</v>
       </c>
       <c r="R27" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="S27" s="3">
-        <v>2</v>
-      </c>
       <c r="T27" s="3">
+        <v>2</v>
+      </c>
+      <c r="U27" s="3">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="U27" s="3">
-        <v>2</v>
-      </c>
       <c r="V27" s="3">
-        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="W27" s="3">
+        <f ca="1">Q27-T27</f>
         <v>3</v>
       </c>
-      <c r="W27" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X27" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>246</v>
       </c>
-      <c r="X27" s="8">
+      <c r="Y27" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.93536121673003803</v>
       </c>
-      <c r="Y27" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z27" s="3">
+        <f ca="1">Z26+Q27-T27</f>
         <v>230</v>
       </c>
-      <c r="Z27" s="8">
+      <c r="AA27" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.87452471482889738</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="29"/>
       <c r="G28" s="15"/>
@@ -6490,7 +6591,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43717</v>
       </c>
       <c r="L28" s="3">
@@ -6518,41 +6619,45 @@
         <v>5</v>
       </c>
       <c r="R28" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S28" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S28" s="3">
-        <v>2</v>
-      </c>
       <c r="T28" s="3">
+        <v>2</v>
+      </c>
+      <c r="U28" s="3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="U28" s="3">
-        <v>2</v>
-      </c>
       <c r="V28" s="3">
-        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="W28" s="3">
+        <f ca="1">Q28-T28</f>
         <v>3</v>
       </c>
-      <c r="W28" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X28" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>249</v>
       </c>
-      <c r="X28" s="8">
+      <c r="Y28" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.94676806083650189</v>
       </c>
-      <c r="Y28" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z28" s="3">
+        <f ca="1">Z27+Q28-T28</f>
         <v>233</v>
       </c>
-      <c r="Z28" s="8">
+      <c r="AA28" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.88593155893536124</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
         <v>21</v>
       </c>
@@ -6562,7 +6667,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43724</v>
       </c>
       <c r="L29" s="3">
@@ -6590,41 +6695,45 @@
         <v>5</v>
       </c>
       <c r="R29" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S29" s="3">
-        <v>1</v>
-      </c>
       <c r="T29" s="3">
+        <v>1</v>
+      </c>
+      <c r="U29" s="3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="U29" s="3">
-        <v>1</v>
-      </c>
       <c r="V29" s="3">
-        <f ca="1">Q29-S29</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="3">
+        <f ca="1">Q29-T29</f>
         <v>4</v>
       </c>
-      <c r="W29" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X29" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>253</v>
       </c>
-      <c r="X29" s="8">
+      <c r="Y29" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.96197718631178708</v>
       </c>
-      <c r="Y29" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z29" s="3">
+        <f ca="1">Z28+Q29-T29</f>
         <v>237</v>
       </c>
-      <c r="Z29" s="8">
+      <c r="AA29" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.90114068441064643</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
@@ -6637,7 +6746,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43731</v>
       </c>
       <c r="L30" s="3">
@@ -6665,41 +6774,45 @@
         <v>5</v>
       </c>
       <c r="R30" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S30" s="3">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="S30" s="3">
-        <v>5</v>
-      </c>
       <c r="T30" s="3">
+        <v>5</v>
+      </c>
+      <c r="U30" s="3">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="U30" s="3">
-        <v>5</v>
-      </c>
       <c r="V30" s="3">
-        <f t="shared" ref="V30:V37" ca="1" si="19">Q30-S30</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="16">
-        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="W30" s="3">
+        <f ca="1">Q30-T30</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>253</v>
       </c>
-      <c r="X30" s="8">
+      <c r="Y30" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.96197718631178708</v>
       </c>
-      <c r="Y30" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z30" s="3">
+        <f ca="1">Z29+Q30-T30</f>
         <v>237</v>
       </c>
-      <c r="Z30" s="8">
+      <c r="AA30" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.90114068441064643</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
@@ -6712,7 +6825,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43738</v>
       </c>
       <c r="L31" s="3">
@@ -6740,41 +6853,45 @@
         <v>5</v>
       </c>
       <c r="R31" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S31" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S31" s="3">
-        <v>2</v>
-      </c>
       <c r="T31" s="3">
+        <v>2</v>
+      </c>
+      <c r="U31" s="3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="U31" s="3">
-        <v>1</v>
-      </c>
       <c r="V31" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="W31" s="3">
+        <f ca="1">Q31-T31</f>
         <v>3</v>
       </c>
-      <c r="W31" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X31" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>256</v>
       </c>
-      <c r="X31" s="8">
+      <c r="Y31" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.97338403041825095</v>
       </c>
-      <c r="Y31" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z31" s="3">
+        <f ca="1">Z30+Q31-T31</f>
         <v>240</v>
       </c>
-      <c r="Z31" s="8">
+      <c r="AA31" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.9125475285171103</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>24</v>
       </c>
@@ -6787,7 +6904,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43745</v>
       </c>
       <c r="L32" s="3">
@@ -6815,41 +6932,45 @@
         <v>5</v>
       </c>
       <c r="R32" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="S32" s="3">
-        <v>2</v>
-      </c>
       <c r="T32" s="3">
+        <v>2</v>
+      </c>
+      <c r="U32" s="3">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="U32" s="3">
-        <v>1</v>
-      </c>
       <c r="V32" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="W32" s="3">
+        <f ca="1">Q32-T32</f>
         <v>3</v>
       </c>
-      <c r="W32" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X32" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>259</v>
       </c>
-      <c r="X32" s="8">
+      <c r="Y32" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.98479087452471481</v>
       </c>
-      <c r="Y32" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z32" s="3">
+        <f ca="1">Z31+Q32-T32</f>
         <v>243</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="AA32" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.92395437262357416</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
@@ -6862,7 +6983,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43752</v>
       </c>
       <c r="L33" s="3">
@@ -6890,41 +7011,45 @@
         <v>5</v>
       </c>
       <c r="R33" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3</v>
       </c>
-      <c r="V33" s="3">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="W33" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="W33" s="3">
+        <f ca="1">Q33-T33</f>
+        <v>2</v>
+      </c>
+      <c r="X33" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>261</v>
       </c>
-      <c r="X33" s="8">
+      <c r="Y33" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>0.99239543726235746</v>
       </c>
-      <c r="Y33" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z33" s="3">
+        <f ca="1">Z32+Q33-T33</f>
         <v>245</v>
       </c>
-      <c r="Z33" s="8">
+      <c r="AA33" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.9315589353612167</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
@@ -6937,7 +7062,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43759</v>
       </c>
       <c r="L34" s="3">
@@ -6965,41 +7090,45 @@
         <v>5</v>
       </c>
       <c r="R34" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S34" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S34" s="3">
-        <v>2</v>
-      </c>
       <c r="T34" s="3">
+        <v>2</v>
+      </c>
+      <c r="U34" s="3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="U34" s="3">
-        <v>1</v>
-      </c>
       <c r="V34" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="W34" s="3">
+        <f ca="1">Q34-T34</f>
         <v>3</v>
       </c>
-      <c r="W34" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X34" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>264</v>
       </c>
-      <c r="X34" s="8">
+      <c r="Y34" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1.0038022813688212</v>
       </c>
-      <c r="Y34" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z34" s="3">
+        <f ca="1">Z33+Q34-T34</f>
         <v>248</v>
       </c>
-      <c r="Z34" s="8">
+      <c r="AA34" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.94296577946768056</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
@@ -7012,7 +7141,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43766</v>
       </c>
       <c r="L35" s="3">
@@ -7040,41 +7169,45 @@
         <v>5</v>
       </c>
       <c r="R35" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U35" s="3">
-        <v>2</v>
-      </c>
       <c r="V35" s="3">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="W35" s="16">
-        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="W35" s="3">
+        <f ca="1">Q35-T35</f>
+        <v>2</v>
+      </c>
+      <c r="X35" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>266</v>
       </c>
-      <c r="X35" s="8">
+      <c r="Y35" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1.0114068441064639</v>
       </c>
-      <c r="Y35" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z35" s="3">
+        <f ca="1">Z34+Q35-T35</f>
         <v>250</v>
       </c>
-      <c r="Z35" s="8">
+      <c r="AA35" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.95057034220532322</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
@@ -7087,7 +7220,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43773</v>
       </c>
       <c r="L36" s="3">
@@ -7115,41 +7248,45 @@
         <v>5</v>
       </c>
       <c r="R36" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S36" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S36" s="3">
+      <c r="T36" s="3">
         <v>4</v>
       </c>
-      <c r="T36" s="3">
+      <c r="U36" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U36" s="3">
+      <c r="V36" s="3">
         <v>4</v>
       </c>
-      <c r="V36" s="3">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="W36" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="W36" s="3">
+        <f ca="1">Q36-T36</f>
+        <v>1</v>
+      </c>
+      <c r="X36" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>267</v>
       </c>
-      <c r="X36" s="8">
+      <c r="Y36" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1.0152091254752851</v>
       </c>
-      <c r="Y36" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z36" s="3">
+        <f ca="1">Z35+Q36-T36</f>
         <v>251</v>
       </c>
-      <c r="Z36" s="8">
+      <c r="AA36" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.95437262357414454</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -7162,7 +7299,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>43780</v>
       </c>
       <c r="L37" s="3">
@@ -7190,41 +7327,45 @@
         <v>5</v>
       </c>
       <c r="R37" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S37" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S37" s="3">
-        <v>2</v>
-      </c>
       <c r="T37" s="3">
-        <f>U40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U37" s="3">
-        <v>1</v>
+        <f>V40</f>
+        <v>0</v>
       </c>
       <c r="V37" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="W37" s="3">
+        <f ca="1">Q37-T37</f>
         <v>3</v>
       </c>
-      <c r="W37" s="16">
-        <f t="shared" ca="1" si="12"/>
+      <c r="X37" s="16">
+        <f t="shared" ca="1" si="11"/>
         <v>270</v>
       </c>
-      <c r="X37" s="8">
+      <c r="Y37" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1.0266159695817489</v>
       </c>
-      <c r="Y37" s="3">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Z37" s="3">
+        <f ca="1">Z36+Q37-T37</f>
         <v>254</v>
       </c>
-      <c r="Z37" s="8">
+      <c r="AA37" s="8">
         <f t="shared" ca="1" si="2"/>
         <v>0.96577946768060841</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
@@ -7232,9 +7373,10 @@
         <f ca="1">SUM(N4:INDIRECT("N"&amp;E9))</f>
         <v>378</v>
       </c>
-      <c r="X38" s="8"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="R38" s="3"/>
+      <c r="Y38" s="8"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
@@ -7252,9 +7394,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>32</v>
       </c>
@@ -7263,7 +7405,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
@@ -7272,7 +7414,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>34</v>
       </c>
@@ -7281,7 +7423,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>35</v>
       </c>
@@ -7290,7 +7432,7 @@
         <v>31.746031746031747</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>36</v>
       </c>
@@ -7299,7 +7441,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>37</v>
       </c>
@@ -7308,7 +7450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
@@ -7317,7 +7459,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
@@ -7326,7 +7468,7 @@
         <v>38.095238095238095</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>40</v>
       </c>
@@ -7335,7 +7477,7 @@
         <v>1.2499999999999997E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
@@ -7344,17 +7486,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="58"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>42</v>
       </c>
@@ -7362,7 +7504,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>43</v>
       </c>
@@ -7370,7 +7512,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>44</v>
       </c>
@@ -7378,7 +7520,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>45</v>
       </c>
@@ -7386,7 +7528,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>46</v>
       </c>
@@ -7394,8 +7536,12 @@
         <f>SUM(B52:B55)</f>
         <v>4000</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D56" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="26"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>47</v>
       </c>
@@ -7404,7 +7550,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>48</v>
       </c>
@@ -7413,17 +7559,17 @@
         <v>1260000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="36"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="59" t="s">
         <v>79</v>
       </c>
       <c r="B60" s="60"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>49</v>
       </c>
@@ -7431,7 +7577,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>50</v>
       </c>
@@ -7439,7 +7585,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>51</v>
       </c>
@@ -7447,7 +7593,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>52</v>
       </c>
@@ -7455,7 +7601,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
@@ -7463,36 +7609,40 @@
         <f>SUM(B61:B64)</f>
         <v>4000</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D65" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" s="26"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B66" s="29">
         <f ca="1">ROUND(B67/B65,0)</f>
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B67" s="36">
         <f ca="1">B15*(B8*12)</f>
-        <v>1092000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1536000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="36"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="43" t="s">
         <v>80</v>
       </c>
       <c r="B69" s="44"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>56</v>
       </c>
@@ -7501,22 +7651,22 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B71" s="29">
         <f ca="1">ROUND(B72/B70,0)</f>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B72" s="38">
         <f ca="1">B67+B58</f>
-        <v>2352000</v>
+        <v>2796000</v>
       </c>
     </row>
   </sheetData>
@@ -7524,7 +7674,7 @@
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="K1:Z1"/>
+    <mergeCell ref="K1:AA1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A22:B22"/>

--- a/xls/templates/run-rate-template.xlsx
+++ b/xls/templates/run-rate-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddcullen/Projects/remarkably/xls/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403B1AEF-9E3E-154A-BBEE-B2394D9B07D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4601A3DA-3613-B34C-93B1-8BD13C10013D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="3" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
+    <workbookView xWindow="28000" yWindow="460" windowWidth="33600" windowHeight="20460" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
   </bookViews>
   <sheets>
     <sheet name="BASELINE" sheetId="5" r:id="rId1"/>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804DEBCA-4192-7E48-925A-4B1A482CF3C5}">
   <dimension ref="A1:Z211"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31187,7 +31187,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31280,11 +31280,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <f ca="1">SUM(BASELINE!U$3:INDIRECT("BASELINE!T"&amp;META!$B$1))</f>
+        <f ca="1">SUM(BASELINE!U$3:INDIRECT("BASELINE!U"&amp;META!$B$1))</f>
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <f ca="1">SUM(BASELINE!V$3:INDIRECT("BASELINE!T"&amp;META!$B$1))</f>
+        <f ca="1">SUM(BASELINE!V$3:INDIRECT("BASELINE!V"&amp;META!$B$1))</f>
         <v>0</v>
       </c>
       <c r="H3" s="5">
@@ -31419,8 +31419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726B1E90-CF35-6B44-A028-BC0D727236A8}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31481,7 +31481,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="65" t="e">
-        <f ca="1">ROW(INDEX(MODEL!O4:O43,MATCH(TRUE,INDEX(MODEL!O4:O43&gt;B5,0),)))</f>
+        <f ca="1">ROW(INDEX(MODEL!O4:O43,MATCH(TRUE,INDEX(MODEL!O4:O43&gt;=B5,0),)))</f>
         <v>#N/A</v>
       </c>
       <c r="C7" t="s">
@@ -31573,7 +31573,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="63">
-        <f t="shared" si="0"/>
+        <f>B16</f>
         <v>0</v>
       </c>
     </row>
@@ -31654,8 +31654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4156A3-96B9-DE41-91DB-F4C9577E214C}">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39:T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31818,35 +31818,35 @@
         <v>0</v>
       </c>
       <c r="S3" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T3" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U3" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V3" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W3" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X3" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y3" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z3" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -31921,35 +31921,35 @@
         <v>0</v>
       </c>
       <c r="S4" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T4" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U4" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V4" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W4" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X4" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y4" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z4" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -32024,35 +32024,35 @@
         <v>0</v>
       </c>
       <c r="S5" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T5" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U5" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V5" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W5" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X5" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y5" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z5" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -32127,35 +32127,35 @@
         <v>0</v>
       </c>
       <c r="S6" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T6" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U6" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V6" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W6" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X6" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y6" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z6" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -32231,35 +32231,35 @@
         <v>0</v>
       </c>
       <c r="S7" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T7" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U7" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V7" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W7" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X7" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y7" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z7" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -32335,35 +32335,35 @@
         <v>0</v>
       </c>
       <c r="S8" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T8" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U8" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V8" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W8" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X8" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y8" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z8" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -32439,35 +32439,35 @@
         <v>0</v>
       </c>
       <c r="S9" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T9" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U9" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V9" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W9" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X9" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y9" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z9" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -32543,35 +32543,35 @@
         <v>0</v>
       </c>
       <c r="S10" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T10" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U10" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V10" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W10" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X10" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y10" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z10" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -32647,35 +32647,35 @@
         <v>0</v>
       </c>
       <c r="S11" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T11" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U11" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V11" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W11" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X11" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y11" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z11" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -32751,35 +32751,35 @@
         <v>0</v>
       </c>
       <c r="S12" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T12" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U12" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V12" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W12" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X12" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y12" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z12" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -32855,35 +32855,35 @@
         <v>0</v>
       </c>
       <c r="S13" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T13" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U13" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V13" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W13" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X13" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y13" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z13" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -32959,35 +32959,35 @@
         <v>0</v>
       </c>
       <c r="S14" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T14" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U14" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V14" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W14" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X14" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y14" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z14" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -33063,35 +33063,35 @@
         <v>0</v>
       </c>
       <c r="S15" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T15" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U15" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V15" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W15" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X15" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y15" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z15" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -33167,35 +33167,35 @@
         <v>0</v>
       </c>
       <c r="S16" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T16" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U16" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V16" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W16" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X16" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y16" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z16" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -33271,35 +33271,35 @@
         <v>0</v>
       </c>
       <c r="S17" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T17" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U17" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V17" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W17" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X17" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y17" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z17" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -33375,35 +33375,35 @@
         <v>0</v>
       </c>
       <c r="S18" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T18" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U18" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V18" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W18" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X18" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y18" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z18" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -33479,35 +33479,35 @@
         <v>0</v>
       </c>
       <c r="S19" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T19" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U19" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V19" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W19" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X19" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y19" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z19" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -33583,35 +33583,35 @@
         <v>0</v>
       </c>
       <c r="S20" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T20" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U20" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V20" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W20" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X20" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y20" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z20" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -33687,35 +33687,35 @@
         <v>0</v>
       </c>
       <c r="S21" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T21" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U21" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V21" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W21" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X21" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y21" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z21" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -33791,35 +33791,35 @@
         <v>0</v>
       </c>
       <c r="S22" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T22" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U22" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V22" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W22" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X22" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y22" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z22" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -33895,35 +33895,35 @@
         <v>0</v>
       </c>
       <c r="S23" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T23" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U23" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V23" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W23" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X23" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y23" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z23" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -33999,35 +33999,35 @@
         <v>0</v>
       </c>
       <c r="S24" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T24" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U24" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V24" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W24" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X24" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y24" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z24" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -34103,35 +34103,35 @@
         <v>0</v>
       </c>
       <c r="S25" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T25" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U25" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V25" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W25" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X25" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y25" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z25" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -34207,35 +34207,35 @@
         <v>0</v>
       </c>
       <c r="S26" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T26" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U26" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V26" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W26" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X26" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y26" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z26" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -34311,35 +34311,35 @@
         <v>0</v>
       </c>
       <c r="S27" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T27" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U27" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V27" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W27" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X27" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y27" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z27" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -34415,35 +34415,35 @@
         <v>0</v>
       </c>
       <c r="S28" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T28" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U28" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V28" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W28" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X28" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y28" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z28" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -34519,35 +34519,35 @@
         <v>0</v>
       </c>
       <c r="S29" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T29" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U29" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V29" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W29" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X29" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y29" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z29" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -34623,35 +34623,35 @@
         <v>0</v>
       </c>
       <c r="S30" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T30" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U30" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V30" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W30" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X30" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y30" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z30" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -34727,35 +34727,35 @@
         <v>0</v>
       </c>
       <c r="S31" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T31" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U31" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V31" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W31" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X31" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y31" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z31" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -34831,35 +34831,35 @@
         <v>0</v>
       </c>
       <c r="S32" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T32" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U32" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V32" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W32" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X32" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y32" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z32" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -34935,35 +34935,35 @@
         <v>0</v>
       </c>
       <c r="S33" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T33" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U33" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V33" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W33" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X33" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y33" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z33" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -35039,35 +35039,35 @@
         <v>0</v>
       </c>
       <c r="S34" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T34" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U34" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V34" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W34" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X34" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y34" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z34" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -35143,35 +35143,35 @@
         <v>0</v>
       </c>
       <c r="S35" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T35" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U35" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V35" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W35" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X35" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y35" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z35" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -35247,35 +35247,35 @@
         <v>0</v>
       </c>
       <c r="S36" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T36" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U36" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V36" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W36" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X36" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y36" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z36" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -35351,35 +35351,35 @@
         <v>0</v>
       </c>
       <c r="S37" s="64">
-        <f ca="1">INVESTMENT!D$3</f>
+        <f ca="1">INVESTMENT!D$5</f>
         <v>0</v>
       </c>
       <c r="T37" s="64">
-        <f ca="1">INVESTMENT!E$3</f>
+        <f ca="1">INVESTMENT!E$5</f>
         <v>0</v>
       </c>
       <c r="U37" s="64">
-        <f ca="1">INVESTMENT!F$3</f>
+        <f ca="1">INVESTMENT!F$5</f>
         <v>0</v>
       </c>
       <c r="V37" s="64">
-        <f ca="1">INVESTMENT!G$3</f>
+        <f ca="1">INVESTMENT!G$5</f>
         <v>0</v>
       </c>
       <c r="W37" s="64">
-        <f ca="1">INVESTMENT!I$3</f>
+        <f ca="1">INVESTMENT!I$5</f>
         <v>0</v>
       </c>
       <c r="X37" s="64">
-        <f ca="1">INVESTMENT!J$3</f>
+        <f ca="1">INVESTMENT!J$5</f>
         <v>0</v>
       </c>
       <c r="Y37" s="64">
-        <f ca="1">INVESTMENT!K$3</f>
+        <f ca="1">INVESTMENT!K$5</f>
         <v>0</v>
       </c>
       <c r="Z37" s="64">
-        <f ca="1">INVESTMENT!L$3</f>
+        <f ca="1">INVESTMENT!L$5</f>
         <v>0</v>
       </c>
     </row>
@@ -35410,7 +35410,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35488,7 +35488,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="18" t="e">
-        <f ca="1">INDIRECT("MODEL!A"&amp;INPUTS!B7)</f>
+        <f ca="1">INDIRECT("MODEL!A"&amp;INPUTS!B7)+6</f>
         <v>#N/A</v>
       </c>
       <c r="D6" t="s">
@@ -35588,7 +35588,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="19" t="e">
-        <f ca="1">B15/B17</f>
+        <f ca="1">B14/B17</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35596,8 +35596,8 @@
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="17" t="e">
-        <f ca="1">B18+B15</f>
+      <c r="B17" s="23" t="e">
+        <f ca="1">B18+B14</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/xls/templates/run-rate-template.xlsx
+++ b/xls/templates/run-rate-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddcullen/Projects/remarkably/xls/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4601A3DA-3613-B34C-93B1-8BD13C10013D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A2A6DF-3122-624C-AC73-FCE5C6950AEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28000" yWindow="460" windowWidth="33600" windowHeight="20460" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
+    <workbookView xWindow="28000" yWindow="460" windowWidth="33600" windowHeight="20460" activeTab="5" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
   </bookViews>
   <sheets>
     <sheet name="BASELINE" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="191">
   <si>
     <t>Start Date</t>
   </si>
@@ -606,6 +606,12 @@
   <si>
     <t>Z</t>
   </si>
+  <si>
+    <t>Total Units</t>
+  </si>
+  <si>
+    <t>Lowest Rent</t>
+  </si>
 </sst>
 </file>
 
@@ -908,7 +914,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,6 +1085,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1413,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804DEBCA-4192-7E48-925A-4B1A482CF3C5}">
   <dimension ref="A1:Z211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
@@ -31417,10 +31426,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726B1E90-CF35-6B44-A028-BC0D727236A8}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31496,67 +31505,62 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="16">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-    </row>
-    <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="7">
-        <f>FUNNEL!H3</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="63">
-        <f>B12</f>
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="7">
-        <f>FUNNEL!I3</f>
+        <f>FUNNEL!H3</f>
         <v>0</v>
       </c>
       <c r="C13" s="63">
-        <f t="shared" ref="C13:C16" si="0">B13</f>
+        <f>B13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="7">
-        <f>FUNNEL!J3</f>
+        <f>FUNNEL!I3</f>
         <v>0</v>
       </c>
       <c r="C14" s="63">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C14:C16" si="0">B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="7">
-        <f>FUNNEL!K3</f>
+        <f>FUNNEL!J3</f>
         <v>0</v>
       </c>
       <c r="C15" s="63">
@@ -31566,55 +31570,55 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="7">
+        <f>FUNNEL!K3</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17" s="7">
         <f>FUNNEL!N3</f>
         <v>0</v>
       </c>
-      <c r="C16" s="63">
-        <f>B16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
+      <c r="C17" s="63">
+        <f>B17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-    </row>
-    <row r="19" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+    </row>
+    <row r="20" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20">
-        <f ca="1">FUNNEL!C4</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="14">
-        <f ca="1">B20</f>
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="B21">
-        <f ca="1">AVERAGE(INDIRECT("BASELINE!O3:O"&amp;META!B1))</f>
+        <f ca="1">FUNNEL!C4</f>
         <v>0</v>
       </c>
       <c r="C21" s="14">
@@ -31622,29 +31626,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-    </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22">
+        <f ca="1">AVERAGE(INDIRECT("BASELINE!O3:O"&amp;META!B1))</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <f ca="1">B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="56"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" s="56"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B25" s="15">
         <f ca="1">COUNT(INDIRECT("MODEL!A4:A"&amp;B7))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31856,27 +31873,27 @@
         <v>43549</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">ROUND(B4*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B4*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">ROUND(C4*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C4*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">ROUND(D4*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D4*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">ROUND(E4*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E4*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">ROUND(E4*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E4*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="2">
@@ -31959,27 +31976,27 @@
         <v>43556</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">ROUND(B5*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B5*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">ROUND(C5*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C5*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">ROUND(D5*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D5*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">ROUND(E5*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E5*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">ROUND(E5*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E5*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H5" s="2">
@@ -32062,27 +32079,27 @@
         <v>43563</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">ROUND(B6*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B6*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">ROUND(C6*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C6*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">ROUND(D6*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D6*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">ROUND(E6*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E6*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">ROUND(E6*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E6*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="2">
@@ -32165,27 +32182,27 @@
         <v>43570</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">ROUND(B7*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B7*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">ROUND(C7*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C7*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">ROUND(D7*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D7*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">ROUND(E7*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E7*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">ROUND(E7*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E7*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H7" s="2">
@@ -32269,27 +32286,27 @@
         <v>43577</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">ROUND(B8*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B8*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">ROUND(C8*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C8*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">ROUND(D8*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D8*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">ROUND(E8*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E8*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">ROUND(E8*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E8*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H8" s="2">
@@ -32373,27 +32390,27 @@
         <v>43584</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">ROUND(B9*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B9*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">ROUND(C9*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C9*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">ROUND(D9*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D9*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">ROUND(E9*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E9*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">ROUND(E9*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E9*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H9" s="2">
@@ -32477,27 +32494,27 @@
         <v>43591</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">ROUND(B10*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B10*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">ROUND(C10*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C10*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">ROUND(D10*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D10*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">ROUND(E10*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E10*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">ROUND(E10*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E10*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H10" s="2">
@@ -32581,27 +32598,27 @@
         <v>43598</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">ROUND(B11*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B11*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">ROUND(C11*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C11*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">ROUND(D11*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D11*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">ROUND(E11*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E11*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">ROUND(E11*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E11*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H11" s="2">
@@ -32685,27 +32702,27 @@
         <v>43605</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">ROUND(B12*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B12*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">ROUND(C12*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C12*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">ROUND(D12*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D12*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">ROUND(E12*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E12*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">ROUND(E12*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E12*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H12" s="2">
@@ -32789,27 +32806,27 @@
         <v>43612</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">ROUND(B13*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B13*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">ROUND(C13*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C13*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">ROUND(D13*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D13*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">ROUND(E13*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E13*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">ROUND(E13*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E13*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="2">
@@ -32893,27 +32910,27 @@
         <v>43619</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">ROUND(B14*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B14*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">ROUND(C14*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C14*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">ROUND(D14*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D14*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">ROUND(E14*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E14*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">ROUND(E14*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E14*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H14" s="2">
@@ -32997,27 +33014,27 @@
         <v>43626</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">ROUND(B15*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B15*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">ROUND(C15*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C15*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">ROUND(D15*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D15*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">ROUND(E15*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E15*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">ROUND(E15*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E15*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="2">
@@ -33101,27 +33118,27 @@
         <v>43633</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">ROUND(B16*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B16*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">ROUND(C16*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C16*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">ROUND(D16*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D16*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">ROUND(E16*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E16*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">ROUND(E16*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E16*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H16" s="2">
@@ -33205,27 +33222,27 @@
         <v>43640</v>
       </c>
       <c r="B17" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <f ca="1">ROUND(B17*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B17*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <f ca="1">ROUND(C17*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C17*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <f ca="1">ROUND(D17*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D17*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <f ca="1">ROUND(E17*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E17*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <f ca="1">ROUND(E17*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E17*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H17" s="2">
@@ -33309,27 +33326,27 @@
         <v>43647</v>
       </c>
       <c r="B18" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <f ca="1">ROUND(B18*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B18*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <f ca="1">ROUND(C18*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C18*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <f ca="1">ROUND(D18*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D18*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <f ca="1">ROUND(E18*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E18*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <f ca="1">ROUND(E18*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E18*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="2">
@@ -33413,27 +33430,27 @@
         <v>43654</v>
       </c>
       <c r="B19" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <f ca="1">ROUND(B19*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B19*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <f ca="1">ROUND(C19*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C19*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f ca="1">ROUND(D19*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D19*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <f ca="1">ROUND(E19*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E19*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f ca="1">ROUND(E19*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E19*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H19" s="2">
@@ -33517,27 +33534,27 @@
         <v>43661</v>
       </c>
       <c r="B20" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <f ca="1">ROUND(B20*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B20*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <f ca="1">ROUND(C20*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C20*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <f ca="1">ROUND(D20*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D20*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f ca="1">ROUND(E20*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E20*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f ca="1">ROUND(E20*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E20*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="2">
@@ -33621,27 +33638,27 @@
         <v>43668</v>
       </c>
       <c r="B21" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <f ca="1">ROUND(B21*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B21*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <f ca="1">ROUND(C21*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C21*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <f ca="1">ROUND(D21*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D21*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <f ca="1">ROUND(E21*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E21*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <f ca="1">ROUND(E21*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E21*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="2">
@@ -33725,27 +33742,27 @@
         <v>43675</v>
       </c>
       <c r="B22" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <f ca="1">ROUND(B22*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B22*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D22" s="2">
-        <f ca="1">ROUND(C22*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C22*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <f ca="1">ROUND(D22*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D22*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <f ca="1">ROUND(E22*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E22*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <f ca="1">ROUND(E22*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E22*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="2">
@@ -33829,27 +33846,27 @@
         <v>43682</v>
       </c>
       <c r="B23" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <f ca="1">ROUND(B23*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B23*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <f ca="1">ROUND(C23*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C23*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <f ca="1">ROUND(D23*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D23*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <f ca="1">ROUND(E23*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E23*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <f ca="1">ROUND(E23*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E23*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H23" s="2">
@@ -33933,27 +33950,27 @@
         <v>43689</v>
       </c>
       <c r="B24" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <f ca="1">ROUND(B24*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B24*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D24" s="2">
-        <f ca="1">ROUND(C24*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C24*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <f ca="1">ROUND(D24*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D24*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <f ca="1">ROUND(E24*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E24*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <f ca="1">ROUND(E24*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E24*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H24" s="2">
@@ -34037,27 +34054,27 @@
         <v>43696</v>
       </c>
       <c r="B25" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <f ca="1">ROUND(B25*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B25*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <f ca="1">ROUND(C25*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C25*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <f ca="1">ROUND(D25*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D25*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <f ca="1">ROUND(E25*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E25*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <f ca="1">ROUND(E25*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E25*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="2">
@@ -34141,27 +34158,27 @@
         <v>43703</v>
       </c>
       <c r="B26" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <f ca="1">ROUND(B26*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B26*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <f ca="1">ROUND(C26*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C26*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <f ca="1">ROUND(D26*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D26*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <f ca="1">ROUND(E26*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E26*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <f ca="1">ROUND(E26*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E26*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H26" s="2">
@@ -34245,27 +34262,27 @@
         <v>43710</v>
       </c>
       <c r="B27" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C27" s="2">
-        <f ca="1">ROUND(B27*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B27*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <f ca="1">ROUND(C27*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C27*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <f ca="1">ROUND(D27*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D27*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <f ca="1">ROUND(E27*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E27*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <f ca="1">ROUND(E27*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E27*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H27" s="2">
@@ -34349,27 +34366,27 @@
         <v>43717</v>
       </c>
       <c r="B28" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <f ca="1">ROUND(B28*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B28*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <f ca="1">ROUND(C28*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C28*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <f ca="1">ROUND(D28*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D28*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <f ca="1">ROUND(E28*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E28*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <f ca="1">ROUND(E28*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E28*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H28" s="2">
@@ -34453,27 +34470,27 @@
         <v>43724</v>
       </c>
       <c r="B29" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C29" s="2">
-        <f ca="1">ROUND(B29*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B29*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D29" s="2">
-        <f ca="1">ROUND(C29*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C29*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <f ca="1">ROUND(D29*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D29*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <f ca="1">ROUND(E29*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E29*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <f ca="1">ROUND(E29*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E29*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H29" s="2">
@@ -34557,27 +34574,27 @@
         <v>43731</v>
       </c>
       <c r="B30" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C30" s="2">
-        <f ca="1">ROUND(B30*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B30*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D30" s="2">
-        <f ca="1">ROUND(C30*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C30*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <f ca="1">ROUND(D30*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D30*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <f ca="1">ROUND(E30*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E30*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <f ca="1">ROUND(E30*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E30*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H30" s="2">
@@ -34661,27 +34678,27 @@
         <v>43738</v>
       </c>
       <c r="B31" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C31" s="2">
-        <f ca="1">ROUND(B31*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B31*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D31" s="2">
-        <f ca="1">ROUND(C31*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C31*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <f ca="1">ROUND(D31*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D31*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <f ca="1">ROUND(E31*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E31*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <f ca="1">ROUND(E31*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E31*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H31" s="2">
@@ -34765,27 +34782,27 @@
         <v>43745</v>
       </c>
       <c r="B32" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <f ca="1">ROUND(B32*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B32*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D32" s="2">
-        <f ca="1">ROUND(C32*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C32*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E32" s="2">
-        <f ca="1">ROUND(D32*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D32*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <f ca="1">ROUND(E32*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E32*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <f ca="1">ROUND(E32*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E32*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H32" s="2">
@@ -34869,27 +34886,27 @@
         <v>43752</v>
       </c>
       <c r="B33" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C33" s="2">
-        <f ca="1">ROUND(B33*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B33*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D33" s="2">
-        <f ca="1">ROUND(C33*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C33*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <f ca="1">ROUND(D33*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D33*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <f ca="1">ROUND(E33*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E33*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <f ca="1">ROUND(E33*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E33*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H33" s="2">
@@ -34973,27 +34990,27 @@
         <v>43759</v>
       </c>
       <c r="B34" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C34" s="2">
-        <f ca="1">ROUND(B34*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B34*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D34" s="2">
-        <f ca="1">ROUND(C34*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C34*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E34" s="2">
-        <f ca="1">ROUND(D34*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D34*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <f ca="1">ROUND(E34*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E34*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
-        <f ca="1">ROUND(E34*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E34*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="2">
@@ -35077,27 +35094,27 @@
         <v>43766</v>
       </c>
       <c r="B35" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <f ca="1">ROUND(B35*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B35*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D35" s="2">
-        <f ca="1">ROUND(C35*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C35*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E35" s="2">
-        <f ca="1">ROUND(D35*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D35*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <f ca="1">ROUND(E35*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E35*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <f ca="1">ROUND(E35*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E35*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H35" s="2">
@@ -35181,27 +35198,27 @@
         <v>43773</v>
       </c>
       <c r="B36" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C36" s="2">
-        <f ca="1">ROUND(B36*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B36*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D36" s="2">
-        <f ca="1">ROUND(C36*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C36*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E36" s="2">
-        <f ca="1">ROUND(D36*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D36*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <f ca="1">ROUND(E36*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E36*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <f ca="1">ROUND(E36*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E36*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H36" s="2">
@@ -35285,27 +35302,27 @@
         <v>43780</v>
       </c>
       <c r="B37" s="2">
-        <f ca="1">INPUTS!$C$20</f>
+        <f ca="1">INPUTS!$C$21</f>
         <v>0</v>
       </c>
       <c r="C37" s="2">
-        <f ca="1">ROUND(B37*INPUTS!$C$12,0)</f>
+        <f ca="1">ROUND(B37*INPUTS!$C$13,0)</f>
         <v>0</v>
       </c>
       <c r="D37" s="2">
-        <f ca="1">ROUND(C37*INPUTS!$C$13,0)</f>
+        <f ca="1">ROUND(C37*INPUTS!$C$14,0)</f>
         <v>0</v>
       </c>
       <c r="E37" s="2">
-        <f ca="1">ROUND(D37*INPUTS!$C$14,0)</f>
+        <f ca="1">ROUND(D37*INPUTS!$C$15,0)</f>
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <f ca="1">ROUND(E37*(1-INPUTS!$C$15),0)</f>
+        <f ca="1">ROUND(E37*(1-INPUTS!$C$16),0)</f>
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <f ca="1">ROUND(E37*INPUTS!$C$15,0)</f>
+        <f ca="1">ROUND(E37*INPUTS!$C$16,0)</f>
         <v>0</v>
       </c>
       <c r="H37" s="2">
@@ -35407,10 +35424,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCFA04E-CEAE-1D4C-9348-08755944D418}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35503,7 +35520,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="27" t="e">
-        <f ca="1">B47/B8</f>
+        <f ca="1">B49/B8</f>
         <v>#N/A</v>
       </c>
       <c r="D7" t="s">
@@ -35529,567 +35546,585 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="20">
+        <f>INPUTS!B9</f>
+        <v>900</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="89">
+        <f ca="1">INPUTS!B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="82"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B12" s="82"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="23" t="e">
+      <c r="B13" s="23" t="e">
         <f ca="1">INDIRECT("MODEL!N"&amp;E2)-MODEL!N3</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="23" t="e">
+      <c r="B14" s="23" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!F4:F"&amp;E2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="19" t="e">
-        <f ca="1">B12/B42</f>
+      <c r="B15" s="19" t="e">
+        <f ca="1">B14/B44</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="23" t="e">
+      <c r="B16" s="23" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!K4:K"&amp;E2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="23" t="e">
+      <c r="B17" s="23" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!L4:L"&amp;E2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="19" t="e">
-        <f ca="1">B14/B17</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="23" t="e">
-        <f ca="1">B18+B14</f>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="19" t="e">
+        <f ca="1">B16/B19</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="23" t="e">
+        <f ca="1">B20+B16</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="23" t="e">
+      <c r="B20" s="23" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!I4:I"&amp;E2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="22" t="e">
+      <c r="B21" s="22" t="e">
         <f ca="1">INDIRECT("MODEL!O"&amp;E2)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="23" t="e">
+      <c r="B22" s="23" t="e">
         <f ca="1">INDIRECT("MODEL!N"&amp;E2)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="17"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="83" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="84"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B24" s="84"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="23" t="e">
+      <c r="B25" s="23" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!H4:H"&amp;E2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="23" t="e">
+      <c r="B26" s="23" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!J4:J"&amp;E2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="22" t="e">
+      <c r="B27" s="22" t="e">
         <f ca="1">INDIRECT("MODEL!Q"&amp;E2)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="23" t="e">
+      <c r="B28" s="23" t="e">
         <f ca="1">INDIRECT("MODEL!P"&amp;E2)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="17" t="e">
+      <c r="B29" s="17" t="e">
         <f ca="1">INDIRECT("MODEL!R"&amp;E2)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="17"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="85" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="86"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="B31" s="86"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="23" t="e">
+      <c r="B32" s="23" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!B4:B"&amp;E2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="24" t="e">
-        <f ca="1">B56/B30</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="19" t="e">
-        <f ca="1">B34/B30</f>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="17" t="e">
-        <f ca="1">(B30/$E$3)*4</f>
+        <v>23</v>
+      </c>
+      <c r="B33" s="24" t="e">
+        <f ca="1">B58/B32</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="19" t="e">
+        <f ca="1">B36/B32</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="17" t="e">
+        <f ca="1">(B32/$E$3)*4</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="23" t="e">
+      <c r="B36" s="23" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!C4:C"&amp;E2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="24" t="e">
-        <f ca="1">B56/B34</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="19" t="e">
-        <f ca="1">B38/B34</f>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="17" t="e">
-        <f ca="1">(B34/$E$3)*4</f>
+        <v>27</v>
+      </c>
+      <c r="B37" s="24" t="e">
+        <f ca="1">B58/B36</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="19" t="e">
+        <f ca="1">B40/B36</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="17" t="e">
+        <f ca="1">(B36/$E$3)*4</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="23" t="e">
+      <c r="B40" s="23" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!D4:D"&amp;E2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="24" t="e">
-        <f ca="1">B56/B38</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="19" t="e">
-        <f ca="1">B42/B38</f>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="17" t="e">
-        <f ca="1">(B38/E3)*4</f>
+        <v>31</v>
+      </c>
+      <c r="B41" s="24" t="e">
+        <f ca="1">B58/B40</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="19" t="e">
+        <f ca="1">B44/B40</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="17" t="e">
+        <f ca="1">(B40/E3)*4</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="23" t="e">
+      <c r="B44" s="23" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!E4:E"&amp;E2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="24" t="e">
-        <f ca="1">B56/B42</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="19" t="e">
-        <f ca="1">B46/B42</f>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="17" t="e">
-        <f ca="1">(B42/E3)*4</f>
+        <v>35</v>
+      </c>
+      <c r="B45" s="24" t="e">
+        <f ca="1">B58/B44</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="19" t="e">
+        <f ca="1">B48/B44</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="17" t="e">
+        <f ca="1">(B44/E3)*4</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="23" t="e">
+      <c r="B48" s="23" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!G4:G"&amp;E2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="24" t="e">
-        <f ca="1">B56/B46</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="25" t="e">
-        <f ca="1">1*B32*B36*B40*B44</f>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="24" t="e">
+        <f ca="1">B58/B48</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="25" t="e">
+        <f ca="1">1*B34*B38*B42*B46</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="17" t="e">
-        <f ca="1">(B46/E3)*4</f>
+      <c r="B51" s="17" t="e">
+        <f ca="1">(B48/E3)*4</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="17"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="87" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="17"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="88"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="24" t="e">
-        <f ca="1">SUM(INDIRECT("MODEL!"&amp;C52&amp;"4:"&amp;C52&amp;$E$2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C52" s="67" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="24" t="e">
-        <f t="shared" ref="B53:B55" ca="1" si="0">SUM(INDIRECT("MODEL!"&amp;C53&amp;"4:"&amp;C53&amp;$E$2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C53" s="67" t="s">
-        <v>182</v>
-      </c>
+      <c r="B53" s="88"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="24" t="e">
+        <f ca="1">SUM(INDIRECT("MODEL!"&amp;C54&amp;"4:"&amp;C54&amp;$E$2))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="24" t="e">
+        <f t="shared" ref="B55:B57" ca="1" si="0">SUM(INDIRECT("MODEL!"&amp;C55&amp;"4:"&amp;C55&amp;$E$2))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="24" t="e">
+      <c r="B56" s="24" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C56" s="67" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="24" t="e">
+      <c r="B57" s="24" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C57" s="67" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="24" t="e">
-        <f ca="1">SUM(B52:B55)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="17" t="e">
-        <f ca="1">ROUND(B58/B56,0)</f>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="24" t="e">
+        <f ca="1">SUM(B54:B57)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="17" t="e">
+        <f ca="1">ROUND(B60/B58,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="24" t="e">
-        <f ca="1">B23*(B8*12)</f>
+      <c r="B60" s="24" t="e">
+        <f ca="1">B25*(B8*12)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="24"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="73" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="24"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="74"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="24" t="e">
-        <f ca="1">SUM(INDIRECT("MODEL!"&amp;C61&amp;"4:"&amp;C61&amp;$E$2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C61" s="67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="24" t="e">
-        <f t="shared" ref="B62:B64" ca="1" si="1">SUM(INDIRECT("MODEL!"&amp;C62&amp;"4:"&amp;C62&amp;$E$2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C62" s="67" t="s">
-        <v>187</v>
-      </c>
+      <c r="B62" s="74"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="24" t="e">
+        <f ca="1">SUM(INDIRECT("MODEL!"&amp;C63&amp;"4:"&amp;C63&amp;$E$2))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C63" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="24" t="e">
+        <f t="shared" ref="B64:B66" ca="1" si="1">SUM(INDIRECT("MODEL!"&amp;C64&amp;"4:"&amp;C64&amp;$E$2))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C64" s="67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="24" t="e">
+      <c r="B65" s="24" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C65" s="67" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="24" t="e">
+      <c r="B66" s="24" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C66" s="67" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="24" t="e">
-        <f ca="1">SUM(B61:B64)</f>
+      <c r="B67" s="24" t="e">
+        <f ca="1">SUM(B63:B66)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="17" t="e">
-        <f ca="1">ROUND(B67/B65,0)</f>
+      <c r="B68" s="17" t="e">
+        <f ca="1">ROUND(B69/B67,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="24" t="e">
-        <f ca="1">B15*(B8*12)</f>
+      <c r="B69" s="24" t="e">
+        <f ca="1">B17*(B8*12)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="24"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="75" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+      <c r="B70" s="24"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="76"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+      <c r="B71" s="76"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="24" t="e">
-        <f ca="1">B65+B56</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="17" t="e">
-        <f ca="1">ROUND(B72/B70,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="26" t="e">
+      <c r="B72" s="24" t="e">
         <f ca="1">B67+B58</f>
         <v>#N/A</v>
       </c>
     </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="17" t="e">
+        <f ca="1">ROUND(B74/B72,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="26" t="e">
+        <f ca="1">B69+B60</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A71:B71"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A53:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xls/templates/run-rate-template.xlsx
+++ b/xls/templates/run-rate-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddcullen/Projects/remarkably/xls/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/dev/psl/remarkably/xls/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A2A6DF-3122-624C-AC73-FCE5C6950AEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028C6740-84DA-154D-9C8C-C0DA6D3A1F3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28000" yWindow="460" windowWidth="33600" windowHeight="20460" activeTab="5" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
+    <workbookView xWindow="68880" yWindow="15260" windowWidth="28640" windowHeight="17380" activeTab="5" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
   </bookViews>
   <sheets>
     <sheet name="BASELINE" sheetId="5" r:id="rId1"/>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>EXE 4 Week</t>
-  </si>
-  <si>
-    <t>Acquistion Demand Creation</t>
   </si>
   <si>
     <t>Acquisition Leasing Enablement</t>
@@ -365,9 +362,6 @@
   </si>
   <si>
     <t>spreadsheet_version</t>
-  </si>
-  <si>
-    <t>run_rate_model</t>
   </si>
   <si>
     <t>LEASING</t>
@@ -611,6 +605,12 @@
   </si>
   <si>
     <t>Lowest Rent</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Acquisition Demand Creation</t>
   </si>
 </sst>
 </file>
@@ -1023,6 +1023,9 @@
     <xf numFmtId="1" fontId="7" fillId="13" borderId="0" xfId="15" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="14"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,9 +1088,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1447,7 +1447,7 @@
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
@@ -1458,24 +1458,24 @@
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
       <c r="L1" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M1" s="32"/>
       <c r="N1" s="32"/>
       <c r="O1" s="32"/>
       <c r="P1" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="34"/>
       <c r="R1" s="34"/>
       <c r="S1" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T1" s="36"/>
       <c r="U1" s="36"/>
       <c r="V1" s="36"/>
       <c r="W1" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="X1" s="38"/>
       <c r="Y1" s="38"/>
@@ -1489,37 +1489,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="F2" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="G2" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="H2" s="41" t="s">
         <v>118</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>120</v>
       </c>
       <c r="I2" s="41" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>122</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>124</v>
       </c>
       <c r="N2" s="41" t="s">
         <v>16</v>
@@ -1528,37 +1528,37 @@
         <v>17</v>
       </c>
       <c r="P2" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="41" t="s">
-        <v>89</v>
-      </c>
       <c r="R2" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="S2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="U2" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="V2" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="W2" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="X2" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="Y2" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="Z2" s="43" t="s">
         <v>131</v>
-      </c>
-      <c r="Y2" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z2" s="43" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -18306,72 +18306,72 @@
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
       <c r="C1" s="51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
       <c r="H1" s="45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
       <c r="K1" s="45"/>
-      <c r="L1" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="L1" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="F2" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>140</v>
-      </c>
       <c r="H2" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I2" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="46" t="s">
-        <v>71</v>
-      </c>
       <c r="L2" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N2" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
       <c r="B3" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="49">
         <f>SUM(C5:C221)</f>
@@ -18425,7 +18425,7 @@
     <row r="4" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="49">
         <f ca="1">AVERAGE(C5:INDIRECT("C"&amp;4+META!$B$2))</f>
@@ -18448,16 +18448,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K4" s="55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L4" s="60">
         <f>AVERAGE(L5:L221)</f>
@@ -18468,10 +18468,10 @@
         <v>0</v>
       </c>
       <c r="N4" s="62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="XFD4" s="49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
@@ -31215,62 +31215,62 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+        <v>143</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="F2" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="46" t="s">
+      <c r="K2" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="53" t="s">
         <v>73</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" s="53" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5">
         <f ca="1">C3+H3</f>
@@ -31319,7 +31319,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4">
         <f ca="1">COUNT(BASELINE!$A$3:INDIRECT("BASELINE!A"&amp;META!$B$1))</f>
@@ -31368,7 +31368,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="5">
         <f ca="1">B3/B4</f>
@@ -31440,7 +31440,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="56"/>
     </row>
@@ -31454,7 +31454,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="14">
         <f ca="1">INDIRECT("BASELINE!M"&amp;META!B1)</f>
@@ -31463,7 +31463,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="14">
         <v>253</v>
@@ -31471,7 +31471,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="66">
         <v>0.9</v>
@@ -31479,7 +31479,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="14">
         <v>250</v>
@@ -31487,14 +31487,14 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="65" t="e">
         <f ca="1">ROW(INDEX(MODEL!O4:O43,MATCH(TRUE,INDEX(MODEL!O4:O43&gt;=B5,0),)))</f>
         <v>#N/A</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -31507,31 +31507,31 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B9" s="16">
         <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
+      <c r="A11" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="7">
         <f>FUNNEL!H3</f>
@@ -31544,7 +31544,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="7">
         <f>FUNNEL!I3</f>
@@ -31557,7 +31557,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="7">
         <f>FUNNEL!J3</f>
@@ -31570,7 +31570,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="7">
         <f>FUNNEL!K3</f>
@@ -31583,7 +31583,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="7">
         <f>FUNNEL!N3</f>
@@ -31598,24 +31598,24 @@
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
+      <c r="A19" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
     </row>
     <row r="20" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21">
         <f ca="1">FUNNEL!C4</f>
@@ -31628,7 +31628,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B22">
         <f ca="1">AVERAGE(INDIRECT("BASELINE!O3:O"&amp;META!B1))</f>
@@ -31645,13 +31645,13 @@
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B24" s="56"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="15">
         <f ca="1">COUNT(INDIRECT("MODEL!A4:A"&amp;B7))</f>
@@ -31701,118 +31701,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
+      <c r="A1" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
     </row>
     <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>89</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="S2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Z2" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N3" s="1">
         <f>INPUTS!B4</f>
@@ -35426,8 +35426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCFA04E-CEAE-1D4C-9348-08755944D418}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35439,12 +35439,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="78"/>
+      <c r="A1" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="79"/>
       <c r="D1" s="49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E1" s="49"/>
     </row>
@@ -35452,7 +35452,7 @@
       <c r="A2" s="8"/>
       <c r="B2" s="17"/>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2" t="e">
         <f ca="1">INPUTS!B7</f>
@@ -35460,12 +35460,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="80"/>
+      <c r="A3" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="81"/>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E3" s="2" t="e">
         <f ca="1">E2-3</f>
@@ -35474,16 +35474,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>60</v>
-      </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -35494,10 +35494,10 @@
         <v>43542</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -35509,10 +35509,10 @@
         <v>#N/A</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -35524,10 +35524,10 @@
         <v>#N/A</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -35539,15 +35539,15 @@
         <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B9" s="20">
         <f>INPUTS!B9</f>
@@ -35556,9 +35556,9 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="89">
+        <v>187</v>
+      </c>
+      <c r="B10" s="68">
         <f ca="1">INPUTS!B3</f>
         <v>0</v>
       </c>
@@ -35568,10 +35568,10 @@
       <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="82"/>
+      <c r="B12" s="83"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -35668,10 +35668,10 @@
       <c r="B23" s="17"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="84"/>
+      <c r="B24" s="85"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -35723,10 +35723,10 @@
       <c r="B30" s="17"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="85" t="s">
+      <c r="A31" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="86"/>
+      <c r="B31" s="87"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -35913,62 +35913,62 @@
       <c r="B52" s="17"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="88"/>
+      <c r="A53" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="89"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="B54" s="24" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!"&amp;C54&amp;"4:"&amp;C54&amp;$E$2))</f>
         <v>#N/A</v>
       </c>
       <c r="C54" s="67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="24" t="e">
         <f t="shared" ref="B55:B57" ca="1" si="0">SUM(INDIRECT("MODEL!"&amp;C55&amp;"4:"&amp;C55&amp;$E$2))</f>
         <v>#N/A</v>
       </c>
       <c r="C55" s="67" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" s="24" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C56" s="67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="24" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C57" s="67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" s="24" t="e">
         <f ca="1">SUM(B54:B57)</f>
@@ -35977,7 +35977,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59" s="17" t="e">
         <f ca="1">ROUND(B60/B58,0)</f>
@@ -35986,7 +35986,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" s="24" t="e">
         <f ca="1">B25*(B8*12)</f>
@@ -35998,62 +35998,62 @@
       <c r="B61" s="24"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="74"/>
+      <c r="A62" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="75"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63" s="24" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!"&amp;C63&amp;"4:"&amp;C63&amp;$E$2))</f>
         <v>#N/A</v>
       </c>
       <c r="C63" s="67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B64" s="24" t="e">
         <f t="shared" ref="B64:B66" ca="1" si="1">SUM(INDIRECT("MODEL!"&amp;C64&amp;"4:"&amp;C64&amp;$E$2))</f>
         <v>#N/A</v>
       </c>
       <c r="C64" s="67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="24" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C65" s="67" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="24" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C66" s="67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="24" t="e">
         <f ca="1">SUM(B63:B66)</f>
@@ -36062,7 +36062,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="17" t="e">
         <f ca="1">ROUND(B69/B67,0)</f>
@@ -36071,7 +36071,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B69" s="24" t="e">
         <f ca="1">B17*(B8*12)</f>
@@ -36083,14 +36083,14 @@
       <c r="B70" s="24"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="76"/>
+      <c r="A71" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="77"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B72" s="24" t="e">
         <f ca="1">B67+B58</f>
@@ -36099,7 +36099,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" s="17" t="e">
         <f ca="1">ROUND(B74/B72,0)</f>
@@ -36108,7 +36108,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74" s="26" t="e">
         <f ca="1">B69+B60</f>
@@ -36135,7 +36135,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36146,15 +36146,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -36180,7 +36180,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1">
         <v>12</v>
@@ -36188,7 +36188,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <f>B1-2</f>

--- a/xls/templates/run-rate-template.xlsx
+++ b/xls/templates/run-rate-template.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/dev/psl/remarkably/xls/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddcullen/Projects/remarkably/xls/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028C6740-84DA-154D-9C8C-C0DA6D3A1F3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7DDF9B-8AFB-0A48-82DC-540BB42FB720}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68880" yWindow="15260" windowWidth="28640" windowHeight="17380" activeTab="5" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="7" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
   </bookViews>
   <sheets>
     <sheet name="BASELINE" sheetId="5" r:id="rId1"/>
     <sheet name="FUNNEL" sheetId="6" r:id="rId2"/>
     <sheet name="INVESTMENT" sheetId="7" r:id="rId3"/>
     <sheet name="INPUTS" sheetId="9" r:id="rId4"/>
-    <sheet name="MODEL" sheetId="3" r:id="rId5"/>
-    <sheet name="OUTPUT" sheetId="10" r:id="rId6"/>
-    <sheet name="VERSION" sheetId="4" r:id="rId7"/>
-    <sheet name="META" sheetId="8" r:id="rId8"/>
+    <sheet name="ROUNDING" sheetId="11" r:id="rId5"/>
+    <sheet name="MODEL" sheetId="3" r:id="rId6"/>
+    <sheet name="OUTPUT" sheetId="10" r:id="rId7"/>
+    <sheet name="VERSION" sheetId="4" r:id="rId8"/>
+    <sheet name="META" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="208">
   <si>
     <t>Start Date</t>
   </si>
@@ -612,12 +613,63 @@
   <si>
     <t>Acquisition Demand Creation</t>
   </si>
+  <si>
+    <t>Raw INQs</t>
+  </si>
+  <si>
+    <t>Overflow INQs</t>
+  </si>
+  <si>
+    <t>Floor INQs</t>
+  </si>
+  <si>
+    <t>Raw TOU</t>
+  </si>
+  <si>
+    <t>Floor TOU</t>
+  </si>
+  <si>
+    <t>Overflow TOU</t>
+  </si>
+  <si>
+    <t>TOU Deduction</t>
+  </si>
+  <si>
+    <t>INQ Deduction</t>
+  </si>
+  <si>
+    <t>Raw APP</t>
+  </si>
+  <si>
+    <t>Floor APP</t>
+  </si>
+  <si>
+    <t>Overflow APP</t>
+  </si>
+  <si>
+    <t>APP Deduction</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>Raw EXE</t>
+  </si>
+  <si>
+    <t>Floor EXE</t>
+  </si>
+  <si>
+    <t>Overflow EXE</t>
+  </si>
+  <si>
+    <t>EXE Deduction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="11">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -625,6 +677,10 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="0.00000000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000"/>
+    <numFmt numFmtId="175" formatCode="0.000000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -914,7 +970,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1089,6 +1145,12 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="40% - Accent3" xfId="17" builtinId="39"/>
@@ -1422,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804DEBCA-4192-7E48-925A-4B1A482CF3C5}">
   <dimension ref="A1:Z211"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,76 +1631,76 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -1652,73 +1714,73 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -1732,73 +1794,73 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -1812,73 +1874,73 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -1892,73 +1954,73 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -18375,51 +18437,51 @@
       </c>
       <c r="C3" s="49">
         <f>SUM(C5:C221)</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D3" s="49">
         <f t="shared" ref="D3:G3" si="0">SUM(D5:D221)</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="E3" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F3" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H3" s="49">
         <f>IF(C3=0, 0, D3/C3)</f>
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I3" s="49">
         <f t="shared" ref="I3:I69" si="1">IF(D3=0, 0, E3/D3)</f>
-        <v>0</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="J3" s="49">
         <f t="shared" ref="J3:K5" si="2">IF(E3=0, 0, F3/E3)</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K3" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L3" s="60">
         <f>SUM(L5:L221)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3" s="60">
         <f>SUM(M5:M221)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="61">
         <f t="shared" ref="N3" si="3">IF(L3+M3=0, 0, M3/(L3+M3))</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
@@ -18429,23 +18491,23 @@
       </c>
       <c r="C4" s="49">
         <f ca="1">AVERAGE(C5:INDIRECT("C"&amp;4+META!$B$2))</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D4" s="49">
         <f ca="1">AVERAGE(D5:INDIRECT("D"&amp;4+META!$B$2))</f>
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="E4" s="49">
         <f ca="1">AVERAGE(E5:INDIRECT("E"&amp;4+META!$B$2))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F4" s="49">
         <f ca="1">AVERAGE(F5:INDIRECT("F"&amp;4+META!$B$2))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="49">
         <f ca="1">AVERAGE(G5:INDIRECT("G"&amp;4+META!$B$2))</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>150</v>
@@ -18461,11 +18523,11 @@
       </c>
       <c r="L4" s="60">
         <f>AVERAGE(L5:L221)</f>
-        <v>0</v>
+        <v>2.3041474654377881E-2</v>
       </c>
       <c r="M4" s="60">
         <f>AVERAGE(M5:M221)</f>
-        <v>0</v>
+        <v>4.6082949308755762E-2</v>
       </c>
       <c r="N4" s="62" t="s">
         <v>150</v>
@@ -18485,51 +18547,51 @@
       </c>
       <c r="C5" s="2">
         <f>BASELINE!P3</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="2">
         <f>BASELINE!Q3</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2">
         <f>BASELINE!R3</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
         <f>BASELINE!D3</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
         <f>BASELINE!E3</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H5" s="6">
         <f>IF(C5=0, 0, D5/C5)</f>
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L5" s="59">
         <f>BASELINE!K3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="59">
         <f>BASELINE!J3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="6">
         <f>IF(L5+M5=0, 0, M5/(L5+M5))</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
@@ -18543,51 +18605,51 @@
       </c>
       <c r="C6" s="2">
         <f>BASELINE!P4</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="2">
         <f>BASELINE!Q4</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2">
         <f>BASELINE!R4</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
         <f>BASELINE!D4</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
         <f>BASELINE!E4</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ref="H6:H69" si="4">IF(C6=0, 0, D6/C6)</f>
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" ref="J6:J69" si="5">IF(E6=0, 0, F6/E6)</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" ref="K6:K69" si="6">IF(F6=0, 0, G6/F6)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L6" s="59">
         <f>BASELINE!K4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="59">
         <f>BASELINE!J4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" ref="N6:N69" si="7">IF(L6+M6=0, 0, M6/(L6+M6))</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
@@ -18601,51 +18663,51 @@
       </c>
       <c r="C7" s="2">
         <f>BASELINE!P5</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="2">
         <f>BASELINE!Q5</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2">
         <f>BASELINE!R5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
         <f>BASELINE!D5</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2">
         <f>BASELINE!E5</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L7" s="59">
         <f>BASELINE!K5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="59">
         <f>BASELINE!J5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
@@ -18659,51 +18721,51 @@
       </c>
       <c r="C8" s="2">
         <f>BASELINE!P6</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="2">
         <f>BASELINE!Q6</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2">
         <f>BASELINE!R6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
         <f>BASELINE!D6</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2">
         <f>BASELINE!E6</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L8" s="59">
         <f>BASELINE!K6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="59">
         <f>BASELINE!J6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
@@ -18717,51 +18779,51 @@
       </c>
       <c r="C9" s="2">
         <f>BASELINE!P7</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="2">
         <f>BASELINE!Q7</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2">
         <f>BASELINE!R7</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
         <f>BASELINE!D7</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2">
         <f>BASELINE!E7</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L9" s="59">
         <f>BASELINE!K7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="59">
         <f>BASELINE!J7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
@@ -31274,47 +31336,47 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">C3+H3</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="C3" s="5">
         <f ca="1">SUM(D3:G3)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D3" s="5">
         <f ca="1">SUM(BASELINE!S$3:INDIRECT("BASELINE!S"&amp;META!$B$1))</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E3" s="5">
         <f ca="1">SUM(BASELINE!T$3:INDIRECT("BASELINE!T"&amp;META!$B$1))</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F3" s="5">
         <f ca="1">SUM(BASELINE!U$3:INDIRECT("BASELINE!U"&amp;META!$B$1))</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G3" s="5">
         <f ca="1">SUM(BASELINE!V$3:INDIRECT("BASELINE!V"&amp;META!$B$1))</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H3" s="5">
         <f ca="1">SUM(I3:L3)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I3" s="5">
         <f ca="1">SUM(BASELINE!W$3:INDIRECT("BASELINE!W"&amp;META!$B$1))</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J3" s="5">
         <f ca="1">SUM(BASELINE!X$3:INDIRECT("BASELINE!X"&amp;META!$B$1))</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K3" s="5">
         <f ca="1">SUM(BASELINE!Y$3:INDIRECT("BASELINE!Y"&amp;META!$B$1))</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L3" s="5">
         <f ca="1">SUM(BASELINE!Z$3:INDIRECT("BASELINE!Z"&amp;META!$B$1))</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -31372,47 +31434,47 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">B3/B4</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:L5" ca="1" si="0">C3/C4</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -31428,8 +31490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726B1E90-CF35-6B44-A028-BC0D727236A8}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31535,11 +31597,11 @@
       </c>
       <c r="B13" s="7">
         <f>FUNNEL!H3</f>
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C13" s="63">
         <f>B13</f>
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -31548,11 +31610,11 @@
       </c>
       <c r="B14" s="7">
         <f>FUNNEL!I3</f>
-        <v>0</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="C14" s="63">
-        <f t="shared" ref="C14:C16" si="0">B14</f>
-        <v>0</v>
+        <f t="shared" ref="C14:C17" si="0">B14</f>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -31561,11 +31623,11 @@
       </c>
       <c r="B15" s="7">
         <f>FUNNEL!J3</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C15" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -31574,11 +31636,11 @@
       </c>
       <c r="B16" s="7">
         <f>FUNNEL!K3</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C16" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -31587,11 +31649,11 @@
       </c>
       <c r="B17" s="7">
         <f>FUNNEL!N3</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C17" s="63">
-        <f>B17</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -31619,11 +31681,11 @@
       </c>
       <c r="B21">
         <f ca="1">FUNNEL!C4</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C21" s="14">
         <f ca="1">B21</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -31632,11 +31694,11 @@
       </c>
       <c r="B22">
         <f ca="1">AVERAGE(INDIRECT("BASELINE!O3:O"&amp;META!B1))</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C22" s="14">
         <f ca="1">B22</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -31668,11 +31730,3269 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01955EC0-C8BC-5B4D-9380-142B4F186DC3}">
+  <dimension ref="A1:V39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="92"/>
+    </row>
+    <row r="2" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <f>INPUTS!B2</f>
+        <v>43549</v>
+      </c>
+      <c r="B4">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C4" s="90">
+        <f ca="1">B4*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D4" s="90">
+        <f ca="1">_xlfn.FLOOR.MATH(C4)</f>
+        <v>25</v>
+      </c>
+      <c r="E4" s="91">
+        <f ca="1">C4-D4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="2">
+        <f ca="1">IF(E4&gt;=1, _xlfn.FLOOR.MATH(E4), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f ca="1">D4+F4</f>
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <f ca="1">INPUTS!$C$14*G4</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I4">
+        <f ca="1">_xlfn.FLOOR.MATH(H4)</f>
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <f ca="1">H4-I4</f>
+        <v>0.70588235294117752</v>
+      </c>
+      <c r="K4" s="2">
+        <f ca="1">IF(J4&gt;=1, _xlfn.FLOOR.MATH(J4), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f ca="1">I4+K4</f>
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <f ca="1">L4*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N4">
+        <f ca="1">_xlfn.FLOOR.MATH(M4)</f>
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <f ca="1">M4-N4</f>
+        <v>0.23529411764705976</v>
+      </c>
+      <c r="P4">
+        <f ca="1">IF(O4&gt;=1, _xlfn.FLOOR.MATH(O4), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f ca="1">N4+P4</f>
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <f ca="1">Q4*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <f ca="1">_xlfn.FLOOR.MATH(R4)</f>
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <f ca="1">R4-S4</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U38" ca="1" si="0">IF(T4&gt;=1, _xlfn.FLOOR.MATH(T4), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f ca="1">S4+U4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <f>A4+7</f>
+        <v>43556</v>
+      </c>
+      <c r="B5">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C5" s="90">
+        <f ca="1">B5*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D5" s="90">
+        <f t="shared" ref="D5:D38" ca="1" si="1">_xlfn.FLOOR.MATH(C5)</f>
+        <v>25</v>
+      </c>
+      <c r="E5" s="91">
+        <f ca="1">(C5-D5)+(E4-F4)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F38" ca="1" si="2">IF(E5&gt;=1, _xlfn.FLOOR.MATH(E5), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G38" ca="1" si="3">D5+F5</f>
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <f ca="1">INPUTS!$C$14*G5</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I38" ca="1" si="4">_xlfn.FLOOR.MATH(H5)</f>
+        <v>15</v>
+      </c>
+      <c r="J5" s="95">
+        <f ca="1">(H5-I5)+(J4-K4)</f>
+        <v>1.0000000000000018</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5:K38" ca="1" si="5">IF(J5&gt;=1, _xlfn.FLOOR.MATH(J5), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L38" ca="1" si="6">I5+K5</f>
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <f ca="1">L5*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N38" ca="1" si="7">_xlfn.FLOOR.MATH(M5)</f>
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <f ca="1">(M5-N5)+(O4-P4)</f>
+        <v>0.64705882352941302</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P38" ca="1" si="8">IF(O5&gt;=1, _xlfn.FLOOR.MATH(O5), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q38" ca="1" si="9">N5+P5</f>
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <f ca="1">Q5*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S38" ca="1" si="10">_xlfn.FLOOR.MATH(R5)</f>
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <f ca="1">(R5-S5)+(T4-U4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V38" ca="1" si="11">S5+U5</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <f t="shared" ref="A5:A11" si="12">A5+7</f>
+        <v>43563</v>
+      </c>
+      <c r="B6">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C6" s="90">
+        <f ca="1">B6*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D6" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E6" s="91">
+        <f t="shared" ref="E6:E38" ca="1" si="13">(C6-D6)+(E5-F5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <f ca="1">INPUTS!$C$14*G6</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J6" s="95">
+        <f t="shared" ref="J6:J38" ca="1" si="14">(H6-I6)+(J5-K5)</f>
+        <v>0.70588235294117929</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <f ca="1">L6*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O38" ca="1" si="15">(M6-N6)+(O5-P5)</f>
+        <v>0.88235294117647278</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <f ca="1">Q6*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6:T38" ca="1" si="16">(R6-S6)+(T5-U5)</f>
+        <v>0.75</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <f t="shared" si="12"/>
+        <v>43570</v>
+      </c>
+      <c r="B7">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C7" s="90">
+        <f ca="1">B7*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D7" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E7" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <f ca="1">INPUTS!$C$14*G7</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J7" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000036</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <f ca="1">L7*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.294117647058826</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <f ca="1">Q7*INPUTS!$C$16</f>
+        <v>7.5</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.25</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ca="1" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <f t="shared" si="12"/>
+        <v>43577</v>
+      </c>
+      <c r="B8">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C8" s="90">
+        <f ca="1">B8*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D8" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E8" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <f ca="1">INPUTS!$C$14*G8</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J8" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294118107</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <f ca="1">L8*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.5294117647058858</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <f ca="1">Q8*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.25</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <f t="shared" si="12"/>
+        <v>43584</v>
+      </c>
+      <c r="B9">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C9" s="90">
+        <f ca="1">B9*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D9" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E9" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <f ca="1">INPUTS!$C$14*G9</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J9" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000053</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <f ca="1">L9*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.94117647058823906</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <f ca="1">Q9*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <f t="shared" si="12"/>
+        <v>43591</v>
+      </c>
+      <c r="B10">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C10" s="90">
+        <f ca="1">B10*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D10" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <f ca="1">INPUTS!$C$14*G10</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J10" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294118284</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <f ca="1">L10*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.1764705882352988</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <f ca="1">Q10*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="U10">
+        <f ca="1">IF(T10&gt;=1, _xlfn.FLOOR.MATH(T10), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <f t="shared" si="12"/>
+        <v>43598</v>
+      </c>
+      <c r="B11">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C11" s="90">
+        <f ca="1">B11*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D11" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <f ca="1">INPUTS!$C$14*G11</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J11" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000071</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <f ca="1">L11*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.58823529411765207</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <f ca="1">Q11*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="U11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <f>A11+7</f>
+        <v>43605</v>
+      </c>
+      <c r="B12">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C12" s="90">
+        <f ca="1">B12*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D12" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <f ca="1">INPUTS!$C$14*G12</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J12" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294118462</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <f ca="1">L12*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.82352941176471184</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R12">
+        <f ca="1">Q12*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <f>A12+7</f>
+        <v>43612</v>
+      </c>
+      <c r="B13">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C13" s="90">
+        <f ca="1">B13*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D13" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H13">
+        <f ca="1">INPUTS!$C$14*G13</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J13" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000089</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <f ca="1">L13*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.2352941176470651</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <f ca="1">Q13*INPUTS!$C$16</f>
+        <v>7.5</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ca="1" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <f t="shared" ref="A13:A18" si="17">A13+7</f>
+        <v>43619</v>
+      </c>
+      <c r="B14">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C14" s="90">
+        <f ca="1">B14*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D14" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <f ca="1">INPUTS!$C$14*G14</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J14" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.7058823529411864</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <f ca="1">L14*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.47058823529412486</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <f ca="1">Q14*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <f t="shared" si="17"/>
+        <v>43626</v>
+      </c>
+      <c r="B15">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C15" s="90">
+        <f ca="1">B15*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D15" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <f ca="1">INPUTS!$C$14*G15</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J15" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000107</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <f ca="1">L15*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.88235294117647811</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <f ca="1">Q15*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <f t="shared" si="17"/>
+        <v>43633</v>
+      </c>
+      <c r="B16">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C16" s="90">
+        <f ca="1">B16*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D16" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <f ca="1">INPUTS!$C$14*G16</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J16" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294118817</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <f ca="1">L16*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.1176470588235379</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R16">
+        <f ca="1">Q16*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <f t="shared" si="17"/>
+        <v>43640</v>
+      </c>
+      <c r="B17">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C17" s="90">
+        <f ca="1">B17*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D17" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <f ca="1">INPUTS!$C$14*G17</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J17" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000124</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <f ca="1">L17*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.52941176470589113</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R17">
+        <f ca="1">Q17*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.25</v>
+      </c>
+      <c r="U17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <f t="shared" si="17"/>
+        <v>43647</v>
+      </c>
+      <c r="B18">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C18" s="90">
+        <f ca="1">B18*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D18" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E18" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <f ca="1">INPUTS!$C$14*G18</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J18" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294118995</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <f ca="1">L18*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.76470588235295089</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <f ca="1">Q18*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.25</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <f>A18+7</f>
+        <v>43654</v>
+      </c>
+      <c r="B19">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C19" s="90">
+        <f ca="1">B19*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D19" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E19" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <f ca="1">INPUTS!$C$14*G19</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J19" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000142</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <f ca="1">L19*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.1764705882353041</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <f ca="1">Q19*INPUTS!$C$16</f>
+        <v>7.5</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <f t="shared" ref="A19:A38" si="18">A19+7</f>
+        <v>43661</v>
+      </c>
+      <c r="B20">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C20" s="90">
+        <f ca="1">B20*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D20" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E20" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <f ca="1">INPUTS!$C$14*G20</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J20" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294119173</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <f ca="1">L20*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.41176470588236391</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <f ca="1">Q20*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <f t="shared" si="18"/>
+        <v>43668</v>
+      </c>
+      <c r="B21">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C21" s="90">
+        <f ca="1">B21*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D21" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <f ca="1">INPUTS!$C$14*G21</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J21" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.000000000000016</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <f ca="1">L21*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.82352941176471717</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R21">
+        <f ca="1">Q21*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="U21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <f t="shared" si="18"/>
+        <v>43675</v>
+      </c>
+      <c r="B22">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C22" s="90">
+        <f ca="1">B22*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D22" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E22" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <f ca="1">INPUTS!$C$14*G22</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J22" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.7058823529411935</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M22">
+        <f ca="1">L22*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.0588235294117769</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R22">
+        <f ca="1">Q22*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.25</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <f t="shared" si="18"/>
+        <v>43682</v>
+      </c>
+      <c r="B23">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C23" s="90">
+        <f ca="1">B23*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D23" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <f ca="1">INPUTS!$C$14*G23</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J23" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000178</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <f ca="1">L23*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.47058823529413019</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R23">
+        <f ca="1">Q23*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T23">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <f t="shared" si="18"/>
+        <v>43689</v>
+      </c>
+      <c r="B24">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C24" s="90">
+        <f ca="1">B24*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D24" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E24" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <f ca="1">INPUTS!$C$14*G24</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J24" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294119528</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M24">
+        <f ca="1">L24*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.70588235294118995</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R24">
+        <f ca="1">Q24*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <f t="shared" si="18"/>
+        <v>43696</v>
+      </c>
+      <c r="B25">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C25" s="90">
+        <f ca="1">B25*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D25" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E25" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <f ca="1">INPUTS!$C$14*G25</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J25" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000195</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M25">
+        <f ca="1">L25*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.1176470588235432</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="R25">
+        <f ca="1">Q25*INPUTS!$C$16</f>
+        <v>7.5</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <f t="shared" si="18"/>
+        <v>43703</v>
+      </c>
+      <c r="B26">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C26" s="90">
+        <f ca="1">B26*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D26" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <f ca="1">INPUTS!$C$14*G26</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J26" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294119706</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M26">
+        <f ca="1">L26*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.35294117647060297</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <f ca="1">Q26*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="U26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <f t="shared" si="18"/>
+        <v>43710</v>
+      </c>
+      <c r="B27">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C27" s="90">
+        <f ca="1">B27*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D27" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E27" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <f ca="1">INPUTS!$C$14*G27</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J27" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000213</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M27">
+        <f ca="1">L27*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.76470588235295622</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R27">
+        <f ca="1">Q27*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.25</v>
+      </c>
+      <c r="U27">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <f t="shared" si="18"/>
+        <v>43717</v>
+      </c>
+      <c r="B28">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C28" s="90">
+        <f ca="1">B28*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D28" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E28" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H28">
+        <f ca="1">INPUTS!$C$14*G28</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J28" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294119883</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M28">
+        <f ca="1">L28*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O28" s="93">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.000000000000016</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R28">
+        <f ca="1">Q28*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T28">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <f t="shared" si="18"/>
+        <v>43724</v>
+      </c>
+      <c r="B29">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C29" s="90">
+        <f ca="1">B29*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D29" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E29" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H29">
+        <f ca="1">INPUTS!$C$14*G29</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J29" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000231</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M29">
+        <f ca="1">L29*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.41176470588236924</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R29">
+        <f ca="1">Q29*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <f t="shared" si="18"/>
+        <v>43731</v>
+      </c>
+      <c r="B30">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C30" s="90">
+        <f ca="1">B30*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D30" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E30" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H30">
+        <f ca="1">INPUTS!$C$14*G30</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J30" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294120061</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M30">
+        <f ca="1">L30*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.64705882352942901</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R30">
+        <f ca="1">Q30*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <f t="shared" si="18"/>
+        <v>43738</v>
+      </c>
+      <c r="B31">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C31" s="90">
+        <f ca="1">B31*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D31" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E31" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H31">
+        <f ca="1">INPUTS!$C$14*G31</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J31" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000249</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M31">
+        <f ca="1">L31*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.0588235294117823</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <f ca="1">Q31*INPUTS!$C$16</f>
+        <v>7.5</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="T31">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.25</v>
+      </c>
+      <c r="U31">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <f t="shared" ca="1" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <f t="shared" si="18"/>
+        <v>43745</v>
+      </c>
+      <c r="B32">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C32" s="90">
+        <f ca="1">B32*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D32" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E32" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H32">
+        <f ca="1">INPUTS!$C$14*G32</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J32" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294120238</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M32">
+        <f ca="1">L32*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.29411764705884202</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R32">
+        <f ca="1">Q32*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.25</v>
+      </c>
+      <c r="U32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <f t="shared" si="18"/>
+        <v>43752</v>
+      </c>
+      <c r="B33">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C33" s="90">
+        <f ca="1">B33*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D33" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E33" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H33">
+        <f ca="1">INPUTS!$C$14*G33</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J33" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000266</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M33">
+        <f ca="1">L33*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.70588235294119528</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R33">
+        <f ca="1">Q33*INPUTS!$C$16</f>
+        <v>6.75</v>
+      </c>
+      <c r="S33">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <f t="shared" si="18"/>
+        <v>43759</v>
+      </c>
+      <c r="B34">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C34" s="90">
+        <f ca="1">B34*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D34" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E34" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <f ca="1">INPUTS!$C$14*G34</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J34" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294120416</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M34">
+        <f ca="1">L34*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.94117647058825504</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R34">
+        <f ca="1">Q34*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <f t="shared" si="18"/>
+        <v>43766</v>
+      </c>
+      <c r="B35">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C35" s="90">
+        <f ca="1">B35*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D35" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E35" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H35">
+        <f ca="1">INPUTS!$C$14*G35</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J35" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000284</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M35">
+        <f ca="1">L35*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.3529411764706083</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <f ca="1">Q35*INPUTS!$C$16</f>
+        <v>7.5</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="T35">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="U35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <f t="shared" si="18"/>
+        <v>43773</v>
+      </c>
+      <c r="B36">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C36" s="90">
+        <f ca="1">B36*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D36" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E36" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <f ca="1">INPUTS!$C$14*G36</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J36" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294120594</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M36">
+        <f ca="1">L36*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.58823529411766806</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R36">
+        <f ca="1">Q36*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <f t="shared" ca="1" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="U36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <f t="shared" si="18"/>
+        <v>43780</v>
+      </c>
+      <c r="B37">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C37" s="90">
+        <f ca="1">B37*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D37" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E37" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H37">
+        <f ca="1">INPUTS!$C$14*G37</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J37" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0000000000000302</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="M37">
+        <f ca="1">L37*INPUTS!$C$14</f>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O37" s="94">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.0000000000000213</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <f ca="1">Q37*INPUTS!$C$16</f>
+        <v>7.5</v>
+      </c>
+      <c r="S37">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <f t="shared" ca="1" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <f t="shared" si="18"/>
+        <v>43787</v>
+      </c>
+      <c r="B38">
+        <f ca="1">INPUTS!$C$21</f>
+        <v>500</v>
+      </c>
+      <c r="C38" s="90">
+        <f ca="1">B38*INPUTS!$C$13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D38" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E38" s="91">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H38">
+        <f ca="1">INPUTS!$C$14*G38</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J38" s="95">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.70588235294120771</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="M38">
+        <f ca="1">L38*INPUTS!$C$14</f>
+        <v>8.2352941176470598</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.23529411764708108</v>
+      </c>
+      <c r="P38">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R38">
+        <f ca="1">Q38*INPUTS!$C$16</f>
+        <v>6</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4156A3-96B9-DE41-91DB-F4C9577E214C}">
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39:T39"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31836,35 +35156,35 @@
       </c>
       <c r="S3" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T3" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U3" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V3" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W3" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X3" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y3" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z3" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -31873,28 +35193,28 @@
         <v>43549</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B4</f>
+        <v>500</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">ROUND(B4*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G4</f>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">ROUND(C4*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L4</f>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">ROUND(D4*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q4</f>
+        <v>8</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ROUND(E4*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">ROUND(E4*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V4</f>
+        <v>6</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -31915,11 +35235,11 @@
       </c>
       <c r="M4" s="2">
         <f t="shared" ref="M4:M37" ca="1" si="0">G4-J4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="10">
         <f ca="1">N3+M4</f>
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="O4" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N4/INPUTS!$B$3)</f>
@@ -31927,7 +35247,7 @@
       </c>
       <c r="P4" s="2">
         <f t="shared" ref="P4:P37" ca="1" si="1">P3+G4-J4</f>
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q4" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P4/INPUTS!$B$3)</f>
@@ -31939,35 +35259,35 @@
       </c>
       <c r="S4" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T4" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U4" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V4" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W4" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X4" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y4" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z4" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -31976,28 +35296,28 @@
         <v>43556</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B5</f>
+        <v>500</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">ROUND(B5*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G5</f>
+        <v>26</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">ROUND(C5*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L5</f>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">ROUND(D5*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q5</f>
+        <v>9</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ROUND(E5*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">ROUND(E5*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V5</f>
+        <v>6</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -32018,11 +35338,11 @@
       </c>
       <c r="M5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ref="N5:N37" ca="1" si="4">N4+M5</f>
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="O5" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N5/INPUTS!$B$3)</f>
@@ -32030,7 +35350,7 @@
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Q5" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P5/INPUTS!$B$3)</f>
@@ -32042,35 +35362,35 @@
       </c>
       <c r="S5" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T5" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U5" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V5" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W5" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X5" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z5" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -32079,28 +35399,28 @@
         <v>43563</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B6</f>
+        <v>500</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">ROUND(B6*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G6</f>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">ROUND(C6*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L6</f>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">ROUND(D6*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q6</f>
+        <v>8</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">ROUND(E6*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">ROUND(E6*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V6</f>
+        <v>6</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -32121,11 +35441,11 @@
       </c>
       <c r="M6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="O6" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N6/INPUTS!$B$3)</f>
@@ -32133,7 +35453,7 @@
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="Q6" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P6/INPUTS!$B$3)</f>
@@ -32145,35 +35465,35 @@
       </c>
       <c r="S6" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T6" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U6" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V6" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W6" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X6" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y6" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z6" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -32182,32 +35502,32 @@
         <v>43570</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B7</f>
+        <v>500</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">ROUND(B7*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G7</f>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">ROUND(C7*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L7</f>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">ROUND(D7*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q7</f>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">ROUND(E7*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">ROUND(E7*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V7</f>
+        <v>8</v>
       </c>
       <c r="H7" s="2">
         <f ca="1">G4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
@@ -32225,11 +35545,11 @@
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="O7" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N7/INPUTS!$B$3)</f>
@@ -32237,7 +35557,7 @@
       </c>
       <c r="P7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="Q7" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P7/INPUTS!$B$3)</f>
@@ -32249,35 +35569,35 @@
       </c>
       <c r="S7" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T7" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U7" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V7" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W7" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X7" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y7" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z7" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -32286,32 +35606,32 @@
         <v>43577</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B8</f>
+        <v>500</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">ROUND(B8*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G8</f>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">ROUND(C8*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L8</f>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">ROUND(D8*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q8</f>
+        <v>8</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">ROUND(E8*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">ROUND(E8*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V8</f>
+        <v>6</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" ref="H8:H37" ca="1" si="6">G5</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
@@ -32329,11 +35649,11 @@
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O8" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N8/INPUTS!$B$3)</f>
@@ -32341,7 +35661,7 @@
       </c>
       <c r="P8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P8/INPUTS!$B$3)</f>
@@ -32353,35 +35673,35 @@
       </c>
       <c r="S8" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T8" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U8" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V8" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W8" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X8" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y8" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z8" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -32390,32 +35710,32 @@
         <v>43584</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B9</f>
+        <v>500</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">ROUND(B9*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G9</f>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">ROUND(C9*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L9</f>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">ROUND(D9*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q9</f>
+        <v>9</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">ROUND(E9*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">ROUND(E9*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V9</f>
+        <v>7</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
@@ -32433,11 +35753,11 @@
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="O9" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N9/INPUTS!$B$3)</f>
@@ -32445,7 +35765,7 @@
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="Q9" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P9/INPUTS!$B$3)</f>
@@ -32457,35 +35777,35 @@
       </c>
       <c r="S9" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T9" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U9" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V9" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W9" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X9" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y9" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z9" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -32494,32 +35814,32 @@
         <v>43591</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B10</f>
+        <v>500</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">ROUND(B10*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G10</f>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">ROUND(C10*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L10</f>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">ROUND(D10*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q10</f>
+        <v>9</v>
       </c>
       <c r="F10" s="2">
         <f ca="1">ROUND(E10*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">ROUND(E10*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V10</f>
+        <v>6</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="2"/>
@@ -32537,11 +35857,11 @@
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="O10" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N10/INPUTS!$B$3)</f>
@@ -32549,7 +35869,7 @@
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="Q10" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P10/INPUTS!$B$3)</f>
@@ -32561,35 +35881,35 @@
       </c>
       <c r="S10" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T10" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U10" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V10" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W10" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X10" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y10" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z10" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -32598,32 +35918,32 @@
         <v>43598</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B11</f>
+        <v>500</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">ROUND(B11*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G11</f>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">ROUND(C11*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L11</f>
+        <v>16</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">ROUND(D11*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q11</f>
+        <v>9</v>
       </c>
       <c r="F11" s="2">
         <f ca="1">ROUND(E11*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">ROUND(E11*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V11</f>
+        <v>7</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="2"/>
@@ -32641,11 +35961,11 @@
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="O11" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N11/INPUTS!$B$3)</f>
@@ -32653,7 +35973,7 @@
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="Q11" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P11/INPUTS!$B$3)</f>
@@ -32665,35 +35985,35 @@
       </c>
       <c r="S11" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T11" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U11" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V11" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W11" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X11" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y11" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z11" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -32702,32 +36022,32 @@
         <v>43605</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B12</f>
+        <v>500</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">ROUND(B12*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G12</f>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">ROUND(C12*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L12</f>
+        <v>14</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">ROUND(D12*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q12</f>
+        <v>8</v>
       </c>
       <c r="F12" s="2">
         <f ca="1">ROUND(E12*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">ROUND(E12*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V12</f>
+        <v>6</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
@@ -32745,11 +36065,11 @@
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="O12" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N12/INPUTS!$B$3)</f>
@@ -32757,7 +36077,7 @@
       </c>
       <c r="P12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="Q12" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P12/INPUTS!$B$3)</f>
@@ -32769,35 +36089,35 @@
       </c>
       <c r="S12" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T12" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U12" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V12" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W12" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X12" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y12" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z12" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -32806,32 +36126,32 @@
         <v>43612</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B13</f>
+        <v>500</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">ROUND(B13*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G13</f>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">ROUND(C13*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L13</f>
+        <v>16</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">ROUND(D13*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q13</f>
+        <v>10</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">ROUND(E13*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">ROUND(E13*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V13</f>
+        <v>8</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="2"/>
@@ -32849,11 +36169,11 @@
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="O13" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N13/INPUTS!$B$3)</f>
@@ -32861,7 +36181,7 @@
       </c>
       <c r="P13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P13/INPUTS!$B$3)</f>
@@ -32873,35 +36193,35 @@
       </c>
       <c r="S13" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T13" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U13" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V13" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W13" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X13" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y13" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z13" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -32910,32 +36230,32 @@
         <v>43619</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B14</f>
+        <v>500</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">ROUND(B14*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G14</f>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">ROUND(C14*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L14</f>
+        <v>14</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">ROUND(D14*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q14</f>
+        <v>8</v>
       </c>
       <c r="F14" s="2">
         <f ca="1">ROUND(E14*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">ROUND(E14*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V14</f>
+        <v>6</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="2"/>
@@ -32953,11 +36273,11 @@
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>247</v>
+        <v>319</v>
       </c>
       <c r="O14" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N14/INPUTS!$B$3)</f>
@@ -32965,7 +36285,7 @@
       </c>
       <c r="P14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="Q14" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P14/INPUTS!$B$3)</f>
@@ -32977,35 +36297,35 @@
       </c>
       <c r="S14" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T14" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U14" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V14" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W14" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X14" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y14" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z14" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -33014,32 +36334,32 @@
         <v>43626</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B15</f>
+        <v>500</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">ROUND(B15*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G15</f>
+        <v>26</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">ROUND(C15*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L15</f>
+        <v>16</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">ROUND(D15*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q15</f>
+        <v>9</v>
       </c>
       <c r="F15" s="2">
         <f ca="1">ROUND(E15*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">ROUND(E15*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V15</f>
+        <v>6</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="2"/>
@@ -33057,11 +36377,11 @@
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="O15" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N15/INPUTS!$B$3)</f>
@@ -33069,7 +36389,7 @@
       </c>
       <c r="P15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>242</v>
+        <v>320</v>
       </c>
       <c r="Q15" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P15/INPUTS!$B$3)</f>
@@ -33081,35 +36401,35 @@
       </c>
       <c r="S15" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T15" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U15" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V15" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W15" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X15" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y15" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z15" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -33118,32 +36438,32 @@
         <v>43633</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B16</f>
+        <v>500</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">ROUND(B16*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G16</f>
+        <v>25</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">ROUND(C16*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L16</f>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">ROUND(D16*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q16</f>
+        <v>9</v>
       </c>
       <c r="F16" s="2">
         <f ca="1">ROUND(E16*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">ROUND(E16*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V16</f>
+        <v>7</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="2"/>
@@ -33161,11 +36481,11 @@
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="O16" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N16/INPUTS!$B$3)</f>
@@ -33173,7 +36493,7 @@
       </c>
       <c r="P16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P16/INPUTS!$B$3)</f>
@@ -33185,35 +36505,35 @@
       </c>
       <c r="S16" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T16" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U16" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V16" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W16" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X16" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y16" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z16" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
@@ -33222,32 +36542,32 @@
         <v>43640</v>
       </c>
       <c r="B17" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B17</f>
+        <v>500</v>
       </c>
       <c r="C17" s="2">
-        <f ca="1">ROUND(B17*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G17</f>
+        <v>26</v>
       </c>
       <c r="D17" s="2">
-        <f ca="1">ROUND(C17*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L17</f>
+        <v>16</v>
       </c>
       <c r="E17" s="2">
-        <f ca="1">ROUND(D17*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q17</f>
+        <v>9</v>
       </c>
       <c r="F17" s="2">
         <f ca="1">ROUND(E17*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2">
-        <f ca="1">ROUND(E17*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V17</f>
+        <v>7</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="2"/>
@@ -33265,11 +36585,11 @@
       </c>
       <c r="M17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="O17" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N17/INPUTS!$B$3)</f>
@@ -33277,7 +36597,7 @@
       </c>
       <c r="P17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="Q17" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P17/INPUTS!$B$3)</f>
@@ -33289,35 +36609,35 @@
       </c>
       <c r="S17" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T17" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U17" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V17" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W17" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X17" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y17" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z17" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -33326,32 +36646,32 @@
         <v>43647</v>
       </c>
       <c r="B18" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B18</f>
+        <v>500</v>
       </c>
       <c r="C18" s="2">
-        <f ca="1">ROUND(B18*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G18</f>
+        <v>25</v>
       </c>
       <c r="D18" s="2">
-        <f ca="1">ROUND(C18*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L18</f>
+        <v>14</v>
       </c>
       <c r="E18" s="2">
-        <f ca="1">ROUND(D18*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q18</f>
+        <v>8</v>
       </c>
       <c r="F18" s="2">
         <f ca="1">ROUND(E18*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="2">
-        <f ca="1">ROUND(E18*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V18</f>
+        <v>6</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="2"/>
@@ -33369,11 +36689,11 @@
       </c>
       <c r="M18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="O18" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N18/INPUTS!$B$3)</f>
@@ -33381,7 +36701,7 @@
       </c>
       <c r="P18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>236</v>
+        <v>334</v>
       </c>
       <c r="Q18" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P18/INPUTS!$B$3)</f>
@@ -33393,35 +36713,35 @@
       </c>
       <c r="S18" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T18" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U18" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V18" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W18" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X18" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y18" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z18" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
@@ -33430,32 +36750,32 @@
         <v>43654</v>
       </c>
       <c r="B19" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B19</f>
+        <v>500</v>
       </c>
       <c r="C19" s="2">
-        <f ca="1">ROUND(B19*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G19</f>
+        <v>26</v>
       </c>
       <c r="D19" s="2">
-        <f ca="1">ROUND(C19*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L19</f>
+        <v>16</v>
       </c>
       <c r="E19" s="2">
-        <f ca="1">ROUND(D19*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q19</f>
+        <v>10</v>
       </c>
       <c r="F19" s="2">
         <f ca="1">ROUND(E19*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" s="2">
-        <f ca="1">ROUND(E19*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V19</f>
+        <v>7</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="2"/>
@@ -33473,11 +36793,11 @@
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N19" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="O19" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N19/INPUTS!$B$3)</f>
@@ -33485,7 +36805,7 @@
       </c>
       <c r="P19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="Q19" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P19/INPUTS!$B$3)</f>
@@ -33497,35 +36817,35 @@
       </c>
       <c r="S19" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T19" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U19" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V19" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W19" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X19" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y19" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z19" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
@@ -33534,32 +36854,32 @@
         <v>43661</v>
       </c>
       <c r="B20" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B20</f>
+        <v>500</v>
       </c>
       <c r="C20" s="2">
-        <f ca="1">ROUND(B20*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G20</f>
+        <v>25</v>
       </c>
       <c r="D20" s="2">
-        <f ca="1">ROUND(C20*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L20</f>
+        <v>14</v>
       </c>
       <c r="E20" s="2">
-        <f ca="1">ROUND(D20*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q20</f>
+        <v>8</v>
       </c>
       <c r="F20" s="2">
         <f ca="1">ROUND(E20*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="2">
-        <f ca="1">ROUND(E20*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V20</f>
+        <v>6</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="2"/>
@@ -33577,11 +36897,11 @@
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="N20" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="O20" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N20/INPUTS!$B$3)</f>
@@ -33589,7 +36909,7 @@
       </c>
       <c r="P20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>233</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P20/INPUTS!$B$3)</f>
@@ -33601,35 +36921,35 @@
       </c>
       <c r="S20" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T20" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U20" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V20" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W20" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X20" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y20" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z20" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
@@ -33638,32 +36958,32 @@
         <v>43668</v>
       </c>
       <c r="B21" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B21</f>
+        <v>500</v>
       </c>
       <c r="C21" s="2">
-        <f ca="1">ROUND(B21*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G21</f>
+        <v>26</v>
       </c>
       <c r="D21" s="2">
-        <f ca="1">ROUND(C21*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L21</f>
+        <v>16</v>
       </c>
       <c r="E21" s="2">
-        <f ca="1">ROUND(D21*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q21</f>
+        <v>9</v>
       </c>
       <c r="F21" s="2">
         <f ca="1">ROUND(E21*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2">
-        <f ca="1">ROUND(E21*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V21</f>
+        <v>7</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="2"/>
@@ -33681,11 +37001,11 @@
       </c>
       <c r="M21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>233</v>
+        <v>351</v>
       </c>
       <c r="O21" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N21/INPUTS!$B$3)</f>
@@ -33693,7 +37013,7 @@
       </c>
       <c r="P21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>230</v>
+        <v>348</v>
       </c>
       <c r="Q21" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P21/INPUTS!$B$3)</f>
@@ -33705,35 +37025,35 @@
       </c>
       <c r="S21" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T21" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U21" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V21" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W21" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X21" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y21" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z21" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
@@ -33742,32 +37062,32 @@
         <v>43675</v>
       </c>
       <c r="B22" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B22</f>
+        <v>500</v>
       </c>
       <c r="C22" s="2">
-        <f ca="1">ROUND(B22*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G22</f>
+        <v>25</v>
       </c>
       <c r="D22" s="2">
-        <f ca="1">ROUND(C22*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L22</f>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
-        <f ca="1">ROUND(D22*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q22</f>
+        <v>9</v>
       </c>
       <c r="F22" s="2">
         <f ca="1">ROUND(E22*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="2">
-        <f ca="1">ROUND(E22*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V22</f>
+        <v>7</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="2"/>
@@ -33785,11 +37105,11 @@
       </c>
       <c r="M22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="N22" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>231</v>
+        <v>356</v>
       </c>
       <c r="O22" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N22/INPUTS!$B$3)</f>
@@ -33797,7 +37117,7 @@
       </c>
       <c r="P22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P22/INPUTS!$B$3)</f>
@@ -33809,35 +37129,35 @@
       </c>
       <c r="S22" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T22" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U22" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V22" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W22" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X22" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y22" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z22" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -33846,32 +37166,32 @@
         <v>43682</v>
       </c>
       <c r="B23" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B23</f>
+        <v>500</v>
       </c>
       <c r="C23" s="2">
-        <f ca="1">ROUND(B23*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G23</f>
+        <v>26</v>
       </c>
       <c r="D23" s="2">
-        <f ca="1">ROUND(C23*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L23</f>
+        <v>16</v>
       </c>
       <c r="E23" s="2">
-        <f ca="1">ROUND(D23*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q23</f>
+        <v>9</v>
       </c>
       <c r="F23" s="2">
         <f ca="1">ROUND(E23*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2">
-        <f ca="1">ROUND(E23*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V23</f>
+        <v>7</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="2"/>
@@ -33889,11 +37209,11 @@
       </c>
       <c r="M23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="N23" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>227</v>
+        <v>359</v>
       </c>
       <c r="O23" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N23/INPUTS!$B$3)</f>
@@ -33901,7 +37221,7 @@
       </c>
       <c r="P23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>356</v>
       </c>
       <c r="Q23" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P23/INPUTS!$B$3)</f>
@@ -33913,35 +37233,35 @@
       </c>
       <c r="S23" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T23" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U23" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V23" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W23" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X23" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y23" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z23" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -33950,32 +37270,32 @@
         <v>43689</v>
       </c>
       <c r="B24" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B24</f>
+        <v>500</v>
       </c>
       <c r="C24" s="2">
-        <f ca="1">ROUND(B24*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G24</f>
+        <v>25</v>
       </c>
       <c r="D24" s="2">
-        <f ca="1">ROUND(C24*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L24</f>
+        <v>14</v>
       </c>
       <c r="E24" s="2">
-        <f ca="1">ROUND(D24*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q24</f>
+        <v>8</v>
       </c>
       <c r="F24" s="2">
         <f ca="1">ROUND(E24*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2">
-        <f ca="1">ROUND(E24*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V24</f>
+        <v>6</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="2"/>
@@ -33993,11 +37313,11 @@
       </c>
       <c r="M24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="N24" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>222</v>
+        <v>360</v>
       </c>
       <c r="O24" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N24/INPUTS!$B$3)</f>
@@ -34005,7 +37325,7 @@
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>219</v>
+        <v>357</v>
       </c>
       <c r="Q24" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P24/INPUTS!$B$3)</f>
@@ -34017,35 +37337,35 @@
       </c>
       <c r="S24" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T24" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U24" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V24" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W24" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X24" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y24" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z24" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
@@ -34054,32 +37374,32 @@
         <v>43696</v>
       </c>
       <c r="B25" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B25</f>
+        <v>500</v>
       </c>
       <c r="C25" s="2">
-        <f ca="1">ROUND(B25*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G25</f>
+        <v>26</v>
       </c>
       <c r="D25" s="2">
-        <f ca="1">ROUND(C25*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L25</f>
+        <v>16</v>
       </c>
       <c r="E25" s="2">
-        <f ca="1">ROUND(D25*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q25</f>
+        <v>10</v>
       </c>
       <c r="F25" s="2">
         <f ca="1">ROUND(E25*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" s="2">
-        <f ca="1">ROUND(E25*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V25</f>
+        <v>7</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="2"/>
@@ -34097,11 +37417,11 @@
       </c>
       <c r="M25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="N25" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>220</v>
+        <v>365</v>
       </c>
       <c r="O25" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N25/INPUTS!$B$3)</f>
@@ -34109,7 +37429,7 @@
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>217</v>
+        <v>362</v>
       </c>
       <c r="Q25" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P25/INPUTS!$B$3)</f>
@@ -34121,35 +37441,35 @@
       </c>
       <c r="S25" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T25" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U25" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V25" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W25" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X25" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y25" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z25" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
@@ -34158,32 +37478,32 @@
         <v>43703</v>
       </c>
       <c r="B26" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B26</f>
+        <v>500</v>
       </c>
       <c r="C26" s="2">
-        <f ca="1">ROUND(B26*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G26</f>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
-        <f ca="1">ROUND(C26*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L26</f>
+        <v>14</v>
       </c>
       <c r="E26" s="2">
-        <f ca="1">ROUND(D26*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q26</f>
+        <v>8</v>
       </c>
       <c r="F26" s="2">
         <f ca="1">ROUND(E26*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2">
-        <f ca="1">ROUND(E26*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V26</f>
+        <v>6</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="2"/>
@@ -34201,11 +37521,11 @@
       </c>
       <c r="M26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>218</v>
+        <v>369</v>
       </c>
       <c r="O26" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N26/INPUTS!$B$3)</f>
@@ -34213,7 +37533,7 @@
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>215</v>
+        <v>366</v>
       </c>
       <c r="Q26" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P26/INPUTS!$B$3)</f>
@@ -34225,35 +37545,35 @@
       </c>
       <c r="S26" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T26" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U26" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V26" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W26" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X26" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y26" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z26" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -34262,32 +37582,32 @@
         <v>43710</v>
       </c>
       <c r="B27" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B27</f>
+        <v>500</v>
       </c>
       <c r="C27" s="2">
-        <f ca="1">ROUND(B27*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G27</f>
+        <v>26</v>
       </c>
       <c r="D27" s="2">
-        <f ca="1">ROUND(C27*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L27</f>
+        <v>16</v>
       </c>
       <c r="E27" s="2">
-        <f ca="1">ROUND(D27*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q27</f>
+        <v>9</v>
       </c>
       <c r="F27" s="2">
         <f ca="1">ROUND(E27*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2">
-        <f ca="1">ROUND(E27*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V27</f>
+        <v>7</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="2"/>
@@ -34305,11 +37625,11 @@
       </c>
       <c r="M27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>216</v>
+        <v>374</v>
       </c>
       <c r="O27" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N27/INPUTS!$B$3)</f>
@@ -34317,7 +37637,7 @@
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>213</v>
+        <v>371</v>
       </c>
       <c r="Q27" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P27/INPUTS!$B$3)</f>
@@ -34329,35 +37649,35 @@
       </c>
       <c r="S27" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T27" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U27" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V27" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W27" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X27" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y27" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z27" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
@@ -34366,32 +37686,32 @@
         <v>43717</v>
       </c>
       <c r="B28" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B28</f>
+        <v>500</v>
       </c>
       <c r="C28" s="2">
-        <f ca="1">ROUND(B28*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G28</f>
+        <v>25</v>
       </c>
       <c r="D28" s="2">
-        <f ca="1">ROUND(C28*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L28</f>
+        <v>14</v>
       </c>
       <c r="E28" s="2">
-        <f ca="1">ROUND(D28*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q28</f>
+        <v>9</v>
       </c>
       <c r="F28" s="2">
         <f ca="1">ROUND(E28*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
-        <f ca="1">ROUND(E28*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V28</f>
+        <v>7</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="2"/>
@@ -34409,11 +37729,11 @@
       </c>
       <c r="M28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="N28" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>214</v>
+        <v>379</v>
       </c>
       <c r="O28" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N28/INPUTS!$B$3)</f>
@@ -34421,7 +37741,7 @@
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>211</v>
+        <v>376</v>
       </c>
       <c r="Q28" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P28/INPUTS!$B$3)</f>
@@ -34433,35 +37753,35 @@
       </c>
       <c r="S28" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T28" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U28" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V28" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W28" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X28" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y28" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z28" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
@@ -34470,32 +37790,32 @@
         <v>43724</v>
       </c>
       <c r="B29" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B29</f>
+        <v>500</v>
       </c>
       <c r="C29" s="2">
-        <f ca="1">ROUND(B29*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G29</f>
+        <v>26</v>
       </c>
       <c r="D29" s="2">
-        <f ca="1">ROUND(C29*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L29</f>
+        <v>16</v>
       </c>
       <c r="E29" s="2">
-        <f ca="1">ROUND(D29*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q29</f>
+        <v>9</v>
       </c>
       <c r="F29" s="2">
         <f ca="1">ROUND(E29*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="2">
-        <f ca="1">ROUND(E29*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V29</f>
+        <v>6</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="2"/>
@@ -34513,11 +37833,11 @@
       </c>
       <c r="M29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N29" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>213</v>
+        <v>384</v>
       </c>
       <c r="O29" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N29/INPUTS!$B$3)</f>
@@ -34525,7 +37845,7 @@
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>210</v>
+        <v>381</v>
       </c>
       <c r="Q29" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P29/INPUTS!$B$3)</f>
@@ -34537,35 +37857,35 @@
       </c>
       <c r="S29" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T29" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U29" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V29" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W29" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X29" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y29" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z29" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
@@ -34574,32 +37894,32 @@
         <v>43731</v>
       </c>
       <c r="B30" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B30</f>
+        <v>500</v>
       </c>
       <c r="C30" s="2">
-        <f ca="1">ROUND(B30*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G30</f>
+        <v>25</v>
       </c>
       <c r="D30" s="2">
-        <f ca="1">ROUND(C30*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L30</f>
+        <v>14</v>
       </c>
       <c r="E30" s="2">
-        <f ca="1">ROUND(D30*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q30</f>
+        <v>8</v>
       </c>
       <c r="F30" s="2">
         <f ca="1">ROUND(E30*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2">
-        <f ca="1">ROUND(E30*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V30</f>
+        <v>6</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="2"/>
@@ -34617,11 +37937,11 @@
       </c>
       <c r="M30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="N30" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>208</v>
+        <v>385</v>
       </c>
       <c r="O30" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N30/INPUTS!$B$3)</f>
@@ -34629,7 +37949,7 @@
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>205</v>
+        <v>382</v>
       </c>
       <c r="Q30" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P30/INPUTS!$B$3)</f>
@@ -34641,35 +37961,35 @@
       </c>
       <c r="S30" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T30" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U30" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V30" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W30" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X30" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y30" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z30" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
@@ -34678,32 +37998,32 @@
         <v>43738</v>
       </c>
       <c r="B31" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B31</f>
+        <v>500</v>
       </c>
       <c r="C31" s="2">
-        <f ca="1">ROUND(B31*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G31</f>
+        <v>26</v>
       </c>
       <c r="D31" s="2">
-        <f ca="1">ROUND(C31*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L31</f>
+        <v>16</v>
       </c>
       <c r="E31" s="2">
-        <f ca="1">ROUND(D31*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q31</f>
+        <v>10</v>
       </c>
       <c r="F31" s="2">
         <f ca="1">ROUND(E31*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="2">
-        <f ca="1">ROUND(E31*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V31</f>
+        <v>8</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="2"/>
@@ -34721,11 +38041,11 @@
       </c>
       <c r="M31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="N31" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>206</v>
+        <v>391</v>
       </c>
       <c r="O31" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N31/INPUTS!$B$3)</f>
@@ -34733,7 +38053,7 @@
       </c>
       <c r="P31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>203</v>
+        <v>388</v>
       </c>
       <c r="Q31" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P31/INPUTS!$B$3)</f>
@@ -34745,35 +38065,35 @@
       </c>
       <c r="S31" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T31" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U31" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V31" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W31" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X31" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y31" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z31" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
@@ -34782,32 +38102,32 @@
         <v>43745</v>
       </c>
       <c r="B32" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B32</f>
+        <v>500</v>
       </c>
       <c r="C32" s="2">
-        <f ca="1">ROUND(B32*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G32</f>
+        <v>25</v>
       </c>
       <c r="D32" s="2">
-        <f ca="1">ROUND(C32*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L32</f>
+        <v>14</v>
       </c>
       <c r="E32" s="2">
-        <f ca="1">ROUND(D32*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q32</f>
+        <v>8</v>
       </c>
       <c r="F32" s="2">
         <f ca="1">ROUND(E32*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="2">
-        <f ca="1">ROUND(E32*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V32</f>
+        <v>6</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="2"/>
@@ -34825,11 +38145,11 @@
       </c>
       <c r="M32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="N32" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>204</v>
+        <v>395</v>
       </c>
       <c r="O32" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N32/INPUTS!$B$3)</f>
@@ -34837,7 +38157,7 @@
       </c>
       <c r="P32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>201</v>
+        <v>392</v>
       </c>
       <c r="Q32" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P32/INPUTS!$B$3)</f>
@@ -34849,35 +38169,35 @@
       </c>
       <c r="S32" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T32" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U32" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V32" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W32" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X32" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y32" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z32" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
@@ -34886,32 +38206,32 @@
         <v>43752</v>
       </c>
       <c r="B33" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B33</f>
+        <v>500</v>
       </c>
       <c r="C33" s="2">
-        <f ca="1">ROUND(B33*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G33</f>
+        <v>26</v>
       </c>
       <c r="D33" s="2">
-        <f ca="1">ROUND(C33*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L33</f>
+        <v>16</v>
       </c>
       <c r="E33" s="2">
-        <f ca="1">ROUND(D33*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q33</f>
+        <v>9</v>
       </c>
       <c r="F33" s="2">
         <f ca="1">ROUND(E33*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="2">
-        <f ca="1">ROUND(E33*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V33</f>
+        <v>7</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="2"/>
@@ -34929,11 +38249,11 @@
       </c>
       <c r="M33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="N33" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>201</v>
+        <v>399</v>
       </c>
       <c r="O33" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N33/INPUTS!$B$3)</f>
@@ -34941,7 +38261,7 @@
       </c>
       <c r="P33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>396</v>
       </c>
       <c r="Q33" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P33/INPUTS!$B$3)</f>
@@ -34953,35 +38273,35 @@
       </c>
       <c r="S33" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T33" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U33" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V33" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W33" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X33" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y33" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z33" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
@@ -34990,32 +38310,32 @@
         <v>43759</v>
       </c>
       <c r="B34" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B34</f>
+        <v>500</v>
       </c>
       <c r="C34" s="2">
-        <f ca="1">ROUND(B34*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G34</f>
+        <v>25</v>
       </c>
       <c r="D34" s="2">
-        <f ca="1">ROUND(C34*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L34</f>
+        <v>14</v>
       </c>
       <c r="E34" s="2">
-        <f ca="1">ROUND(D34*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q34</f>
+        <v>8</v>
       </c>
       <c r="F34" s="2">
         <f ca="1">ROUND(E34*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="2">
-        <f ca="1">ROUND(E34*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V34</f>
+        <v>6</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
@@ -35033,11 +38353,11 @@
       </c>
       <c r="M34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="N34" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>199</v>
+        <v>403</v>
       </c>
       <c r="O34" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N34/INPUTS!$B$3)</f>
@@ -35045,7 +38365,7 @@
       </c>
       <c r="P34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>196</v>
+        <v>400</v>
       </c>
       <c r="Q34" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P34/INPUTS!$B$3)</f>
@@ -35057,35 +38377,35 @@
       </c>
       <c r="S34" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T34" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U34" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V34" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W34" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X34" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y34" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z34" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
@@ -35094,32 +38414,32 @@
         <v>43766</v>
       </c>
       <c r="B35" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B35</f>
+        <v>500</v>
       </c>
       <c r="C35" s="2">
-        <f ca="1">ROUND(B35*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G35</f>
+        <v>26</v>
       </c>
       <c r="D35" s="2">
-        <f ca="1">ROUND(C35*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L35</f>
+        <v>16</v>
       </c>
       <c r="E35" s="2">
-        <f ca="1">ROUND(D35*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q35</f>
+        <v>10</v>
       </c>
       <c r="F35" s="2">
         <f ca="1">ROUND(E35*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="2">
-        <f ca="1">ROUND(E35*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V35</f>
+        <v>7</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="2"/>
@@ -35137,11 +38457,11 @@
       </c>
       <c r="M35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="N35" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>196</v>
+        <v>407</v>
       </c>
       <c r="O35" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N35/INPUTS!$B$3)</f>
@@ -35149,7 +38469,7 @@
       </c>
       <c r="P35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>193</v>
+        <v>404</v>
       </c>
       <c r="Q35" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P35/INPUTS!$B$3)</f>
@@ -35161,35 +38481,35 @@
       </c>
       <c r="S35" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T35" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U35" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V35" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W35" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X35" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y35" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z35" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
@@ -35198,32 +38518,32 @@
         <v>43773</v>
       </c>
       <c r="B36" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B36</f>
+        <v>500</v>
       </c>
       <c r="C36" s="2">
-        <f ca="1">ROUND(B36*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G36</f>
+        <v>25</v>
       </c>
       <c r="D36" s="2">
-        <f ca="1">ROUND(C36*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L36</f>
+        <v>14</v>
       </c>
       <c r="E36" s="2">
-        <f ca="1">ROUND(D36*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q36</f>
+        <v>8</v>
       </c>
       <c r="F36" s="2">
         <f ca="1">ROUND(E36*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" s="2">
-        <f ca="1">ROUND(E36*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V36</f>
+        <v>6</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="2"/>
@@ -35241,11 +38561,11 @@
       </c>
       <c r="M36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="N36" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>192</v>
+        <v>409</v>
       </c>
       <c r="O36" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N36/INPUTS!$B$3)</f>
@@ -35253,7 +38573,7 @@
       </c>
       <c r="P36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>189</v>
+        <v>406</v>
       </c>
       <c r="Q36" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P36/INPUTS!$B$3)</f>
@@ -35265,35 +38585,35 @@
       </c>
       <c r="S36" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T36" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U36" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V36" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W36" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X36" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y36" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z36" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
@@ -35302,32 +38622,32 @@
         <v>43780</v>
       </c>
       <c r="B37" s="2">
-        <f ca="1">INPUTS!$C$21</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!B37</f>
+        <v>500</v>
       </c>
       <c r="C37" s="2">
-        <f ca="1">ROUND(B37*INPUTS!$C$13,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!G37</f>
+        <v>26</v>
       </c>
       <c r="D37" s="2">
-        <f ca="1">ROUND(C37*INPUTS!$C$14,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!L37</f>
+        <v>16</v>
       </c>
       <c r="E37" s="2">
-        <f ca="1">ROUND(D37*INPUTS!$C$15,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!Q37</f>
+        <v>10</v>
       </c>
       <c r="F37" s="2">
         <f ca="1">ROUND(E37*(1-INPUTS!$C$16),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37" s="2">
-        <f ca="1">ROUND(E37*INPUTS!$C$16,0)</f>
-        <v>0</v>
+        <f ca="1">ROUNDING!V37</f>
+        <v>8</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="2"/>
@@ -35345,11 +38665,11 @@
       </c>
       <c r="M37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="N37" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>190</v>
+        <v>415</v>
       </c>
       <c r="O37" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, N37/INPUTS!$B$3)</f>
@@ -35357,7 +38677,7 @@
       </c>
       <c r="P37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>187</v>
+        <v>412</v>
       </c>
       <c r="Q37" s="6">
         <f ca="1">IF(INPUTS!$B$3=0, 0, P37/INPUTS!$B$3)</f>
@@ -35369,35 +38689,35 @@
       </c>
       <c r="S37" s="64">
         <f ca="1">INVESTMENT!D$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T37" s="64">
         <f ca="1">INVESTMENT!E$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U37" s="64">
         <f ca="1">INVESTMENT!F$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V37" s="64">
         <f ca="1">INVESTMENT!G$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W37" s="64">
         <f ca="1">INVESTMENT!I$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X37" s="64">
         <f ca="1">INVESTMENT!J$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y37" s="64">
         <f ca="1">INVESTMENT!K$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z37" s="64">
         <f ca="1">INVESTMENT!L$5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
@@ -35422,11 +38742,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCFA04E-CEAE-1D4C-9348-08755944D418}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -36130,12 +39450,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0220B30-5172-8F43-B617-05CBEB835057}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36157,7 +39477,7 @@
         <v>107</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -36165,7 +39485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801D979E-CE21-1F47-95F5-548DDFECAE69}">
   <dimension ref="A1:B2"/>
   <sheetViews>
